--- a/Plan irrestricto.xlsx
+++ b/Plan irrestricto.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AD1" s="5" t="inlineStr">
         <is>
-          <t>Plan Irrestricto (DATO)</t>
+          <t>Plan Irrestricto</t>
         </is>
       </c>
       <c r="AE1" s="5" t="inlineStr">
@@ -684,11 +684,21 @@
           <t>PO Ppa Esp@ Bo Cj 20k AS</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Carne Recuperada</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Carne Recuperada ADM</t>
+        </is>
+      </c>
       <c r="H2" s="1" t="n">
         <v>189434</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>120001</v>
+        <v>5000</v>
       </c>
       <c r="J2" s="7" t="n">
         <v>0.5237947553168812</v>
@@ -725,24 +735,30 @@
         <v/>
       </c>
       <c r="V2" s="1" t="n">
-        <v>993300</v>
+        <v>0</v>
       </c>
       <c r="W2" s="8" t="n"/>
-      <c r="X2" s="1">
-        <f>V2+W2</f>
-        <v/>
+      <c r="X2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
         <f>U2-X2</f>
         <v/>
       </c>
-      <c r="Z2" s="1" t="n"/>
+      <c r="Z2" s="1" t="n">
+        <v>993300</v>
+      </c>
       <c r="AA2" s="1" t="n"/>
-      <c r="AB2" s="1" t="n"/>
+      <c r="AB2" s="1">
+        <f>Z2+AA2</f>
+        <v/>
+      </c>
       <c r="AC2" s="1" t="n">
+        <v>143799.72</v>
+      </c>
+      <c r="AD2" s="1" t="n">
         <v>1329099.72</v>
       </c>
-      <c r="AD2" s="1" t="n"/>
       <c r="AE2" s="1" t="n"/>
     </row>
     <row r="3">
@@ -769,11 +785,21 @@
           <t>PV PDM @ Bo Cj 15k AS</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Carne Recuperada</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Carne Recuperada</t>
+        </is>
+      </c>
       <c r="H3" s="1" t="n">
         <v>153669</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>144000</v>
+        <v>5000</v>
       </c>
       <c r="J3" s="7" t="n">
         <v>0.5237947553168812</v>
@@ -810,24 +836,30 @@
         <v/>
       </c>
       <c r="V3" s="1" t="n">
-        <v>112200</v>
+        <v>0</v>
       </c>
       <c r="W3" s="8" t="n"/>
-      <c r="X3" s="1">
-        <f>V3+W3</f>
-        <v/>
+      <c r="X3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
         <f>U3-X3</f>
         <v/>
       </c>
-      <c r="Z3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n">
+        <v>112200</v>
+      </c>
       <c r="AA3" s="1" t="n"/>
-      <c r="AB3" s="1" t="n"/>
+      <c r="AB3" s="1">
+        <f>Z3+AA3</f>
+        <v/>
+      </c>
       <c r="AC3" s="1" t="n">
+        <v>48008.182</v>
+      </c>
+      <c r="AD3" s="1" t="n">
         <v>208208.182</v>
       </c>
-      <c r="AD3" s="1" t="n"/>
       <c r="AE3" s="1" t="n"/>
     </row>
     <row r="4">
@@ -854,6 +886,16 @@
           <t>GO Chu Ctro@ Fi Cj 20k AS</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chuleta</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Chuleta Centro</t>
+        </is>
+      </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
@@ -914,9 +956,11 @@
         <v/>
       </c>
       <c r="AC4" s="1" t="n">
+        <v>4001.22</v>
+      </c>
+      <c r="AD4" s="1" t="n">
         <v>245876.22</v>
       </c>
-      <c r="AD4" s="1" t="n"/>
       <c r="AE4" s="1" t="n"/>
     </row>
     <row r="5">
@@ -943,11 +987,21 @@
           <t>GO Lom Tocino@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Grasa Lomo Tocino</t>
+        </is>
+      </c>
       <c r="H5" s="1" t="n">
         <v>137834</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>96000</v>
+        <v>5000</v>
       </c>
       <c r="J5" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -986,24 +1040,30 @@
         <v/>
       </c>
       <c r="V5" s="1" t="n">
-        <v>618100</v>
+        <v>0</v>
       </c>
       <c r="W5" s="8" t="n"/>
-      <c r="X5" s="1">
-        <f>V5+W5</f>
-        <v/>
+      <c r="X5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <f>U5-X5</f>
         <v/>
       </c>
-      <c r="Z5" s="1" t="n"/>
+      <c r="Z5" s="1" t="n">
+        <v>618100</v>
+      </c>
       <c r="AA5" s="1" t="n"/>
-      <c r="AB5" s="1" t="n"/>
+      <c r="AB5" s="1">
+        <f>Z5+AA5</f>
+        <v/>
+      </c>
       <c r="AC5" s="1" t="n">
+        <v>2518.32</v>
+      </c>
+      <c r="AD5" s="1" t="n">
         <v>644618.3199999999</v>
       </c>
-      <c r="AD5" s="1" t="n"/>
       <c r="AE5" s="1" t="n"/>
     </row>
     <row r="6">
@@ -1030,6 +1090,16 @@
           <t>GO Papda@ Cj t-f AS</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plancha</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Plancha s/Cuero</t>
+        </is>
+      </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
@@ -1089,10 +1159,10 @@
         <f>Z6+AA6</f>
         <v/>
       </c>
-      <c r="AC6" s="1" t="n">
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="1" t="n">
         <v>729000</v>
       </c>
-      <c r="AD6" s="1" t="n"/>
       <c r="AE6" s="1" t="n"/>
     </row>
     <row r="7">
@@ -1119,11 +1189,21 @@
           <t>GO Cue 20@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cuero Panceta</t>
+        </is>
+      </c>
       <c r="H7" s="1" t="n">
         <v>37238</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J7" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -1160,24 +1240,28 @@
         <v/>
       </c>
       <c r="V7" s="1" t="n">
-        <v>185600</v>
+        <v>0</v>
       </c>
       <c r="W7" s="8" t="n"/>
-      <c r="X7" s="1">
-        <f>V7+W7</f>
-        <v/>
+      <c r="X7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <f>U7-X7</f>
         <v/>
       </c>
-      <c r="Z7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n">
+        <v>185600</v>
+      </c>
       <c r="AA7" s="1" t="n"/>
-      <c r="AB7" s="1" t="n"/>
-      <c r="AC7" s="1" t="n">
+      <c r="AB7" s="1">
+        <f>Z7+AA7</f>
+        <v/>
+      </c>
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="n">
         <v>257600</v>
       </c>
-      <c r="AD7" s="1" t="n"/>
       <c r="AE7" s="1" t="n"/>
     </row>
     <row r="8">
@@ -1204,11 +1288,21 @@
           <t>GO Gord Lom Tocino@ Cj t-f AS</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Grasa Gordura</t>
+        </is>
+      </c>
       <c r="H8" s="1" t="n">
         <v>96000</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="J8" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -1247,24 +1341,30 @@
         <v/>
       </c>
       <c r="V8" s="1" t="n">
-        <v>514733.3333333333</v>
+        <v>0</v>
       </c>
       <c r="W8" s="8" t="n"/>
-      <c r="X8" s="1">
-        <f>V8+W8</f>
-        <v/>
+      <c r="X8" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <f>U8-X8</f>
         <v/>
       </c>
-      <c r="Z8" s="1" t="n"/>
+      <c r="Z8" s="1" t="n">
+        <v>514733.3333333333</v>
+      </c>
       <c r="AA8" s="1" t="n"/>
-      <c r="AB8" s="1" t="n"/>
+      <c r="AB8" s="1">
+        <f>Z8+AA8</f>
+        <v/>
+      </c>
       <c r="AC8" s="1" t="n">
+        <v>24000</v>
+      </c>
+      <c r="AD8" s="1" t="n">
         <v>610733.3333333333</v>
       </c>
-      <c r="AD8" s="1" t="n"/>
       <c r="AE8" s="1" t="n"/>
     </row>
     <row r="9">
@@ -1291,11 +1391,21 @@
           <t>GO Cne Long@ Cj t-f AS</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recortes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Recortes No Magro</t>
+        </is>
+      </c>
       <c r="H9" s="1" t="n">
         <v>212933</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>264000</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -1332,24 +1442,28 @@
         <v/>
       </c>
       <c r="V9" s="1" t="n">
-        <v>748880</v>
+        <v>0</v>
       </c>
       <c r="W9" s="8" t="n"/>
-      <c r="X9" s="1">
-        <f>V9+W9</f>
-        <v/>
+      <c r="X9" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <f>U9-X9</f>
         <v/>
       </c>
-      <c r="Z9" s="1" t="n"/>
+      <c r="Z9" s="1" t="n">
+        <v>748880</v>
+      </c>
       <c r="AA9" s="1" t="n"/>
-      <c r="AB9" s="1" t="n"/>
-      <c r="AC9" s="1" t="n">
+      <c r="AB9" s="1">
+        <f>Z9+AA9</f>
+        <v/>
+      </c>
+      <c r="AC9" s="1" t="n"/>
+      <c r="AD9" s="1" t="n">
         <v>784880</v>
       </c>
-      <c r="AD9" s="1" t="n"/>
       <c r="AE9" s="1" t="n"/>
     </row>
     <row r="10">
@@ -1376,11 +1490,21 @@
           <t>GO Lom Ctro 27@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lomo Centro</t>
+        </is>
+      </c>
       <c r="H10" s="1" t="n">
         <v>121861</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>96000</v>
+        <v>5000</v>
       </c>
       <c r="J10" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -1417,24 +1541,30 @@
         <v/>
       </c>
       <c r="V10" s="1" t="n">
-        <v>925275</v>
+        <v>0</v>
       </c>
       <c r="W10" s="8" t="n"/>
-      <c r="X10" s="1">
-        <f>V10+W10</f>
-        <v/>
+      <c r="X10" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <f>U10-X10</f>
         <v/>
       </c>
-      <c r="Z10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n">
+        <v>925275</v>
+      </c>
       <c r="AA10" s="1" t="n"/>
-      <c r="AB10" s="1" t="n"/>
+      <c r="AB10" s="1">
+        <f>Z10+AA10</f>
+        <v/>
+      </c>
       <c r="AC10" s="1" t="n">
+        <v>23796.98</v>
+      </c>
+      <c r="AD10" s="1" t="n">
         <v>1033071.98</v>
       </c>
-      <c r="AD10" s="1" t="n"/>
       <c r="AE10" s="1" t="n"/>
     </row>
     <row r="11">
@@ -1461,6 +1591,16 @@
           <t>GO Cos 79@ Bo Cj 20k AS</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cost-Pec</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cost-Pec Entero</t>
+        </is>
+      </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
@@ -1520,10 +1660,10 @@
         <f>Z11+AA11</f>
         <v/>
       </c>
-      <c r="AC11" s="1" t="n">
+      <c r="AC11" s="1" t="n"/>
+      <c r="AD11" s="1" t="n">
         <v>100500</v>
       </c>
-      <c r="AD11" s="1" t="n"/>
       <c r="AE11" s="1" t="n"/>
     </row>
     <row r="12">
@@ -1550,6 +1690,16 @@
           <t>GO Panc Tecl Nor@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H12" s="1" t="n">
         <v>5273</v>
       </c>
@@ -1604,10 +1754,10 @@
       <c r="Z12" s="1" t="n"/>
       <c r="AA12" s="1" t="n"/>
       <c r="AB12" s="1" t="n"/>
-      <c r="AC12" s="1" t="n">
+      <c r="AC12" s="1" t="n"/>
+      <c r="AD12" s="1" t="n">
         <v>14300</v>
       </c>
-      <c r="AD12" s="1" t="n"/>
       <c r="AE12" s="1" t="n"/>
     </row>
     <row r="13">
@@ -1634,6 +1784,16 @@
           <t>GO Pna Nor@ Bo Cj 20k AS</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pierna Entera</t>
+        </is>
+      </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
@@ -1693,10 +1853,10 @@
         <f>Z13+AA13</f>
         <v/>
       </c>
-      <c r="AC13" s="1" t="n">
+      <c r="AC13" s="1" t="n"/>
+      <c r="AD13" s="1" t="n">
         <v>64630</v>
       </c>
-      <c r="AD13" s="1" t="n"/>
       <c r="AE13" s="1" t="n"/>
     </row>
     <row r="14">
@@ -1723,6 +1883,16 @@
           <t>GO Grasa Forro Pna Limp@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Grasa Forro</t>
+        </is>
+      </c>
       <c r="H14" s="1" t="n">
         <v>18363</v>
       </c>
@@ -1782,10 +1952,10 @@
         <f>Z14+AA14</f>
         <v/>
       </c>
-      <c r="AC14" s="1" t="n">
+      <c r="AC14" s="1" t="n"/>
+      <c r="AD14" s="1" t="n">
         <v>376400</v>
       </c>
-      <c r="AD14" s="1" t="n"/>
       <c r="AE14" s="1" t="n"/>
     </row>
     <row r="15">
@@ -1812,11 +1982,21 @@
           <t>GO PpPna 59@ Fi Cj 20k AS</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa</t>
+        </is>
+      </c>
       <c r="H15" s="1" t="n">
         <v>221194</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>168000</v>
+        <v>5000</v>
       </c>
       <c r="J15" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -1853,24 +2033,30 @@
         <v/>
       </c>
       <c r="V15" s="1" t="n">
-        <v>2526720</v>
+        <v>0</v>
       </c>
       <c r="W15" s="8" t="n"/>
-      <c r="X15" s="1">
-        <f>V15+W15</f>
-        <v/>
+      <c r="X15" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <f>U15-X15</f>
         <v/>
       </c>
-      <c r="Z15" s="1" t="n"/>
+      <c r="Z15" s="1" t="n">
+        <v>2526720</v>
+      </c>
       <c r="AA15" s="1" t="n"/>
-      <c r="AB15" s="1" t="n"/>
+      <c r="AB15" s="1">
+        <f>Z15+AA15</f>
+        <v/>
+      </c>
       <c r="AC15" s="1" t="n">
+        <v>47974.38</v>
+      </c>
+      <c r="AD15" s="1" t="n">
         <v>2707394.38</v>
       </c>
-      <c r="AD15" s="1" t="n"/>
       <c r="AE15" s="1" t="n"/>
     </row>
     <row r="16">
@@ -1897,11 +2083,21 @@
           <t>GO Gord rebaje@ Bo Cj 20k AS</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Grasa Gordura</t>
+        </is>
+      </c>
       <c r="H16" s="1" t="n">
         <v>182908</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>192000</v>
+        <v>5000</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -1938,24 +2134,30 @@
         <v/>
       </c>
       <c r="V16" s="1" t="n">
-        <v>992250</v>
+        <v>0</v>
       </c>
       <c r="W16" s="8" t="n"/>
-      <c r="X16" s="1">
-        <f>V16+W16</f>
-        <v/>
+      <c r="X16" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <f>U16-X16</f>
         <v/>
       </c>
-      <c r="Z16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n">
+        <v>992250</v>
+      </c>
       <c r="AA16" s="1" t="n"/>
-      <c r="AB16" s="1" t="n"/>
+      <c r="AB16" s="1">
+        <f>Z16+AA16</f>
+        <v/>
+      </c>
       <c r="AC16" s="1" t="n">
+        <v>23997.03</v>
+      </c>
+      <c r="AD16" s="1" t="n">
         <v>1054247.03</v>
       </c>
-      <c r="AD16" s="1" t="n"/>
       <c r="AE16" s="1" t="n"/>
     </row>
     <row r="17">
@@ -1982,11 +2184,21 @@
           <t>GO Cue Papda CP@ Cj 20k bca AS</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cuero Papada</t>
+        </is>
+      </c>
       <c r="H17" s="1" t="n">
         <v>19000</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -2023,24 +2235,28 @@
         <v/>
       </c>
       <c r="V17" s="1" t="n">
-        <v>275800</v>
+        <v>0</v>
       </c>
       <c r="W17" s="8" t="n"/>
-      <c r="X17" s="1">
-        <f>V17+W17</f>
-        <v/>
+      <c r="X17" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <f>U17-X17</f>
         <v/>
       </c>
-      <c r="Z17" s="1" t="n"/>
+      <c r="Z17" s="1" t="n">
+        <v>275800</v>
+      </c>
       <c r="AA17" s="1" t="n"/>
-      <c r="AB17" s="1" t="n"/>
-      <c r="AC17" s="1" t="n">
+      <c r="AB17" s="1">
+        <f>Z17+AA17</f>
+        <v/>
+      </c>
+      <c r="AC17" s="1" t="n"/>
+      <c r="AD17" s="1" t="n">
         <v>309071</v>
       </c>
-      <c r="AD17" s="1" t="n"/>
       <c r="AE17" s="1" t="n"/>
     </row>
     <row r="18">
@@ -2067,11 +2283,21 @@
           <t>GO Triming 80/20@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Recortes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Recortes No Magro</t>
+        </is>
+      </c>
       <c r="H18" s="1" t="n">
         <v>55716</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J18" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -2108,24 +2334,28 @@
         <v/>
       </c>
       <c r="V18" s="1" t="n">
-        <v>568850</v>
+        <v>0</v>
       </c>
       <c r="W18" s="8" t="n"/>
-      <c r="X18" s="1">
-        <f>V18+W18</f>
-        <v/>
+      <c r="X18" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
         <f>U18-X18</f>
         <v/>
       </c>
-      <c r="Z18" s="1" t="n"/>
+      <c r="Z18" s="1" t="n">
+        <v>568850</v>
+      </c>
       <c r="AA18" s="1" t="n"/>
-      <c r="AB18" s="1" t="n"/>
-      <c r="AC18" s="1" t="n">
+      <c r="AB18" s="1">
+        <f>Z18+AA18</f>
+        <v/>
+      </c>
+      <c r="AC18" s="1" t="n"/>
+      <c r="AD18" s="1" t="n">
         <v>750850</v>
       </c>
-      <c r="AD18" s="1" t="n"/>
       <c r="AE18" s="1" t="n"/>
     </row>
     <row r="19">
@@ -2152,6 +2382,16 @@
           <t>GO Triming 70/30@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Recortes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Recortes No Magro</t>
+        </is>
+      </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
@@ -2207,9 +2447,11 @@
       <c r="AA19" s="1" t="n"/>
       <c r="AB19" s="1" t="n"/>
       <c r="AC19" s="1" t="n">
+        <v>2505.58</v>
+      </c>
+      <c r="AD19" s="1" t="n">
         <v>144405.58</v>
       </c>
-      <c r="AD19" s="1" t="n"/>
       <c r="AE19" s="1" t="n"/>
     </row>
     <row r="20">
@@ -2236,6 +2478,16 @@
           <t>GO Gord Esp@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Grasa Gordura</t>
+        </is>
+      </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
@@ -2295,10 +2547,10 @@
         <f>Z20+AA20</f>
         <v/>
       </c>
-      <c r="AC20" s="1" t="n">
+      <c r="AC20" s="1" t="n"/>
+      <c r="AD20" s="1" t="n">
         <v>59500</v>
       </c>
-      <c r="AD20" s="1" t="n"/>
       <c r="AE20" s="1" t="n"/>
     </row>
     <row r="21">
@@ -2325,11 +2577,21 @@
           <t>GO Triming 85/15@ Cj t-f 20k AS</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Recortes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Recortes No Magro</t>
+        </is>
+      </c>
       <c r="H21" s="1" t="n">
         <v>129511</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="J21" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -2366,24 +2628,30 @@
         <v/>
       </c>
       <c r="V21" s="1" t="n">
-        <v>565933.3333333334</v>
+        <v>0</v>
       </c>
       <c r="W21" s="8" t="n"/>
-      <c r="X21" s="1">
-        <f>V21+W21</f>
-        <v/>
+      <c r="X21" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
         <f>U21-X21</f>
         <v/>
       </c>
-      <c r="Z21" s="1" t="n"/>
+      <c r="Z21" s="1" t="n">
+        <v>565933.3333333334</v>
+      </c>
       <c r="AA21" s="1" t="n"/>
-      <c r="AB21" s="1" t="n"/>
+      <c r="AB21" s="1">
+        <f>Z21+AA21</f>
+        <v/>
+      </c>
       <c r="AC21" s="1" t="n">
+        <v>24016.53</v>
+      </c>
+      <c r="AD21" s="1" t="n">
         <v>709949.8633333334</v>
       </c>
-      <c r="AD21" s="1" t="n"/>
       <c r="AE21" s="1" t="n"/>
     </row>
     <row r="22">
@@ -2410,11 +2678,21 @@
           <t>GO Pulmon@ Cj 20k bca AS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H22" s="1" t="n">
         <v>54217</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J22" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -2451,24 +2729,28 @@
         <v/>
       </c>
       <c r="V22" s="1" t="n">
-        <v>102200</v>
+        <v>0</v>
       </c>
       <c r="W22" s="8" t="n"/>
-      <c r="X22" s="1">
-        <f>V22+W22</f>
-        <v/>
+      <c r="X22" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
         <f>U22-X22</f>
         <v/>
       </c>
-      <c r="Z22" s="1" t="n"/>
+      <c r="Z22" s="1" t="n">
+        <v>102200</v>
+      </c>
       <c r="AA22" s="1" t="n"/>
-      <c r="AB22" s="1" t="n"/>
-      <c r="AC22" s="1" t="n">
+      <c r="AB22" s="1">
+        <f>Z22+AA22</f>
+        <v/>
+      </c>
+      <c r="AC22" s="1" t="n"/>
+      <c r="AD22" s="1" t="n">
         <v>172700</v>
       </c>
-      <c r="AD22" s="1" t="n"/>
       <c r="AE22" s="1" t="n"/>
     </row>
     <row r="23">
@@ -2495,11 +2777,21 @@
           <t>GO Pana S/Corazón@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>9312</v>
+        <v>5000</v>
       </c>
       <c r="J23" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -2554,10 +2846,10 @@
         <f>Z23+AA23</f>
         <v/>
       </c>
-      <c r="AC23" s="1" t="n">
+      <c r="AC23" s="1" t="n"/>
+      <c r="AD23" s="1" t="n">
         <v>708000</v>
       </c>
-      <c r="AD23" s="1" t="n"/>
       <c r="AE23" s="1" t="n"/>
     </row>
     <row r="24">
@@ -2584,6 +2876,16 @@
           <t>GO Epiplón@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Grasa Interior</t>
+        </is>
+      </c>
       <c r="H24" s="1" t="n">
         <v>4533</v>
       </c>
@@ -2643,10 +2945,10 @@
         <f>Z24+AA24</f>
         <v/>
       </c>
-      <c r="AC24" s="1" t="n">
+      <c r="AC24" s="1" t="n"/>
+      <c r="AD24" s="1" t="n">
         <v>11800</v>
       </c>
-      <c r="AD24" s="1" t="n"/>
       <c r="AE24" s="1" t="n"/>
     </row>
     <row r="25">
@@ -2673,11 +2975,21 @@
           <t>GO Cue Back@ Cj 20k t-f AS</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cuero Back</t>
+        </is>
+      </c>
       <c r="H25" s="1" t="n">
         <v>52215</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J25" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -2714,24 +3026,28 @@
         <v/>
       </c>
       <c r="V25" s="1" t="n">
-        <v>231000</v>
+        <v>0</v>
       </c>
       <c r="W25" s="8" t="n"/>
-      <c r="X25" s="1">
-        <f>V25+W25</f>
-        <v/>
+      <c r="X25" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <f>U25-X25</f>
         <v/>
       </c>
-      <c r="Z25" s="1" t="n"/>
+      <c r="Z25" s="1" t="n">
+        <v>231000</v>
+      </c>
       <c r="AA25" s="1" t="n"/>
-      <c r="AB25" s="1" t="n"/>
-      <c r="AC25" s="1" t="n">
+      <c r="AB25" s="1">
+        <f>Z25+AA25</f>
+        <v/>
+      </c>
+      <c r="AC25" s="1" t="n"/>
+      <c r="AD25" s="1" t="n">
         <v>327000</v>
       </c>
-      <c r="AD25" s="1" t="n"/>
       <c r="AE25" s="1" t="n"/>
     </row>
     <row r="26">
@@ -2758,11 +3074,21 @@
           <t>GO Cue granel Esp CC@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cuero Mixto</t>
+        </is>
+      </c>
       <c r="H26" s="1" t="n">
         <v>150837</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>144000</v>
+        <v>5000</v>
       </c>
       <c r="J26" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -2799,24 +3125,28 @@
         <v/>
       </c>
       <c r="V26" s="1" t="n">
-        <v>909880</v>
+        <v>0</v>
       </c>
       <c r="W26" s="8" t="n"/>
-      <c r="X26" s="1">
-        <f>V26+W26</f>
-        <v/>
+      <c r="X26" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <f>U26-X26</f>
         <v/>
       </c>
-      <c r="Z26" s="1" t="n"/>
+      <c r="Z26" s="1" t="n">
+        <v>909880</v>
+      </c>
       <c r="AA26" s="1" t="n"/>
-      <c r="AB26" s="1" t="n"/>
-      <c r="AC26" s="1" t="n">
+      <c r="AB26" s="1">
+        <f>Z26+AA26</f>
+        <v/>
+      </c>
+      <c r="AC26" s="1" t="n"/>
+      <c r="AD26" s="1" t="n">
         <v>1037080</v>
       </c>
-      <c r="AD26" s="1" t="n"/>
       <c r="AE26" s="1" t="n"/>
     </row>
     <row r="27">
@@ -2843,6 +3173,16 @@
           <t>GO BB Ribs 20-24 Oz@ Cj 10k AS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Chuleta</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Chuleta Huesos</t>
+        </is>
+      </c>
       <c r="H27" s="1" t="n">
         <v>5011</v>
       </c>
@@ -2902,10 +3242,10 @@
         <f>Z27+AA27</f>
         <v/>
       </c>
-      <c r="AC27" s="1" t="n">
+      <c r="AC27" s="1" t="n"/>
+      <c r="AD27" s="1" t="n">
         <v>103300</v>
       </c>
-      <c r="AD27" s="1" t="n"/>
       <c r="AE27" s="1" t="n"/>
     </row>
     <row r="28">
@@ -2932,8 +3272,20 @@
           <t>GO Cue Papda CP@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Cuero Papada</t>
+        </is>
+      </c>
       <c r="H28" s="1" t="n"/>
-      <c r="I28" s="1" t="n"/>
+      <c r="I28" s="1" t="n">
+        <v>5000</v>
+      </c>
       <c r="J28" s="7" t="n">
         <v>0.3545854356400317</v>
       </c>
@@ -2982,10 +3334,10 @@
       <c r="Z28" s="1" t="n"/>
       <c r="AA28" s="1" t="n"/>
       <c r="AB28" s="1" t="n"/>
-      <c r="AC28" s="1" t="n">
+      <c r="AC28" s="1" t="n"/>
+      <c r="AD28" s="1" t="n">
         <v>24000</v>
       </c>
-      <c r="AD28" s="1" t="n"/>
       <c r="AE28" s="1" t="n"/>
     </row>
     <row r="29">
@@ -3012,11 +3364,21 @@
           <t>GO PpPal 77@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Paleta</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Paleta Pulpa</t>
+        </is>
+      </c>
       <c r="H29" s="1" t="n">
         <v>55532</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="J29" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -3053,24 +3415,30 @@
         <v/>
       </c>
       <c r="V29" s="1" t="n">
-        <v>1196000</v>
+        <v>0</v>
       </c>
       <c r="W29" s="8" t="n"/>
-      <c r="X29" s="1">
-        <f>V29+W29</f>
-        <v/>
+      <c r="X29" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
         <f>U29-X29</f>
         <v/>
       </c>
-      <c r="Z29" s="1" t="n"/>
+      <c r="Z29" s="1" t="n">
+        <v>1196000</v>
+      </c>
       <c r="AA29" s="1" t="n"/>
-      <c r="AB29" s="1" t="n"/>
+      <c r="AB29" s="1">
+        <f>Z29+AA29</f>
+        <v/>
+      </c>
       <c r="AC29" s="1" t="n">
+        <v>4003.94</v>
+      </c>
+      <c r="AD29" s="1" t="n">
         <v>1402862.94</v>
       </c>
-      <c r="AD29" s="1" t="n"/>
       <c r="AE29" s="1" t="n"/>
     </row>
     <row r="30">
@@ -3097,11 +3465,21 @@
           <t>GO BB Ribs Grd B@ Fi Cj 20k AS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Chuleta</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Chuleta Huesos</t>
+        </is>
+      </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="J30" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -3151,10 +3529,10 @@
       <c r="Z30" s="1" t="n"/>
       <c r="AA30" s="1" t="n"/>
       <c r="AB30" s="1" t="n"/>
-      <c r="AC30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="1" t="n"/>
+      <c r="AC30" s="1" t="n"/>
+      <c r="AD30" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AE30" s="1" t="n"/>
     </row>
     <row r="31">
@@ -3181,6 +3559,16 @@
           <t>GO Plancha Rebaje Ent@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Plancha</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Plancha s/Cuero</t>
+        </is>
+      </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
@@ -3240,10 +3628,10 @@
         <f>Z31+AA31</f>
         <v/>
       </c>
-      <c r="AC31" s="1" t="n">
+      <c r="AC31" s="1" t="n"/>
+      <c r="AD31" s="1" t="n">
         <v>75750</v>
       </c>
-      <c r="AD31" s="1" t="n"/>
       <c r="AE31" s="1" t="n"/>
     </row>
     <row r="32">
@@ -3270,11 +3658,21 @@
           <t>GO Gord chic@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Grasa Gordura</t>
+        </is>
+      </c>
       <c r="H32" s="1" t="n">
         <v>113453</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>52932</v>
+        <v>5000</v>
       </c>
       <c r="J32" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -3311,24 +3709,28 @@
         <v/>
       </c>
       <c r="V32" s="1" t="n">
-        <v>579150</v>
+        <v>0</v>
       </c>
       <c r="W32" s="8" t="n"/>
-      <c r="X32" s="1">
-        <f>V32+W32</f>
-        <v/>
+      <c r="X32" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
         <f>U32-X32</f>
         <v/>
       </c>
-      <c r="Z32" s="1" t="n"/>
+      <c r="Z32" s="1" t="n">
+        <v>579150</v>
+      </c>
       <c r="AA32" s="1" t="n"/>
-      <c r="AB32" s="1" t="n"/>
-      <c r="AC32" s="1" t="n">
+      <c r="AB32" s="1">
+        <f>Z32+AA32</f>
+        <v/>
+      </c>
+      <c r="AC32" s="1" t="n"/>
+      <c r="AD32" s="1" t="n">
         <v>759150</v>
       </c>
-      <c r="AD32" s="1" t="n"/>
       <c r="AE32" s="1" t="n"/>
     </row>
     <row r="33">
@@ -3355,6 +3757,16 @@
           <t>GO Forro Pal@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Cuero Forro</t>
+        </is>
+      </c>
       <c r="H33" s="1" t="n">
         <v>32990</v>
       </c>
@@ -3414,10 +3826,10 @@
         <f>Z33+AA33</f>
         <v/>
       </c>
-      <c r="AC33" s="1" t="n">
+      <c r="AC33" s="1" t="n"/>
+      <c r="AD33" s="1" t="n">
         <v>332566.6666666666</v>
       </c>
-      <c r="AD33" s="1" t="n"/>
       <c r="AE33" s="1" t="n"/>
     </row>
     <row r="34">
@@ -3444,6 +3856,16 @@
           <t>GO Pna Forro@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Cuero Forro</t>
+        </is>
+      </c>
       <c r="H34" s="1" t="n">
         <v>0</v>
       </c>
@@ -3503,10 +3925,10 @@
         <f>Z34+AA34</f>
         <v/>
       </c>
-      <c r="AC34" s="1" t="n">
+      <c r="AC34" s="1" t="n"/>
+      <c r="AD34" s="1" t="n">
         <v>70266.66666666667</v>
       </c>
-      <c r="AD34" s="1" t="n"/>
       <c r="AE34" s="1" t="n"/>
     </row>
     <row r="35">
@@ -3533,6 +3955,16 @@
           <t>GO Tripa s/Cal# Bidon AS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H35" s="1" t="n">
         <v>24171</v>
       </c>
@@ -3592,10 +4024,10 @@
         <f>Z35+AA35</f>
         <v/>
       </c>
-      <c r="AC35" s="1" t="n">
+      <c r="AC35" s="1" t="n"/>
+      <c r="AD35" s="1" t="n">
         <v>71780</v>
       </c>
-      <c r="AD35" s="1" t="n"/>
       <c r="AE35" s="1" t="n"/>
     </row>
     <row r="36">
@@ -3622,6 +4054,16 @@
           <t>GO Tripa Calib 32/35# Bo Bidon AS</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H36" s="1" t="n">
         <v>14087</v>
       </c>
@@ -3681,10 +4123,10 @@
         <f>Z36+AA36</f>
         <v/>
       </c>
-      <c r="AC36" s="1" t="n">
+      <c r="AC36" s="1" t="n"/>
+      <c r="AD36" s="1" t="n">
         <v>26586.8</v>
       </c>
-      <c r="AD36" s="1" t="n"/>
       <c r="AE36" s="1" t="n"/>
     </row>
     <row r="37">
@@ -3711,11 +4153,21 @@
           <t>GO Tripa Calib 35/38# Bo Bidon AS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H37" s="1" t="n">
         <v>2868</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J37" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -3770,10 +4222,10 @@
         <f>Z37+AA37</f>
         <v/>
       </c>
-      <c r="AC37" s="1" t="n">
+      <c r="AC37" s="1" t="n"/>
+      <c r="AD37" s="1" t="n">
         <v>29168.8</v>
       </c>
-      <c r="AD37" s="1" t="n"/>
       <c r="AE37" s="1" t="n"/>
     </row>
     <row r="38">
@@ -3800,8 +4252,20 @@
           <t>GO Tripa Calib 38/40# Bo Bidon AS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H38" s="1" t="n"/>
-      <c r="I38" s="1" t="n"/>
+      <c r="I38" s="1" t="n">
+        <v>5000</v>
+      </c>
       <c r="J38" s="7" t="n">
         <v>0.3545854356400317</v>
       </c>
@@ -3855,10 +4319,10 @@
         <f>Z38+AA38</f>
         <v/>
       </c>
-      <c r="AC38" s="1" t="n">
+      <c r="AC38" s="1" t="n"/>
+      <c r="AD38" s="1" t="n">
         <v>45740</v>
       </c>
-      <c r="AD38" s="1" t="n"/>
       <c r="AE38" s="1" t="n"/>
     </row>
     <row r="39">
@@ -3885,11 +4349,21 @@
           <t>GO Tripa Calib 40/42# Bo Bin AS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H39" s="1" t="n">
         <v>5895</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J39" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -3939,10 +4413,10 @@
       <c r="Z39" s="1" t="n"/>
       <c r="AA39" s="1" t="n"/>
       <c r="AB39" s="1" t="n"/>
-      <c r="AC39" s="1" t="n">
+      <c r="AC39" s="1" t="n"/>
+      <c r="AD39" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="AD39" s="1" t="n"/>
       <c r="AE39" s="1" t="n"/>
     </row>
     <row r="40">
@@ -3969,11 +4443,21 @@
           <t>GO Cne Falda Pan@ CJ 20k AS</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H40" s="1" t="n">
         <v>24220</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J40" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -4010,24 +4494,28 @@
         <v/>
       </c>
       <c r="V40" s="1" t="n">
-        <v>113333.3333333333</v>
+        <v>0</v>
       </c>
       <c r="W40" s="8" t="n"/>
-      <c r="X40" s="1">
-        <f>V40+W40</f>
-        <v/>
+      <c r="X40" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y40" s="1">
         <f>U40-X40</f>
         <v/>
       </c>
-      <c r="Z40" s="1" t="n"/>
+      <c r="Z40" s="1" t="n">
+        <v>113333.3333333333</v>
+      </c>
       <c r="AA40" s="1" t="n"/>
-      <c r="AB40" s="1" t="n"/>
-      <c r="AC40" s="1" t="n">
+      <c r="AB40" s="1">
+        <f>Z40+AA40</f>
+        <v/>
+      </c>
+      <c r="AC40" s="1" t="n"/>
+      <c r="AD40" s="1" t="n">
         <v>137333.3333333333</v>
       </c>
-      <c r="AD40" s="1" t="n"/>
       <c r="AE40" s="1" t="n"/>
     </row>
     <row r="41">
@@ -4054,11 +4542,21 @@
           <t>GO Grasa Forro Pal@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Grasa Forro</t>
+        </is>
+      </c>
       <c r="H41" s="1" t="n">
         <v>17929</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>9529</v>
+        <v>5000</v>
       </c>
       <c r="J41" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -4113,10 +4611,10 @@
         <f>Z41+AA41</f>
         <v/>
       </c>
-      <c r="AC41" s="1" t="n">
+      <c r="AC41" s="1" t="n"/>
+      <c r="AD41" s="1" t="n">
         <v>118400</v>
       </c>
-      <c r="AD41" s="1" t="n"/>
       <c r="AE41" s="1" t="n"/>
     </row>
     <row r="42">
@@ -4143,6 +4641,16 @@
           <t>GO Gord Rebaje@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Grasa Gordura</t>
+        </is>
+      </c>
       <c r="H42" s="1" t="n">
         <v>0</v>
       </c>
@@ -4204,10 +4712,10 @@
         <f>Z42+AA42</f>
         <v/>
       </c>
-      <c r="AC42" s="1" t="n">
+      <c r="AC42" s="1" t="n"/>
+      <c r="AD42" s="1" t="n">
         <v>29625</v>
       </c>
-      <c r="AD42" s="1" t="n"/>
       <c r="AE42" s="1" t="n"/>
     </row>
     <row r="43">
@@ -4231,14 +4739,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>GO Gord chic@ Cj 20k AS</t>
+          <t>GO Gord Chic@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Grasa Gordura</t>
         </is>
       </c>
       <c r="H43" s="1" t="n">
         <v>19082</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>21452</v>
+        <v>5000</v>
       </c>
       <c r="J43" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -4275,24 +4793,28 @@
         <v/>
       </c>
       <c r="V43" s="1" t="n">
-        <v>141300</v>
+        <v>0</v>
       </c>
       <c r="W43" s="8" t="n"/>
-      <c r="X43" s="1">
-        <f>V43+W43</f>
-        <v/>
+      <c r="X43" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
         <f>U43-X43</f>
         <v/>
       </c>
-      <c r="Z43" s="1" t="n"/>
+      <c r="Z43" s="1" t="n">
+        <v>141300</v>
+      </c>
       <c r="AA43" s="1" t="n"/>
-      <c r="AB43" s="1" t="n"/>
-      <c r="AC43" s="1" t="n">
+      <c r="AB43" s="1">
+        <f>Z43+AA43</f>
+        <v/>
+      </c>
+      <c r="AC43" s="1" t="n"/>
+      <c r="AD43" s="1" t="n">
         <v>178875</v>
       </c>
-      <c r="AD43" s="1" t="n"/>
       <c r="AE43" s="1" t="n"/>
     </row>
     <row r="44">
@@ -4319,6 +4841,16 @@
           <t>GO Cue Granel Esp CC@Cj 20k AS</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Cuero Mixto</t>
+        </is>
+      </c>
       <c r="H44" s="1" t="n">
         <v>22</v>
       </c>
@@ -4378,10 +4910,10 @@
         <f>Z44+AA44</f>
         <v/>
       </c>
-      <c r="AC44" s="1" t="n">
+      <c r="AC44" s="1" t="n"/>
+      <c r="AD44" s="1" t="n">
         <v>8300</v>
       </c>
-      <c r="AD44" s="1" t="n"/>
       <c r="AE44" s="1" t="n"/>
     </row>
     <row r="45">
@@ -4408,6 +4940,16 @@
           <t>GO Visual Triming@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Grasa Gordura</t>
+        </is>
+      </c>
       <c r="H45" s="1" t="n">
         <v>0</v>
       </c>
@@ -4467,10 +5009,10 @@
         <f>Z45+AA45</f>
         <v/>
       </c>
-      <c r="AC45" s="1" t="n">
+      <c r="AC45" s="1" t="n"/>
+      <c r="AD45" s="1" t="n">
         <v>60600</v>
       </c>
-      <c r="AD45" s="1" t="n"/>
       <c r="AE45" s="1" t="n"/>
     </row>
     <row r="46">
@@ -4497,6 +5039,16 @@
           <t>GO Gord chic@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Grasa Gordura</t>
+        </is>
+      </c>
       <c r="H46" s="1" t="n">
         <v>2061</v>
       </c>
@@ -4556,10 +5108,10 @@
         <f>Z46+AA46</f>
         <v/>
       </c>
-      <c r="AC46" s="1" t="n">
+      <c r="AC46" s="1" t="n"/>
+      <c r="AD46" s="1" t="n">
         <v>69450</v>
       </c>
-      <c r="AD46" s="1" t="n"/>
       <c r="AE46" s="1" t="n"/>
     </row>
     <row r="47">
@@ -4586,11 +5138,21 @@
           <t>GO Corazón Partido@ Cj t-f 20k AS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H47" s="1" t="n">
         <v>27354</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J47" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -4627,24 +5189,28 @@
         <v/>
       </c>
       <c r="V47" s="1" t="n">
-        <v>77233.33333333334</v>
+        <v>0</v>
       </c>
       <c r="W47" s="8" t="n"/>
-      <c r="X47" s="1">
-        <f>V47+W47</f>
-        <v/>
+      <c r="X47" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y47" s="1">
         <f>U47-X47</f>
         <v/>
       </c>
-      <c r="Z47" s="1" t="n"/>
+      <c r="Z47" s="1" t="n">
+        <v>77233.33333333334</v>
+      </c>
       <c r="AA47" s="1" t="n"/>
-      <c r="AB47" s="1" t="n"/>
-      <c r="AC47" s="1" t="n">
+      <c r="AB47" s="1">
+        <f>Z47+AA47</f>
+        <v/>
+      </c>
+      <c r="AC47" s="1" t="n"/>
+      <c r="AD47" s="1" t="n">
         <v>101233.3333333333</v>
       </c>
-      <c r="AD47" s="1" t="n"/>
       <c r="AE47" s="1" t="n"/>
     </row>
     <row r="48">
@@ -4671,6 +5237,16 @@
           <t>GO File C/cab@ Cj 5k AS</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Filete</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Filete c/Cabeza</t>
+        </is>
+      </c>
       <c r="H48" s="1" t="n">
         <v>0</v>
       </c>
@@ -4730,10 +5306,10 @@
         <f>Z48+AA48</f>
         <v/>
       </c>
-      <c r="AC48" s="1" t="n">
+      <c r="AC48" s="1" t="n"/>
+      <c r="AD48" s="1" t="n">
         <v>66915</v>
       </c>
-      <c r="AD48" s="1" t="n"/>
       <c r="AE48" s="1" t="n"/>
     </row>
     <row r="49">
@@ -4760,11 +5336,21 @@
           <t>GO Triming Panc@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Recortes</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Recortes No Magro</t>
+        </is>
+      </c>
       <c r="H49" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J49" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -4801,24 +5387,28 @@
         <v/>
       </c>
       <c r="V49" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="W49" s="8" t="n"/>
-      <c r="X49" s="1">
-        <f>V49+W49</f>
-        <v/>
+      <c r="X49" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
         <f>U49-X49</f>
         <v/>
       </c>
-      <c r="Z49" s="1" t="n"/>
+      <c r="Z49" s="1" t="n">
+        <v>48000</v>
+      </c>
       <c r="AA49" s="1" t="n"/>
-      <c r="AB49" s="1" t="n"/>
-      <c r="AC49" s="1" t="n">
+      <c r="AB49" s="1">
+        <f>Z49+AA49</f>
+        <v/>
+      </c>
+      <c r="AC49" s="1" t="n"/>
+      <c r="AD49" s="1" t="n">
         <v>48000</v>
       </c>
-      <c r="AD49" s="1" t="n"/>
       <c r="AE49" s="1" t="n"/>
     </row>
     <row r="50">
@@ -4845,6 +5435,16 @@
           <t>GO Patas B@ Bo Cj 20 k AS</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Subprod Patas-Manos</t>
+        </is>
+      </c>
       <c r="H50" s="1" t="n">
         <v>0</v>
       </c>
@@ -4899,10 +5499,10 @@
       <c r="Z50" s="1" t="n"/>
       <c r="AA50" s="1" t="n"/>
       <c r="AB50" s="1" t="n"/>
-      <c r="AC50" s="1" t="n">
+      <c r="AC50" s="1" t="n"/>
+      <c r="AD50" s="1" t="n">
         <v>12500</v>
       </c>
-      <c r="AD50" s="1" t="n"/>
       <c r="AE50" s="1" t="n"/>
     </row>
     <row r="51">
@@ -4929,6 +5529,16 @@
           <t>GO BB Ribs 24-28 Oz@ Cj 10k AS</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Chuleta</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Chuleta Huesos</t>
+        </is>
+      </c>
       <c r="H51" s="1" t="n">
         <v>0</v>
       </c>
@@ -4983,10 +5593,10 @@
       <c r="Z51" s="1" t="n"/>
       <c r="AA51" s="1" t="n"/>
       <c r="AB51" s="1" t="n"/>
-      <c r="AC51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="1" t="n"/>
+      <c r="AC51" s="1" t="n"/>
+      <c r="AD51" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AE51" s="1" t="n"/>
     </row>
     <row r="52">
@@ -5013,11 +5623,21 @@
           <t>GO PpPna 57@ Bo Cj AS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa</t>
+        </is>
+      </c>
       <c r="H52" s="1" t="n">
         <v>288000</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>240000</v>
+        <v>5000</v>
       </c>
       <c r="J52" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -5054,24 +5674,30 @@
         <v/>
       </c>
       <c r="V52" s="1" t="n">
-        <v>842800</v>
+        <v>0</v>
       </c>
       <c r="W52" s="8" t="n"/>
-      <c r="X52" s="1">
-        <f>V52+W52</f>
-        <v/>
+      <c r="X52" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
         <f>U52-X52</f>
         <v/>
       </c>
-      <c r="Z52" s="1" t="n"/>
+      <c r="Z52" s="1" t="n">
+        <v>842800</v>
+      </c>
       <c r="AA52" s="1" t="n"/>
-      <c r="AB52" s="1" t="n"/>
+      <c r="AB52" s="1">
+        <f>Z52+AA52</f>
+        <v/>
+      </c>
       <c r="AC52" s="1" t="n">
+        <v>11011.61</v>
+      </c>
+      <c r="AD52" s="1" t="n">
         <v>971811.61</v>
       </c>
-      <c r="AD52" s="1" t="n"/>
       <c r="AE52" s="1" t="n"/>
     </row>
     <row r="53">
@@ -5098,11 +5724,21 @@
           <t>GO Mantec@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Grasa Interior</t>
+        </is>
+      </c>
       <c r="H53" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J53" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -5139,24 +5775,28 @@
         <v/>
       </c>
       <c r="V53" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="W53" s="8" t="n"/>
-      <c r="X53" s="1">
-        <f>V53+W53</f>
-        <v/>
+      <c r="X53" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <f>U53-X53</f>
         <v/>
       </c>
-      <c r="Z53" s="1" t="n"/>
+      <c r="Z53" s="1" t="n">
+        <v>24000</v>
+      </c>
       <c r="AA53" s="1" t="n"/>
-      <c r="AB53" s="1" t="n"/>
-      <c r="AC53" s="1" t="n">
+      <c r="AB53" s="1">
+        <f>Z53+AA53</f>
+        <v/>
+      </c>
+      <c r="AC53" s="1" t="n"/>
+      <c r="AD53" s="1" t="n">
         <v>24000</v>
       </c>
-      <c r="AD53" s="1" t="n"/>
       <c r="AE53" s="1" t="n"/>
     </row>
     <row r="54">
@@ -5183,6 +5823,16 @@
           <t>GO Pal Nor@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Paleta</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Paleta Entera</t>
+        </is>
+      </c>
       <c r="H54" s="1" t="n">
         <v>0</v>
       </c>
@@ -5237,10 +5887,10 @@
       <c r="Z54" s="1" t="n"/>
       <c r="AA54" s="1" t="n"/>
       <c r="AB54" s="1" t="n"/>
-      <c r="AC54" s="1" t="n">
+      <c r="AC54" s="1" t="n"/>
+      <c r="AD54" s="1" t="n">
         <v>2600</v>
       </c>
-      <c r="AD54" s="1" t="n"/>
       <c r="AE54" s="1" t="n"/>
     </row>
     <row r="55">
@@ -5267,11 +5917,21 @@
           <t>GO Trip Calib Tub 35/39 Azul# Bidon AS</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H55" s="1" t="n">
         <v>300</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J55" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -5321,10 +5981,10 @@
       <c r="Z55" s="1" t="n"/>
       <c r="AA55" s="1" t="n"/>
       <c r="AB55" s="1" t="n"/>
-      <c r="AC55" s="1" t="n">
+      <c r="AC55" s="1" t="n"/>
+      <c r="AD55" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="AD55" s="1" t="n"/>
       <c r="AE55" s="1" t="n"/>
     </row>
     <row r="56">
@@ -5351,11 +6011,21 @@
           <t>GO Trip Calib Tub 37/40 Azul# Cj AS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H56" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J56" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -5392,28 +6062,24 @@
         <v/>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="W56" s="8" t="n"/>
-      <c r="X56" s="1" t="n">
-        <v>0</v>
+      <c r="X56" s="1">
+        <f>V56+W56</f>
+        <v/>
       </c>
       <c r="Y56" s="1">
         <f>U56-X56</f>
         <v/>
       </c>
-      <c r="Z56" s="1" t="n">
+      <c r="Z56" s="1" t="n"/>
+      <c r="AA56" s="1" t="n"/>
+      <c r="AB56" s="1" t="n"/>
+      <c r="AC56" s="1" t="n"/>
+      <c r="AD56" s="1" t="n">
         <v>6600</v>
       </c>
-      <c r="AA56" s="1" t="n"/>
-      <c r="AB56" s="1">
-        <f>Z56+AA56</f>
-        <v/>
-      </c>
-      <c r="AC56" s="1" t="n">
-        <v>6600</v>
-      </c>
-      <c r="AD56" s="1" t="n"/>
       <c r="AE56" s="1" t="n"/>
     </row>
     <row r="57">
@@ -5440,11 +6106,21 @@
           <t>GO PpPna 54@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa Fina</t>
+        </is>
+      </c>
       <c r="H57" s="1" t="n">
         <v>60279</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J57" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -5481,24 +6157,28 @@
         <v/>
       </c>
       <c r="V57" s="1" t="n">
-        <v>170800</v>
+        <v>0</v>
       </c>
       <c r="W57" s="8" t="n"/>
-      <c r="X57" s="1">
-        <f>V57+W57</f>
-        <v/>
+      <c r="X57" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y57" s="1">
         <f>U57-X57</f>
         <v/>
       </c>
-      <c r="Z57" s="1" t="n"/>
+      <c r="Z57" s="1" t="n">
+        <v>170800</v>
+      </c>
       <c r="AA57" s="1" t="n"/>
-      <c r="AB57" s="1" t="n"/>
-      <c r="AC57" s="1" t="n">
+      <c r="AB57" s="1">
+        <f>Z57+AA57</f>
+        <v/>
+      </c>
+      <c r="AC57" s="1" t="n"/>
+      <c r="AD57" s="1" t="n">
         <v>207800</v>
       </c>
-      <c r="AD57" s="1" t="n"/>
       <c r="AE57" s="1" t="n"/>
     </row>
     <row r="58">
@@ -5525,6 +6205,16 @@
           <t>GO Lom Vet 44@ Bo Cj 20k AS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H58" s="1" t="n">
         <v>0</v>
       </c>
@@ -5579,10 +6269,10 @@
       <c r="Z58" s="1" t="n"/>
       <c r="AA58" s="1" t="n"/>
       <c r="AB58" s="1" t="n"/>
-      <c r="AC58" s="1" t="n">
+      <c r="AC58" s="1" t="n"/>
+      <c r="AD58" s="1" t="n">
         <v>17900</v>
       </c>
-      <c r="AD58" s="1" t="n"/>
       <c r="AE58" s="1" t="n"/>
     </row>
     <row r="59">
@@ -5609,11 +6299,21 @@
           <t>GO Pulmon@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H59" s="1" t="n">
         <v>24500</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J59" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -5650,24 +6350,30 @@
         <v/>
       </c>
       <c r="V59" s="1" t="n">
-        <v>91200</v>
+        <v>0</v>
       </c>
       <c r="W59" s="8" t="n"/>
-      <c r="X59" s="1">
-        <f>V59+W59</f>
-        <v/>
+      <c r="X59" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
         <f>U59-X59</f>
         <v/>
       </c>
-      <c r="Z59" s="1" t="n"/>
+      <c r="Z59" s="1" t="n">
+        <v>91200</v>
+      </c>
       <c r="AA59" s="1" t="n"/>
-      <c r="AB59" s="1" t="n"/>
+      <c r="AB59" s="1">
+        <f>Z59+AA59</f>
+        <v/>
+      </c>
       <c r="AC59" s="1" t="n">
+        <v>22500.02</v>
+      </c>
+      <c r="AD59" s="1" t="n">
         <v>114700.02</v>
       </c>
-      <c r="AD59" s="1" t="n"/>
       <c r="AE59" s="1" t="n"/>
     </row>
     <row r="60">
@@ -5694,11 +6400,21 @@
           <t>PO Molleja Mrps@ Cj 10k AS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Menudencias</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Menudencias Contre</t>
+        </is>
+      </c>
       <c r="H60" s="1" t="n">
         <v>124984</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>135072</v>
+        <v>5000</v>
       </c>
       <c r="J60" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -5735,24 +6451,30 @@
         <v/>
       </c>
       <c r="V60" s="1" t="n">
-        <v>1009800</v>
+        <v>0</v>
       </c>
       <c r="W60" s="8" t="n"/>
-      <c r="X60" s="1">
-        <f>V60+W60</f>
-        <v/>
+      <c r="X60" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
         <f>U60-X60</f>
         <v/>
       </c>
-      <c r="Z60" s="1" t="n"/>
+      <c r="Z60" s="1" t="n">
+        <v>1009800</v>
+      </c>
       <c r="AA60" s="1" t="n"/>
-      <c r="AB60" s="1" t="n"/>
+      <c r="AB60" s="1">
+        <f>Z60+AA60</f>
+        <v/>
+      </c>
       <c r="AC60" s="1" t="n">
+        <v>24000</v>
+      </c>
+      <c r="AD60" s="1" t="n">
         <v>1122800</v>
       </c>
-      <c r="AD60" s="1" t="n"/>
       <c r="AE60" s="1" t="n"/>
     </row>
     <row r="61">
@@ -5779,11 +6501,21 @@
           <t>PO Pta Espinaz@ Cj 10k AS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Cazuela</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Cazuela Espinazo</t>
+        </is>
+      </c>
       <c r="H61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="J61" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -5838,10 +6570,10 @@
         <f>Z61+AA61</f>
         <v/>
       </c>
-      <c r="AC61" s="1" t="n">
+      <c r="AC61" s="1" t="n"/>
+      <c r="AD61" s="1" t="n">
         <v>174500</v>
       </c>
-      <c r="AD61" s="1" t="n"/>
       <c r="AE61" s="1" t="n"/>
     </row>
     <row r="62">
@@ -5868,11 +6600,21 @@
           <t>PO Pch Piel@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Subprod Piel</t>
+        </is>
+      </c>
       <c r="H62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J62" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -5922,10 +6664,10 @@
       <c r="Z62" s="1" t="n"/>
       <c r="AA62" s="1" t="n"/>
       <c r="AB62" s="1" t="n"/>
-      <c r="AC62" s="1" t="n">
+      <c r="AC62" s="1" t="n"/>
+      <c r="AD62" s="1" t="n">
         <v>24000</v>
       </c>
-      <c r="AD62" s="1" t="n"/>
       <c r="AE62" s="1" t="n"/>
     </row>
     <row r="63">
@@ -5952,11 +6694,21 @@
           <t>PO Ppa Esp 50 Pim@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Carne Recuperada</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Carne Recuperada Pul</t>
+        </is>
+      </c>
       <c r="H63" s="1" t="n">
         <v>604441</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>538009</v>
+        <v>5000</v>
       </c>
       <c r="J63" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -5993,24 +6745,30 @@
         <v/>
       </c>
       <c r="V63" s="1" t="n">
-        <v>5680100</v>
+        <v>0</v>
       </c>
       <c r="W63" s="8" t="n"/>
-      <c r="X63" s="1">
-        <f>V63+W63</f>
-        <v/>
+      <c r="X63" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y63" s="1">
         <f>U63-X63</f>
         <v/>
       </c>
-      <c r="Z63" s="1" t="n"/>
+      <c r="Z63" s="1" t="n">
+        <v>5680100</v>
+      </c>
       <c r="AA63" s="1" t="n"/>
-      <c r="AB63" s="1" t="n"/>
+      <c r="AB63" s="1">
+        <f>Z63+AA63</f>
+        <v/>
+      </c>
       <c r="AC63" s="1" t="n">
+        <v>311848.7</v>
+      </c>
+      <c r="AD63" s="1" t="n">
         <v>6303948.7</v>
       </c>
-      <c r="AD63" s="1" t="n"/>
       <c r="AE63" s="1" t="n"/>
     </row>
     <row r="64">
@@ -6037,11 +6795,21 @@
           <t>PO Ppa Esp@ 2 blo x 10k Cj AS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Carne Recuperada</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Carne Recuperada Pul</t>
+        </is>
+      </c>
       <c r="H64" s="1" t="n">
         <v>241117</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>241154</v>
+        <v>5000</v>
       </c>
       <c r="J64" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -6078,24 +6846,28 @@
         <v/>
       </c>
       <c r="V64" s="1" t="n">
-        <v>1645000</v>
+        <v>0</v>
       </c>
       <c r="W64" s="8" t="n"/>
-      <c r="X64" s="1">
-        <f>V64+W64</f>
-        <v/>
+      <c r="X64" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
         <f>U64-X64</f>
         <v/>
       </c>
-      <c r="Z64" s="1" t="n"/>
+      <c r="Z64" s="1" t="n">
+        <v>1645000</v>
+      </c>
       <c r="AA64" s="1" t="n"/>
-      <c r="AB64" s="1" t="n"/>
-      <c r="AC64" s="1" t="n">
+      <c r="AB64" s="1">
+        <f>Z64+AA64</f>
+        <v/>
+      </c>
+      <c r="AC64" s="1" t="n"/>
+      <c r="AD64" s="1" t="n">
         <v>1717000</v>
       </c>
-      <c r="AD64" s="1" t="n"/>
       <c r="AE64" s="1" t="n"/>
     </row>
     <row r="65">
@@ -6122,11 +6894,21 @@
           <t>PO Ctre Mrps@ Bo 12x1k Cj AS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Menudencias</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Menudencias Contre</t>
+        </is>
+      </c>
       <c r="H65" s="1" t="n">
         <v>41500</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>41500</v>
+        <v>5000</v>
       </c>
       <c r="J65" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -6163,24 +6945,28 @@
         <v/>
       </c>
       <c r="V65" s="1" t="n">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="W65" s="8" t="n"/>
-      <c r="X65" s="1">
-        <f>V65+W65</f>
-        <v/>
+      <c r="X65" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
         <f>U65-X65</f>
         <v/>
       </c>
-      <c r="Z65" s="1" t="n"/>
+      <c r="Z65" s="1" t="n">
+        <v>220000</v>
+      </c>
       <c r="AA65" s="1" t="n"/>
-      <c r="AB65" s="1" t="n"/>
-      <c r="AC65" s="1" t="n">
+      <c r="AB65" s="1">
+        <f>Z65+AA65</f>
+        <v/>
+      </c>
+      <c r="AC65" s="1" t="n"/>
+      <c r="AD65" s="1" t="n">
         <v>268000</v>
       </c>
-      <c r="AD65" s="1" t="n"/>
       <c r="AE65" s="1" t="n"/>
     </row>
     <row r="66">
@@ -6207,6 +6993,16 @@
           <t>GA S/m@ Bo Cj AS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Reproductor</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Reproductor Gallina</t>
+        </is>
+      </c>
       <c r="H66" s="1" t="n">
         <v>20493</v>
       </c>
@@ -6266,10 +7062,10 @@
         <f>Z66+AA66</f>
         <v/>
       </c>
-      <c r="AC66" s="1" t="n">
+      <c r="AC66" s="1" t="n"/>
+      <c r="AD66" s="1" t="n">
         <v>249000</v>
       </c>
-      <c r="AD66" s="1" t="n"/>
       <c r="AE66" s="1" t="n"/>
     </row>
     <row r="67">
@@ -6296,11 +7092,21 @@
           <t>PO Pana S/Corazón@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Menudencias</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Menudencias Pana</t>
+        </is>
+      </c>
       <c r="H67" s="1" t="n">
         <v>16654</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>16654</v>
+        <v>5000</v>
       </c>
       <c r="J67" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -6355,10 +7161,10 @@
         <f>Z67+AA67</f>
         <v/>
       </c>
-      <c r="AC67" s="1" t="n">
+      <c r="AC67" s="1" t="n"/>
+      <c r="AD67" s="1" t="n">
         <v>538200</v>
       </c>
-      <c r="AD67" s="1" t="n"/>
       <c r="AE67" s="1" t="n"/>
     </row>
     <row r="68">
@@ -6385,6 +7191,16 @@
           <t>PO PchDeh Random@ Cj 10k AS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Pechuga Desh</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Pechuga Desh s/Piel</t>
+        </is>
+      </c>
       <c r="H68" s="1" t="n">
         <v>390</v>
       </c>
@@ -6446,10 +7262,10 @@
         <f>Z68+AA68</f>
         <v/>
       </c>
-      <c r="AC68" s="1" t="n">
+      <c r="AC68" s="1" t="n"/>
+      <c r="AD68" s="1" t="n">
         <v>226583.3333333333</v>
       </c>
-      <c r="AD68" s="1" t="n"/>
       <c r="AE68" s="1" t="n"/>
     </row>
     <row r="69">
@@ -6476,11 +7292,21 @@
           <t>PO CDM 14% proteina@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Carne Recuperada</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Carne Recuperada ADM</t>
+        </is>
+      </c>
       <c r="H69" s="1" t="n">
         <v>240000</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>153862</v>
+        <v>5000</v>
       </c>
       <c r="J69" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -6517,24 +7343,30 @@
         <v/>
       </c>
       <c r="V69" s="1" t="n">
-        <v>338250</v>
+        <v>0</v>
       </c>
       <c r="W69" s="8" t="n"/>
-      <c r="X69" s="1">
-        <f>V69+W69</f>
-        <v/>
+      <c r="X69" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
         <f>U69-X69</f>
         <v/>
       </c>
-      <c r="Z69" s="1" t="n"/>
+      <c r="Z69" s="1" t="n">
+        <v>338250</v>
+      </c>
       <c r="AA69" s="1" t="n"/>
-      <c r="AB69" s="1" t="n"/>
+      <c r="AB69" s="1">
+        <f>Z69+AA69</f>
+        <v/>
+      </c>
       <c r="AC69" s="1" t="n">
+        <v>52002.50999999999</v>
+      </c>
+      <c r="AD69" s="1" t="n">
         <v>510252.51</v>
       </c>
-      <c r="AD69" s="1" t="n"/>
       <c r="AE69" s="1" t="n"/>
     </row>
     <row r="70">
@@ -6561,11 +7393,21 @@
           <t>PO Ppa Esp@ 2 Blox10kg CJ AS SD</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Carne Recuperada</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Carne Recuperada ADM</t>
+        </is>
+      </c>
       <c r="H70" s="1" t="n">
         <v>192000</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>214716</v>
+        <v>5000</v>
       </c>
       <c r="J70" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -6602,24 +7444,30 @@
         <v/>
       </c>
       <c r="V70" s="1" t="n">
-        <v>2570333.333333333</v>
+        <v>0</v>
       </c>
       <c r="W70" s="8" t="n"/>
-      <c r="X70" s="1">
-        <f>V70+W70</f>
-        <v/>
+      <c r="X70" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
         <f>U70-X70</f>
         <v/>
       </c>
-      <c r="Z70" s="1" t="n"/>
+      <c r="Z70" s="1" t="n">
+        <v>2570333.333333333</v>
+      </c>
       <c r="AA70" s="1" t="n"/>
-      <c r="AB70" s="1" t="n"/>
+      <c r="AB70" s="1">
+        <f>Z70+AA70</f>
+        <v/>
+      </c>
       <c r="AC70" s="1" t="n">
+        <v>22590.38</v>
+      </c>
+      <c r="AD70" s="1" t="n">
         <v>2616923.713333333</v>
       </c>
-      <c r="AD70" s="1" t="n"/>
       <c r="AE70" s="1" t="n"/>
     </row>
     <row r="71">
@@ -6646,11 +7494,21 @@
           <t>PO Pana S/cora blo@Cj 20kg AS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Menudencias</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Menudencias Pana</t>
+        </is>
+      </c>
       <c r="H71" s="1" t="n">
         <v>74419</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>106945</v>
+        <v>5000</v>
       </c>
       <c r="J71" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -6687,24 +7545,30 @@
         <v/>
       </c>
       <c r="V71" s="1" t="n">
-        <v>404700</v>
+        <v>0</v>
       </c>
       <c r="W71" s="8" t="n"/>
-      <c r="X71" s="1">
-        <f>V71+W71</f>
-        <v/>
+      <c r="X71" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
         <f>U71-X71</f>
         <v/>
       </c>
-      <c r="Z71" s="1" t="n"/>
+      <c r="Z71" s="1" t="n">
+        <v>404700</v>
+      </c>
       <c r="AA71" s="1" t="n"/>
-      <c r="AB71" s="1" t="n"/>
+      <c r="AB71" s="1">
+        <f>Z71+AA71</f>
+        <v/>
+      </c>
       <c r="AC71" s="1" t="n">
+        <v>23982.75</v>
+      </c>
+      <c r="AD71" s="1" t="n">
         <v>452682.75</v>
       </c>
-      <c r="AD71" s="1" t="n"/>
       <c r="AE71" s="1" t="n"/>
     </row>
     <row r="72">
@@ -6731,8 +7595,20 @@
           <t>PO Corazon@ Cj 18k AS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Menudencias</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Menudencias Corazón</t>
+        </is>
+      </c>
       <c r="H72" s="1" t="n"/>
-      <c r="I72" s="1" t="n"/>
+      <c r="I72" s="1" t="n">
+        <v>5000</v>
+      </c>
       <c r="J72" s="7" t="n">
         <v>0.4774507263260858</v>
       </c>
@@ -6786,10 +7662,10 @@
         <f>Z72+AA72</f>
         <v/>
       </c>
-      <c r="AC72" s="1" t="n">
+      <c r="AC72" s="1" t="n"/>
+      <c r="AD72" s="1" t="n">
         <v>92605</v>
       </c>
-      <c r="AD72" s="1" t="n"/>
       <c r="AE72" s="1" t="n"/>
     </row>
     <row r="73">
@@ -6816,11 +7692,21 @@
           <t>PO Corazón@ Placa Cj 19kg SD</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Menudencias</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Menudencias Corazón</t>
+        </is>
+      </c>
       <c r="H73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>13231</v>
+        <v>5000</v>
       </c>
       <c r="J73" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -6870,10 +7756,10 @@
       <c r="Z73" s="1" t="n"/>
       <c r="AA73" s="1" t="n"/>
       <c r="AB73" s="1" t="n"/>
-      <c r="AC73" s="1" t="n">
+      <c r="AC73" s="1" t="n"/>
+      <c r="AD73" s="1" t="n">
         <v>12000</v>
       </c>
-      <c r="AD73" s="1" t="n"/>
       <c r="AE73" s="1" t="n"/>
     </row>
     <row r="74">
@@ -6900,6 +7786,16 @@
           <t>GO Triming Lom@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Recortes</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Recortes Magro</t>
+        </is>
+      </c>
       <c r="H74" s="1" t="n">
         <v>0</v>
       </c>
@@ -6959,10 +7855,10 @@
         <f>Z74+AA74</f>
         <v/>
       </c>
-      <c r="AC74" s="1" t="n">
+      <c r="AC74" s="1" t="n"/>
+      <c r="AD74" s="1" t="n">
         <v>72000</v>
       </c>
-      <c r="AD74" s="1" t="n"/>
       <c r="AE74" s="1" t="n"/>
     </row>
     <row r="75">
@@ -6989,6 +7885,16 @@
           <t>GO Cordon Lom@ CJ 20k AS</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Recortes</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Recortes No Magro</t>
+        </is>
+      </c>
       <c r="H75" s="1" t="n">
         <v>541</v>
       </c>
@@ -7043,10 +7949,10 @@
       <c r="Z75" s="1" t="n"/>
       <c r="AA75" s="1" t="n"/>
       <c r="AB75" s="1" t="n"/>
-      <c r="AC75" s="1" t="n">
+      <c r="AC75" s="1" t="n"/>
+      <c r="AD75" s="1" t="n">
         <v>24000</v>
       </c>
-      <c r="AD75" s="1" t="n"/>
       <c r="AE75" s="1" t="n"/>
     </row>
     <row r="76">
@@ -7073,11 +7979,21 @@
           <t>PO Garra Pla@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Patas</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Patas Garras</t>
+        </is>
+      </c>
       <c r="H76" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>4889</v>
+        <v>5000</v>
       </c>
       <c r="J76" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -7127,10 +8043,10 @@
       <c r="Z76" s="1" t="n"/>
       <c r="AA76" s="1" t="n"/>
       <c r="AB76" s="1" t="n"/>
-      <c r="AC76" s="1" t="n">
+      <c r="AC76" s="1" t="n"/>
+      <c r="AD76" s="1" t="n">
         <v>4760</v>
       </c>
-      <c r="AD76" s="1" t="n"/>
       <c r="AE76" s="1" t="n"/>
     </row>
     <row r="77">
@@ -7157,11 +8073,21 @@
           <t>GO Lom Ctro 27 S/f@ Va Cj t-f AS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Lomo Centro</t>
+        </is>
+      </c>
       <c r="H77" s="1" t="n">
         <v>106118</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>96000</v>
+        <v>5000</v>
       </c>
       <c r="J77" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -7198,24 +8124,28 @@
         <v/>
       </c>
       <c r="V77" s="1" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="W77" s="8" t="n"/>
-      <c r="X77" s="1">
-        <f>V77+W77</f>
-        <v/>
+      <c r="X77" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <f>U77-X77</f>
         <v/>
       </c>
-      <c r="Z77" s="1" t="n"/>
+      <c r="Z77" s="1" t="n">
+        <v>72000</v>
+      </c>
       <c r="AA77" s="1" t="n"/>
-      <c r="AB77" s="1" t="n"/>
-      <c r="AC77" s="1" t="n">
+      <c r="AB77" s="1">
+        <f>Z77+AA77</f>
+        <v/>
+      </c>
+      <c r="AC77" s="1" t="n"/>
+      <c r="AD77" s="1" t="n">
         <v>96000</v>
       </c>
-      <c r="AD77" s="1" t="n"/>
       <c r="AE77" s="1" t="n"/>
     </row>
     <row r="78">
@@ -7242,6 +8172,16 @@
           <t>GO Hso Pecho@ Cj 10k AS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Huesos</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Huesos Cuarto Centra</t>
+        </is>
+      </c>
       <c r="H78" s="1" t="n">
         <v>869</v>
       </c>
@@ -7296,10 +8236,10 @@
       <c r="Z78" s="1" t="n"/>
       <c r="AA78" s="1" t="n"/>
       <c r="AB78" s="1" t="n"/>
-      <c r="AC78" s="1" t="n">
+      <c r="AC78" s="1" t="n"/>
+      <c r="AD78" s="1" t="n">
         <v>48000</v>
       </c>
-      <c r="AD78" s="1" t="n"/>
       <c r="AE78" s="1" t="n"/>
     </row>
     <row r="79">
@@ -7324,6 +8264,16 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>GO Lom Tocino S/cue@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Grasa Lomo Tocino</t>
         </is>
       </c>
       <c r="H79" s="1" t="n">
@@ -7408,6 +8358,16 @@
           <t>GO Cos 75 Mit@ Cj 14k AS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Cost-Pec</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Cost-Pec Trozos</t>
+        </is>
+      </c>
       <c r="H80" s="1" t="n">
         <v>0</v>
       </c>
@@ -7462,10 +8422,10 @@
       <c r="Z80" s="1" t="n"/>
       <c r="AA80" s="1" t="n"/>
       <c r="AB80" s="1" t="n"/>
-      <c r="AC80" s="1" t="n">
+      <c r="AC80" s="1" t="n"/>
+      <c r="AD80" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="AD80" s="1" t="n"/>
       <c r="AE80" s="1" t="n"/>
     </row>
     <row r="81">
@@ -7490,6 +8450,16 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>GO BB Ribs@ Cj 13k AS</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Chuleta</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Chuleta Huesos</t>
         </is>
       </c>
       <c r="H81" s="1" t="n">
@@ -7574,11 +8544,21 @@
           <t>GO Papda Cab@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Plancha</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Plancha s/Cuero</t>
+        </is>
+      </c>
       <c r="H82" s="1" t="n">
         <v>110455</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J82" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -7628,10 +8608,10 @@
       <c r="Z82" s="1" t="n"/>
       <c r="AA82" s="1" t="n"/>
       <c r="AB82" s="1" t="n"/>
-      <c r="AC82" s="1" t="n">
+      <c r="AC82" s="1" t="n"/>
+      <c r="AD82" s="1" t="n">
         <v>72000</v>
       </c>
-      <c r="AD82" s="1" t="n"/>
       <c r="AE82" s="1" t="n"/>
     </row>
     <row r="83">
@@ -7658,11 +8638,21 @@
           <t>GO Manos@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Subprod Patas-Manos</t>
+        </is>
+      </c>
       <c r="H83" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J83" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -7712,10 +8702,10 @@
       <c r="Z83" s="1" t="n"/>
       <c r="AA83" s="1" t="n"/>
       <c r="AB83" s="1" t="n"/>
-      <c r="AC83" s="1" t="n">
+      <c r="AC83" s="1" t="n"/>
+      <c r="AD83" s="1" t="n">
         <v>24000</v>
       </c>
-      <c r="AD83" s="1" t="n"/>
       <c r="AE83" s="1" t="n"/>
     </row>
     <row r="84">
@@ -7742,11 +8732,21 @@
           <t>PO Pech c/h c/p@ Cj 16k AS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Pechuga</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pechuga Entera</t>
+        </is>
+      </c>
       <c r="H84" s="1" t="n">
         <v>48000</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J84" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -7796,10 +8796,10 @@
       <c r="Z84" s="1" t="n"/>
       <c r="AA84" s="1" t="n"/>
       <c r="AB84" s="1" t="n"/>
-      <c r="AC84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="1" t="n"/>
+      <c r="AC84" s="1" t="n"/>
+      <c r="AD84" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AE84" s="1" t="n"/>
     </row>
     <row r="85">
@@ -7826,11 +8826,21 @@
           <t xml:space="preserve"> GO PpPna 59@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa</t>
+        </is>
+      </c>
       <c r="H85" s="1" t="n">
         <v>48000</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J85" s="7" t="n">
         <v>0.3545854356400317</v>
@@ -7880,10 +8890,10 @@
       <c r="Z85" s="1" t="n"/>
       <c r="AA85" s="1" t="n"/>
       <c r="AB85" s="1" t="n"/>
-      <c r="AC85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="1" t="n"/>
+      <c r="AC85" s="1" t="n"/>
+      <c r="AD85" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AE85" s="1" t="n"/>
     </row>
     <row r="86">
@@ -7910,11 +8920,21 @@
           <t>GO Lom Vet@ Cj 12k AK</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H86" s="1" t="n">
         <v>57661</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>57474</v>
+        <v>5000</v>
       </c>
       <c r="J86" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -7951,24 +8971,30 @@
         <v/>
       </c>
       <c r="V86" s="1" t="n">
-        <v>907100</v>
+        <v>0</v>
       </c>
       <c r="W86" s="8" t="n"/>
-      <c r="X86" s="1">
-        <f>V86+W86</f>
-        <v/>
+      <c r="X86" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y86" s="1">
         <f>U86-X86</f>
         <v/>
       </c>
-      <c r="Z86" s="1" t="n"/>
+      <c r="Z86" s="1" t="n">
+        <v>907100</v>
+      </c>
       <c r="AA86" s="1" t="n"/>
-      <c r="AB86" s="1" t="n"/>
+      <c r="AB86" s="1">
+        <f>Z86+AA86</f>
+        <v/>
+      </c>
       <c r="AC86" s="1" t="n">
+        <v>22009.75</v>
+      </c>
+      <c r="AD86" s="1" t="n">
         <v>973109.75</v>
       </c>
-      <c r="AD86" s="1" t="n"/>
       <c r="AE86" s="1" t="n"/>
     </row>
     <row r="87">
@@ -7995,11 +9021,21 @@
           <t>GO Lom Vet@ Cj 12k TJ</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H87" s="1" t="n">
         <v>127021</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>110000</v>
+        <v>5000</v>
       </c>
       <c r="J87" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8036,24 +9072,30 @@
         <v/>
       </c>
       <c r="V87" s="1" t="n">
-        <v>725800</v>
+        <v>0</v>
       </c>
       <c r="W87" s="8" t="n"/>
-      <c r="X87" s="1">
-        <f>V87+W87</f>
-        <v/>
+      <c r="X87" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y87" s="1">
         <f>U87-X87</f>
         <v/>
       </c>
-      <c r="Z87" s="1" t="n"/>
+      <c r="Z87" s="1" t="n">
+        <v>725800</v>
+      </c>
       <c r="AA87" s="1" t="n"/>
-      <c r="AB87" s="1" t="n"/>
+      <c r="AB87" s="1">
+        <f>Z87+AA87</f>
+        <v/>
+      </c>
       <c r="AC87" s="1" t="n">
+        <v>22010.87</v>
+      </c>
+      <c r="AD87" s="1" t="n">
         <v>847810.87</v>
       </c>
-      <c r="AD87" s="1" t="n"/>
       <c r="AE87" s="1" t="n"/>
     </row>
     <row r="88">
@@ -8080,11 +9122,21 @@
           <t>GO Panc C/cue@ Cj Panc 230 TJ</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Panceta c/Cuero</t>
+        </is>
+      </c>
       <c r="H88" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>9371</v>
+        <v>5000</v>
       </c>
       <c r="J88" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8140,9 +9192,11 @@
         <v/>
       </c>
       <c r="AC88" s="1" t="n">
+        <v>22012.3</v>
+      </c>
+      <c r="AD88" s="1" t="n">
         <v>286012.3</v>
       </c>
-      <c r="AD88" s="1" t="n"/>
       <c r="AE88" s="1" t="n"/>
     </row>
     <row r="89">
@@ -8169,11 +9223,21 @@
           <t>GO Panc C/cue@ Cj Panc 230 AK</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Panceta c/Cuero</t>
+        </is>
+      </c>
       <c r="H89" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>8517</v>
+        <v>5000</v>
       </c>
       <c r="J89" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8229,9 +9293,11 @@
         <v/>
       </c>
       <c r="AC89" s="1" t="n">
+        <v>22010.02</v>
+      </c>
+      <c r="AD89" s="1" t="n">
         <v>198010.02</v>
       </c>
-      <c r="AD89" s="1" t="n"/>
       <c r="AE89" s="1" t="n"/>
     </row>
     <row r="90">
@@ -8258,11 +9324,21 @@
           <t>GO Papda K@ Cj 20k AK</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Plancha</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Plancha s/Cuero</t>
+        </is>
+      </c>
       <c r="H90" s="1" t="n">
         <v>144763</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>198000</v>
+        <v>5000</v>
       </c>
       <c r="J90" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8299,24 +9375,30 @@
         <v/>
       </c>
       <c r="V90" s="1" t="n">
-        <v>803400</v>
+        <v>0</v>
       </c>
       <c r="W90" s="8" t="n"/>
-      <c r="X90" s="1">
-        <f>V90+W90</f>
-        <v/>
+      <c r="X90" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y90" s="1">
         <f>U90-X90</f>
         <v/>
       </c>
-      <c r="Z90" s="1" t="n"/>
+      <c r="Z90" s="1" t="n">
+        <v>803400</v>
+      </c>
       <c r="AA90" s="1" t="n"/>
-      <c r="AB90" s="1" t="n"/>
+      <c r="AB90" s="1">
+        <f>Z90+AA90</f>
+        <v/>
+      </c>
       <c r="AC90" s="1" t="n">
+        <v>66222.06</v>
+      </c>
+      <c r="AD90" s="1" t="n">
         <v>869622.0600000001</v>
       </c>
-      <c r="AD90" s="1" t="n"/>
       <c r="AE90" s="1" t="n"/>
     </row>
     <row r="91">
@@ -8343,11 +9425,21 @@
           <t>GO PernilM C/M@ Cj 15k AK</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Pernil</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pernil Mano</t>
+        </is>
+      </c>
       <c r="H91" s="1" t="n">
         <v>88340</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>86000</v>
+        <v>5000</v>
       </c>
       <c r="J91" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8384,24 +9476,30 @@
         <v/>
       </c>
       <c r="V91" s="1" t="n">
-        <v>211200</v>
+        <v>0</v>
       </c>
       <c r="W91" s="8" t="n"/>
-      <c r="X91" s="1">
-        <f>V91+W91</f>
-        <v/>
+      <c r="X91" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y91" s="1">
         <f>U91-X91</f>
         <v/>
       </c>
-      <c r="Z91" s="1" t="n"/>
+      <c r="Z91" s="1" t="n">
+        <v>211200</v>
+      </c>
       <c r="AA91" s="1" t="n"/>
-      <c r="AB91" s="1" t="n"/>
+      <c r="AB91" s="1">
+        <f>Z91+AA91</f>
+        <v/>
+      </c>
       <c r="AC91" s="1" t="n">
+        <v>22004.64</v>
+      </c>
+      <c r="AD91" s="1" t="n">
         <v>277204.64</v>
       </c>
-      <c r="AD91" s="1" t="n"/>
       <c r="AE91" s="1" t="n"/>
     </row>
     <row r="92">
@@ -8428,11 +9526,21 @@
           <t>GO PernilM C/M@ Cj 15k TJ</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Pernil</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pernil Mano</t>
+        </is>
+      </c>
       <c r="H92" s="1" t="n">
         <v>42000</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>48641</v>
+        <v>5000</v>
       </c>
       <c r="J92" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8469,24 +9577,30 @@
         <v/>
       </c>
       <c r="V92" s="1" t="n">
-        <v>97500</v>
+        <v>0</v>
       </c>
       <c r="W92" s="8" t="n"/>
-      <c r="X92" s="1">
-        <f>V92+W92</f>
-        <v/>
+      <c r="X92" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y92" s="1">
         <f>U92-X92</f>
         <v/>
       </c>
-      <c r="Z92" s="1" t="n"/>
+      <c r="Z92" s="1" t="n">
+        <v>97500</v>
+      </c>
       <c r="AA92" s="1" t="n"/>
-      <c r="AB92" s="1" t="n"/>
+      <c r="AB92" s="1">
+        <f>Z92+AA92</f>
+        <v/>
+      </c>
       <c r="AC92" s="1" t="n">
+        <v>22011.06</v>
+      </c>
+      <c r="AD92" s="1" t="n">
         <v>273511.06</v>
       </c>
-      <c r="AD92" s="1" t="n"/>
       <c r="AE92" s="1" t="n"/>
     </row>
     <row r="93">
@@ -8513,11 +9627,21 @@
           <t>GO Tira Hso Ctro@ Cj 20k TJ</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Huesos</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Huesos Cuarto Centra</t>
+        </is>
+      </c>
       <c r="H93" s="1" t="n">
         <v>150836</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>154000</v>
+        <v>5000</v>
       </c>
       <c r="J93" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8554,24 +9678,28 @@
         <v/>
       </c>
       <c r="V93" s="1" t="n">
-        <v>351500</v>
+        <v>0</v>
       </c>
       <c r="W93" s="8" t="n"/>
-      <c r="X93" s="1">
-        <f>V93+W93</f>
-        <v/>
+      <c r="X93" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y93" s="1">
         <f>U93-X93</f>
         <v/>
       </c>
-      <c r="Z93" s="1" t="n"/>
+      <c r="Z93" s="1" t="n">
+        <v>351500</v>
+      </c>
       <c r="AA93" s="1" t="n"/>
-      <c r="AB93" s="1" t="n"/>
-      <c r="AC93" s="1" t="n">
+      <c r="AB93" s="1">
+        <f>Z93+AA93</f>
+        <v/>
+      </c>
+      <c r="AC93" s="1" t="n"/>
+      <c r="AD93" s="1" t="n">
         <v>386500</v>
       </c>
-      <c r="AD93" s="1" t="n"/>
       <c r="AE93" s="1" t="n"/>
     </row>
     <row r="94">
@@ -8598,11 +9726,21 @@
           <t>GO Tira Hso Ctro@ Cj 20k AK</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Huesos</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Huesos Cuarto Centra</t>
+        </is>
+      </c>
       <c r="H94" s="1" t="n">
         <v>3581</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>15768</v>
+        <v>5000</v>
       </c>
       <c r="J94" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8658,9 +9796,11 @@
         <v/>
       </c>
       <c r="AC94" s="1" t="n">
+        <v>66000</v>
+      </c>
+      <c r="AD94" s="1" t="n">
         <v>296300</v>
       </c>
-      <c r="AD94" s="1" t="n"/>
       <c r="AE94" s="1" t="n"/>
     </row>
     <row r="95">
@@ -8687,11 +9827,21 @@
           <t>GO Hso Cogote@ Bo Cj 20k TJ</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Huesos</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Huesos Cuarto Delant</t>
+        </is>
+      </c>
       <c r="H95" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>28442</v>
+        <v>5000</v>
       </c>
       <c r="J95" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8728,24 +9878,30 @@
         <v/>
       </c>
       <c r="V95" s="1" t="n">
-        <v>112800</v>
+        <v>0</v>
       </c>
       <c r="W95" s="8" t="n"/>
-      <c r="X95" s="1">
-        <f>V95+W95</f>
-        <v/>
+      <c r="X95" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y95" s="1">
         <f>U95-X95</f>
         <v/>
       </c>
-      <c r="Z95" s="1" t="n"/>
+      <c r="Z95" s="1" t="n">
+        <v>112800</v>
+      </c>
       <c r="AA95" s="1" t="n"/>
-      <c r="AB95" s="1" t="n"/>
+      <c r="AB95" s="1">
+        <f>Z95+AA95</f>
+        <v/>
+      </c>
       <c r="AC95" s="1" t="n">
+        <v>66000</v>
+      </c>
+      <c r="AD95" s="1" t="n">
         <v>200800</v>
       </c>
-      <c r="AD95" s="1" t="n"/>
       <c r="AE95" s="1" t="n"/>
     </row>
     <row r="96">
@@ -8772,11 +9928,21 @@
           <t>GO Hso Cogote@ Bo Cj 20k AK</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Huesos</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Huesos Cuarto Delant</t>
+        </is>
+      </c>
       <c r="H96" s="1" t="n">
         <v>57578</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>36000</v>
+        <v>5000</v>
       </c>
       <c r="J96" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8813,24 +9979,28 @@
         <v/>
       </c>
       <c r="V96" s="1" t="n">
-        <v>66000</v>
+        <v>0</v>
       </c>
       <c r="W96" s="8" t="n"/>
-      <c r="X96" s="1">
-        <f>V96+W96</f>
-        <v/>
+      <c r="X96" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y96" s="1">
         <f>U96-X96</f>
         <v/>
       </c>
-      <c r="Z96" s="1" t="n"/>
+      <c r="Z96" s="1" t="n">
+        <v>66000</v>
+      </c>
       <c r="AA96" s="1" t="n"/>
-      <c r="AB96" s="1" t="n"/>
-      <c r="AC96" s="1" t="n">
+      <c r="AB96" s="1">
+        <f>Z96+AA96</f>
+        <v/>
+      </c>
+      <c r="AC96" s="1" t="n"/>
+      <c r="AD96" s="1" t="n">
         <v>132000</v>
       </c>
-      <c r="AD96" s="1" t="n"/>
       <c r="AE96" s="1" t="n"/>
     </row>
     <row r="97">
@@ -8857,11 +10027,21 @@
           <t>GO Hso Pecho@ Cj Lom Vet TJ</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Huesos</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Huesos Cuarto Centra</t>
+        </is>
+      </c>
       <c r="H97" s="1" t="n">
         <v>48465</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J97" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8898,24 +10078,30 @@
         <v/>
       </c>
       <c r="V97" s="1" t="n">
-        <v>195250</v>
+        <v>0</v>
       </c>
       <c r="W97" s="8" t="n"/>
-      <c r="X97" s="1">
-        <f>V97+W97</f>
-        <v/>
+      <c r="X97" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y97" s="1">
         <f>U97-X97</f>
         <v/>
       </c>
-      <c r="Z97" s="1" t="n"/>
+      <c r="Z97" s="1" t="n">
+        <v>195250</v>
+      </c>
       <c r="AA97" s="1" t="n"/>
-      <c r="AB97" s="1" t="n"/>
+      <c r="AB97" s="1">
+        <f>Z97+AA97</f>
+        <v/>
+      </c>
       <c r="AC97" s="1" t="n">
+        <v>24000</v>
+      </c>
+      <c r="AD97" s="1" t="n">
         <v>243250</v>
       </c>
-      <c r="AD97" s="1" t="n"/>
       <c r="AE97" s="1" t="n"/>
     </row>
     <row r="98">
@@ -8942,11 +10128,21 @@
           <t>GO PernilM@ Cj 20k AK</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Pernil</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Pernil Mano</t>
+        </is>
+      </c>
       <c r="H98" s="1" t="n">
         <v>38202</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>44000</v>
+        <v>5000</v>
       </c>
       <c r="J98" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -8983,24 +10179,30 @@
         <v/>
       </c>
       <c r="V98" s="1" t="n">
-        <v>88000</v>
+        <v>0</v>
       </c>
       <c r="W98" s="8" t="n"/>
-      <c r="X98" s="1">
-        <f>V98+W98</f>
-        <v/>
+      <c r="X98" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y98" s="1">
         <f>U98-X98</f>
         <v/>
       </c>
-      <c r="Z98" s="1" t="n"/>
+      <c r="Z98" s="1" t="n">
+        <v>88000</v>
+      </c>
       <c r="AA98" s="1" t="n"/>
-      <c r="AB98" s="1" t="n"/>
+      <c r="AB98" s="1">
+        <f>Z98+AA98</f>
+        <v/>
+      </c>
       <c r="AC98" s="1" t="n">
+        <v>44011.66</v>
+      </c>
+      <c r="AD98" s="1" t="n">
         <v>132011.66</v>
       </c>
-      <c r="AD98" s="1" t="n"/>
       <c r="AE98" s="1" t="n"/>
     </row>
     <row r="99">
@@ -9027,11 +10229,21 @@
           <t>GO Pecho S/cue K@ Cj 20k TJ</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Cost-Pec</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Cost-Pec Entero</t>
+        </is>
+      </c>
       <c r="H99" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>11484</v>
+        <v>5000</v>
       </c>
       <c r="J99" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -9086,10 +10298,10 @@
         <f>Z99+AA99</f>
         <v/>
       </c>
-      <c r="AC99" s="1" t="n">
+      <c r="AC99" s="1" t="n"/>
+      <c r="AD99" s="1" t="n">
         <v>251300</v>
       </c>
-      <c r="AD99" s="1" t="n"/>
       <c r="AE99" s="1" t="n"/>
     </row>
     <row r="100">
@@ -9116,11 +10328,21 @@
           <t>GO Pecho S/cue K@ Cj 20k AK</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Cost-Pec</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Cost-Pec Entero</t>
+        </is>
+      </c>
       <c r="H100" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>1774</v>
+        <v>5000</v>
       </c>
       <c r="J100" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -9175,10 +10397,10 @@
         <f>Z100+AA100</f>
         <v/>
       </c>
-      <c r="AC100" s="1" t="n">
+      <c r="AC100" s="1" t="n"/>
+      <c r="AD100" s="1" t="n">
         <v>176000</v>
       </c>
-      <c r="AD100" s="1" t="n"/>
       <c r="AE100" s="1" t="n"/>
     </row>
     <row r="101">
@@ -9205,11 +10427,21 @@
           <t>GO Malaya 5-6mm@ Bo Cj 9k AS</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Prolijado</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Prolijado Malaya</t>
+        </is>
+      </c>
       <c r="H101" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>828</v>
+        <v>5000</v>
       </c>
       <c r="J101" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -9246,28 +10478,24 @@
         <v/>
       </c>
       <c r="V101" s="1" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="W101" s="8" t="n"/>
-      <c r="X101" s="1" t="n">
-        <v>0</v>
+      <c r="X101" s="1">
+        <f>V101+W101</f>
+        <v/>
       </c>
       <c r="Y101" s="1">
         <f>U101-X101</f>
         <v/>
       </c>
-      <c r="Z101" s="1" t="n">
-        <v>12000</v>
-      </c>
+      <c r="Z101" s="1" t="n"/>
       <c r="AA101" s="1" t="n"/>
-      <c r="AB101" s="1">
-        <f>Z101+AA101</f>
-        <v/>
-      </c>
-      <c r="AC101" s="1" t="n">
+      <c r="AB101" s="1" t="n"/>
+      <c r="AC101" s="1" t="n"/>
+      <c r="AD101" s="1" t="n">
         <v>19000</v>
       </c>
-      <c r="AD101" s="1" t="n"/>
       <c r="AE101" s="1" t="n"/>
     </row>
     <row r="102">
@@ -9294,11 +10522,21 @@
           <t>GO Recto Tubo Crud@ Cj 10k AS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H102" s="1" t="n">
         <v>19657</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J102" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -9348,10 +10586,10 @@
       <c r="Z102" s="1" t="n"/>
       <c r="AA102" s="1" t="n"/>
       <c r="AB102" s="1" t="n"/>
-      <c r="AC102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD102" s="1" t="n"/>
+      <c r="AC102" s="1" t="n"/>
+      <c r="AD102" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AE102" s="1" t="n"/>
     </row>
     <row r="103">
@@ -9378,11 +10616,21 @@
           <t>GO Platead Lom TF@ Cj 10k AK (TS)</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Prolijado</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Prolijado Plateada</t>
+        </is>
+      </c>
       <c r="H103" s="1" t="n">
         <v>27022</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>44000</v>
+        <v>5000</v>
       </c>
       <c r="J103" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -9419,24 +10667,28 @@
         <v/>
       </c>
       <c r="V103" s="1" t="n">
-        <v>176000</v>
+        <v>0</v>
       </c>
       <c r="W103" s="8" t="n"/>
-      <c r="X103" s="1">
-        <f>V103+W103</f>
-        <v/>
+      <c r="X103" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y103" s="1">
         <f>U103-X103</f>
         <v/>
       </c>
-      <c r="Z103" s="1" t="n"/>
+      <c r="Z103" s="1" t="n">
+        <v>176000</v>
+      </c>
       <c r="AA103" s="1" t="n"/>
-      <c r="AB103" s="1" t="n"/>
-      <c r="AC103" s="1" t="n">
+      <c r="AB103" s="1">
+        <f>Z103+AA103</f>
+        <v/>
+      </c>
+      <c r="AC103" s="1" t="n"/>
+      <c r="AD103" s="1" t="n">
         <v>198000</v>
       </c>
-      <c r="AD103" s="1" t="n"/>
       <c r="AE103" s="1" t="n"/>
     </row>
     <row r="104">
@@ -9463,11 +10715,21 @@
           <t>GO Panc S/cue@ Cj Panc TJ</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H104" s="1" t="n">
         <v>517682</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>550000</v>
+        <v>5000</v>
       </c>
       <c r="J104" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -9504,24 +10766,30 @@
         <v/>
       </c>
       <c r="V104" s="1" t="n">
-        <v>3412800</v>
+        <v>0</v>
       </c>
       <c r="W104" s="8" t="n"/>
-      <c r="X104" s="1">
-        <f>V104+W104</f>
-        <v/>
+      <c r="X104" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y104" s="1">
         <f>U104-X104</f>
         <v/>
       </c>
-      <c r="Z104" s="1" t="n"/>
+      <c r="Z104" s="1" t="n">
+        <v>3412800</v>
+      </c>
       <c r="AA104" s="1" t="n"/>
-      <c r="AB104" s="1" t="n"/>
+      <c r="AB104" s="1">
+        <f>Z104+AA104</f>
+        <v/>
+      </c>
       <c r="AC104" s="1" t="n">
+        <v>176027.8</v>
+      </c>
+      <c r="AD104" s="1" t="n">
         <v>3845827.8</v>
       </c>
-      <c r="AD104" s="1" t="n"/>
       <c r="AE104" s="1" t="n"/>
     </row>
     <row r="105">
@@ -9548,11 +10816,21 @@
           <t>GO Panc S/cue@ Cj Panc AK</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H105" s="1" t="n">
         <v>63649</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>154000</v>
+        <v>5000</v>
       </c>
       <c r="J105" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -9589,24 +10867,30 @@
         <v/>
       </c>
       <c r="V105" s="1" t="n">
-        <v>2066250</v>
+        <v>0</v>
       </c>
       <c r="W105" s="8" t="n"/>
-      <c r="X105" s="1">
-        <f>V105+W105</f>
-        <v/>
+      <c r="X105" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y105" s="1">
         <f>U105-X105</f>
         <v/>
       </c>
-      <c r="Z105" s="1" t="n"/>
+      <c r="Z105" s="1" t="n">
+        <v>2066250</v>
+      </c>
       <c r="AA105" s="1" t="n"/>
-      <c r="AB105" s="1" t="n"/>
+      <c r="AB105" s="1">
+        <f>Z105+AA105</f>
+        <v/>
+      </c>
       <c r="AC105" s="1" t="n">
+        <v>22011.2</v>
+      </c>
+      <c r="AD105" s="1" t="n">
         <v>2088261.2</v>
       </c>
-      <c r="AD105" s="1" t="n"/>
       <c r="AE105" s="1" t="n"/>
     </row>
     <row r="106">
@@ -9633,11 +10917,21 @@
           <t>GO Panc S/cue Hem@ Cj Panc TJ AS</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H106" s="1" t="n">
         <v>222261</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>220000</v>
+        <v>5000</v>
       </c>
       <c r="J106" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -9674,24 +10968,30 @@
         <v/>
       </c>
       <c r="V106" s="1" t="n">
-        <v>836000</v>
+        <v>0</v>
       </c>
       <c r="W106" s="8" t="n"/>
-      <c r="X106" s="1">
-        <f>V106+W106</f>
-        <v/>
+      <c r="X106" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y106" s="1">
         <f>U106-X106</f>
         <v/>
       </c>
-      <c r="Z106" s="1" t="n"/>
+      <c r="Z106" s="1" t="n">
+        <v>836000</v>
+      </c>
       <c r="AA106" s="1" t="n"/>
-      <c r="AB106" s="1" t="n"/>
+      <c r="AB106" s="1">
+        <f>Z106+AA106</f>
+        <v/>
+      </c>
       <c r="AC106" s="1" t="n">
+        <v>22016.21</v>
+      </c>
+      <c r="AD106" s="1" t="n">
         <v>946016.21</v>
       </c>
-      <c r="AD106" s="1" t="n"/>
       <c r="AE106" s="1" t="n"/>
     </row>
     <row r="107">
@@ -9718,6 +11018,16 @@
           <t>GO Lom Vet Mad@ Cj 8,5k TJ</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H107" s="1" t="n">
         <v>0</v>
       </c>
@@ -9773,10 +11083,10 @@
       <c r="Z107" s="1" t="n"/>
       <c r="AA107" s="1" t="n"/>
       <c r="AB107" s="1" t="n"/>
-      <c r="AC107" s="1" t="n">
+      <c r="AC107" s="1" t="n"/>
+      <c r="AD107" s="1" t="n">
         <v>22300</v>
       </c>
-      <c r="AD107" s="1" t="n"/>
       <c r="AE107" s="1" t="n"/>
     </row>
     <row r="108">
@@ -9803,6 +11113,16 @@
           <t>GO Panc S/cue Mad@ Cj 16,4k Panc TJ</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H108" s="1" t="n">
         <v>3528</v>
       </c>
@@ -9862,10 +11182,10 @@
         <f>Z108+AA108</f>
         <v/>
       </c>
-      <c r="AC108" s="1" t="n">
+      <c r="AC108" s="1" t="n"/>
+      <c r="AD108" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="AD108" s="1" t="n"/>
       <c r="AE108" s="1" t="n"/>
     </row>
     <row r="109">
@@ -9892,11 +11212,21 @@
           <t>GO Panc S/cue@ Cj Panc 16k AS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H109" s="1" t="n">
         <v>72440</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>88000</v>
+        <v>5000</v>
       </c>
       <c r="J109" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -9933,24 +11263,28 @@
         <v/>
       </c>
       <c r="V109" s="1" t="n">
-        <v>848400</v>
+        <v>0</v>
       </c>
       <c r="W109" s="8" t="n"/>
-      <c r="X109" s="1">
-        <f>V109+W109</f>
-        <v/>
+      <c r="X109" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y109" s="1">
         <f>U109-X109</f>
         <v/>
       </c>
-      <c r="Z109" s="1" t="n"/>
+      <c r="Z109" s="1" t="n">
+        <v>848400</v>
+      </c>
       <c r="AA109" s="1" t="n"/>
-      <c r="AB109" s="1" t="n"/>
-      <c r="AC109" s="1" t="n">
+      <c r="AB109" s="1">
+        <f>Z109+AA109</f>
+        <v/>
+      </c>
+      <c r="AC109" s="1" t="n"/>
+      <c r="AD109" s="1" t="n">
         <v>848400</v>
       </c>
-      <c r="AD109" s="1" t="n"/>
       <c r="AE109" s="1" t="n"/>
     </row>
     <row r="110">
@@ -9977,11 +11311,21 @@
           <t>GO Lom Vet@ Cj 8k AS</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H110" s="1" t="n">
         <v>123314</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>110000</v>
+        <v>5000</v>
       </c>
       <c r="J110" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -10018,24 +11362,30 @@
         <v/>
       </c>
       <c r="V110" s="1" t="n">
-        <v>502200</v>
+        <v>0</v>
       </c>
       <c r="W110" s="8" t="n"/>
-      <c r="X110" s="1">
-        <f>V110+W110</f>
-        <v/>
+      <c r="X110" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y110" s="1">
         <f>U110-X110</f>
         <v/>
       </c>
-      <c r="Z110" s="1" t="n"/>
+      <c r="Z110" s="1" t="n">
+        <v>502200</v>
+      </c>
       <c r="AA110" s="1" t="n"/>
-      <c r="AB110" s="1" t="n"/>
+      <c r="AB110" s="1">
+        <f>Z110+AA110</f>
+        <v/>
+      </c>
       <c r="AC110" s="1" t="n">
+        <v>22009.96</v>
+      </c>
+      <c r="AD110" s="1" t="n">
         <v>568209.96</v>
       </c>
-      <c r="AD110" s="1" t="n"/>
       <c r="AE110" s="1" t="n"/>
     </row>
     <row r="111">
@@ -10062,6 +11412,16 @@
           <t>GO Panc S/cue S/h@ Cj Panc 16k AS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H111" s="1" t="n">
         <v>6766</v>
       </c>
@@ -10121,10 +11481,10 @@
         <f>Z111+AA111</f>
         <v/>
       </c>
-      <c r="AC111" s="1" t="n">
+      <c r="AC111" s="1" t="n"/>
+      <c r="AD111" s="1" t="n">
         <v>132000</v>
       </c>
-      <c r="AD111" s="1" t="n"/>
       <c r="AE111" s="1" t="n"/>
     </row>
     <row r="112">
@@ -10151,6 +11511,16 @@
           <t>GO Papda C/Cue granel@ Bo Cj AS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Plancha</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Plancha c/Cuero</t>
+        </is>
+      </c>
       <c r="H112" s="1" t="n">
         <v>0</v>
       </c>
@@ -10210,10 +11580,10 @@
         <f>Z112+AA112</f>
         <v/>
       </c>
-      <c r="AC112" s="1" t="n">
+      <c r="AC112" s="1" t="n"/>
+      <c r="AD112" s="1" t="n">
         <v>144000</v>
       </c>
-      <c r="AD112" s="1" t="n"/>
       <c r="AE112" s="1" t="n"/>
     </row>
     <row r="113">
@@ -10240,11 +11610,21 @@
           <t>GO Pech S/Cue@ Vp Cj AS</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Cost-Pec</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Cost-Pec Entero</t>
+        </is>
+      </c>
       <c r="H113" s="1" t="n">
         <v>32000</v>
       </c>
       <c r="I113" s="1" t="n">
-        <v>44000</v>
+        <v>5000</v>
       </c>
       <c r="J113" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -10281,24 +11661,28 @@
         <v/>
       </c>
       <c r="V113" s="1" t="n">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="W113" s="8" t="n"/>
-      <c r="X113" s="1">
-        <f>V113+W113</f>
-        <v/>
+      <c r="X113" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y113" s="1">
         <f>U113-X113</f>
         <v/>
       </c>
-      <c r="Z113" s="1" t="n"/>
+      <c r="Z113" s="1" t="n">
+        <v>220000</v>
+      </c>
       <c r="AA113" s="1" t="n"/>
-      <c r="AB113" s="1" t="n"/>
-      <c r="AC113" s="1" t="n">
+      <c r="AB113" s="1">
+        <f>Z113+AA113</f>
+        <v/>
+      </c>
+      <c r="AC113" s="1" t="n"/>
+      <c r="AD113" s="1" t="n">
         <v>220000</v>
       </c>
-      <c r="AD113" s="1" t="n"/>
       <c r="AE113" s="1" t="n"/>
     </row>
     <row r="114">
@@ -10325,11 +11709,21 @@
           <t>GO Lom Tocino@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Grasa Lomo Tocino</t>
+        </is>
+      </c>
       <c r="H114" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I114" s="1" t="n">
-        <v>14545</v>
+        <v>5000</v>
       </c>
       <c r="J114" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -10379,10 +11773,10 @@
       <c r="Z114" s="1" t="n"/>
       <c r="AA114" s="1" t="n"/>
       <c r="AB114" s="1" t="n"/>
-      <c r="AC114" s="1" t="n">
+      <c r="AC114" s="1" t="n"/>
+      <c r="AD114" s="1" t="n">
         <v>48000</v>
       </c>
-      <c r="AD114" s="1" t="n"/>
       <c r="AE114" s="1" t="n"/>
     </row>
     <row r="115">
@@ -10409,6 +11803,16 @@
           <t>GO Estómago Pouch@ Bo Cj 10k AS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H115" s="1" t="n">
         <v>0</v>
       </c>
@@ -10468,10 +11872,10 @@
         <f>Z115+AA115</f>
         <v/>
       </c>
-      <c r="AC115" s="1" t="n">
+      <c r="AC115" s="1" t="n"/>
+      <c r="AD115" s="1" t="n">
         <v>96000</v>
       </c>
-      <c r="AD115" s="1" t="n"/>
       <c r="AE115" s="1" t="n"/>
     </row>
     <row r="116">
@@ -10495,14 +11899,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>GO BB Ribs 20-24 Oz@ Cj 10k AS</t>
+          <t>GO BB Ribs 20-24 oz@ Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Chuleta</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Chuleta Huesos</t>
         </is>
       </c>
       <c r="H116" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I116" s="1" t="n">
-        <v>1150</v>
+        <v>5000</v>
       </c>
       <c r="J116" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -10557,10 +11971,10 @@
         <f>Z116+AA116</f>
         <v/>
       </c>
-      <c r="AC116" s="1" t="n">
+      <c r="AC116" s="1" t="n"/>
+      <c r="AD116" s="1" t="n">
         <v>66000</v>
       </c>
-      <c r="AD116" s="1" t="n"/>
       <c r="AE116" s="1" t="n"/>
     </row>
     <row r="117">
@@ -10587,11 +12001,21 @@
           <t>GO Grasa Chaleco@ Cj 10k AS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Subprod Grasa</t>
+        </is>
+      </c>
       <c r="H117" s="1" t="n">
         <v>84038</v>
       </c>
       <c r="I117" s="1" t="n">
-        <v>72000</v>
+        <v>5000</v>
       </c>
       <c r="J117" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -10628,24 +12052,30 @@
         <v/>
       </c>
       <c r="V117" s="1" t="n">
-        <v>330866.6666666666</v>
+        <v>0</v>
       </c>
       <c r="W117" s="8" t="n"/>
-      <c r="X117" s="1">
-        <f>V117+W117</f>
-        <v/>
+      <c r="X117" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y117" s="1">
         <f>U117-X117</f>
         <v/>
       </c>
-      <c r="Z117" s="1" t="n"/>
+      <c r="Z117" s="1" t="n">
+        <v>330866.6666666666</v>
+      </c>
       <c r="AA117" s="1" t="n"/>
-      <c r="AB117" s="1" t="n"/>
+      <c r="AB117" s="1">
+        <f>Z117+AA117</f>
+        <v/>
+      </c>
       <c r="AC117" s="1" t="n">
+        <v>47976.12</v>
+      </c>
+      <c r="AD117" s="1" t="n">
         <v>450842.7866666666</v>
       </c>
-      <c r="AD117" s="1" t="n"/>
       <c r="AE117" s="1" t="n"/>
     </row>
     <row r="118">
@@ -10672,6 +12102,16 @@
           <t>GO Pulmon@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H118" s="1" t="n">
         <v>1274</v>
       </c>
@@ -10731,10 +12171,10 @@
         <f>Z118+AA118</f>
         <v/>
       </c>
-      <c r="AC118" s="1" t="n">
+      <c r="AC118" s="1" t="n"/>
+      <c r="AD118" s="1" t="n">
         <v>192000</v>
       </c>
-      <c r="AD118" s="1" t="n"/>
       <c r="AE118" s="1" t="n"/>
     </row>
     <row r="119">
@@ -10761,6 +12201,16 @@
           <t>GO Corazón Partido@ Cj 10k AS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H119" s="1" t="n">
         <v>20997</v>
       </c>
@@ -10820,10 +12270,10 @@
         <f>Z119+AA119</f>
         <v/>
       </c>
-      <c r="AC119" s="1" t="n">
+      <c r="AC119" s="1" t="n"/>
+      <c r="AD119" s="1" t="n">
         <v>192000</v>
       </c>
-      <c r="AD119" s="1" t="n"/>
       <c r="AE119" s="1" t="n"/>
     </row>
     <row r="120">
@@ -10850,11 +12300,21 @@
           <t>GO Lom Ctro 27@ Fi Cj 20k AS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Lomo Centro</t>
+        </is>
+      </c>
       <c r="H120" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I120" s="1" t="n">
-        <v>5707</v>
+        <v>5000</v>
       </c>
       <c r="J120" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -10904,10 +12364,10 @@
       <c r="Z120" s="1" t="n"/>
       <c r="AA120" s="1" t="n"/>
       <c r="AB120" s="1" t="n"/>
-      <c r="AC120" s="1" t="n">
+      <c r="AC120" s="1" t="n"/>
+      <c r="AD120" s="1" t="n">
         <v>24000</v>
       </c>
-      <c r="AD120" s="1" t="n"/>
       <c r="AE120" s="1" t="n"/>
     </row>
     <row r="121">
@@ -10934,11 +12394,21 @@
           <t>GO Gord Esp@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Grasa Gordura</t>
+        </is>
+      </c>
       <c r="H121" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I121" s="1" t="n">
-        <v>11650</v>
+        <v>5000</v>
       </c>
       <c r="J121" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -10988,10 +12458,10 @@
       <c r="Z121" s="1" t="n"/>
       <c r="AA121" s="1" t="n"/>
       <c r="AB121" s="1" t="n"/>
-      <c r="AC121" s="1" t="n">
+      <c r="AC121" s="1" t="n"/>
+      <c r="AD121" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="AD121" s="1" t="n"/>
       <c r="AE121" s="1" t="n"/>
     </row>
     <row r="122">
@@ -11018,11 +12488,21 @@
           <t>PO Ppa Esp Blo@ Bo Cj 20k AS</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Carne Recuperada</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Carne Recuperada Pul</t>
+        </is>
+      </c>
       <c r="H122" s="1" t="n">
         <v>1107947</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>689747</v>
+        <v>5000</v>
       </c>
       <c r="J122" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -11059,24 +12539,30 @@
         <v/>
       </c>
       <c r="V122" s="1" t="n">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="W122" s="8" t="n"/>
-      <c r="X122" s="1">
-        <f>V122+W122</f>
-        <v/>
+      <c r="X122" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y122" s="1">
         <f>U122-X122</f>
         <v/>
       </c>
-      <c r="Z122" s="1" t="n"/>
+      <c r="Z122" s="1" t="n">
+        <v>6500000</v>
+      </c>
       <c r="AA122" s="1" t="n"/>
-      <c r="AB122" s="1" t="n"/>
+      <c r="AB122" s="1">
+        <f>Z122+AA122</f>
+        <v/>
+      </c>
       <c r="AC122" s="1" t="n">
+        <v>143866.24</v>
+      </c>
+      <c r="AD122" s="1" t="n">
         <v>7593866.24</v>
       </c>
-      <c r="AD122" s="1" t="n"/>
       <c r="AE122" s="1" t="n"/>
     </row>
     <row r="123">
@@ -11103,11 +12589,21 @@
           <t>PO Ala Ctro Mr@ Fi Cj 18k AS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Ala</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Ala Centro</t>
+        </is>
+      </c>
       <c r="H123" s="1" t="n">
         <v>57357</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>60000</v>
+        <v>5000</v>
       </c>
       <c r="J123" s="7" t="n">
         <v>0.4774507263260858</v>
@@ -11144,24 +12640,28 @@
         <v/>
       </c>
       <c r="V123" s="1" t="n">
-        <v>78200</v>
+        <v>0</v>
       </c>
       <c r="W123" s="8" t="n"/>
-      <c r="X123" s="1">
-        <f>V123+W123</f>
-        <v/>
+      <c r="X123" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y123" s="1">
         <f>U123-X123</f>
         <v/>
       </c>
-      <c r="Z123" s="1" t="n"/>
+      <c r="Z123" s="1" t="n">
+        <v>78200</v>
+      </c>
       <c r="AA123" s="1" t="n"/>
-      <c r="AB123" s="1" t="n"/>
-      <c r="AC123" s="1" t="n">
+      <c r="AB123" s="1">
+        <f>Z123+AA123</f>
+        <v/>
+      </c>
+      <c r="AC123" s="1" t="n"/>
+      <c r="AD123" s="1" t="n">
         <v>115200</v>
       </c>
-      <c r="AD123" s="1" t="n"/>
       <c r="AE123" s="1" t="n"/>
     </row>
     <row r="124">
@@ -11186,6 +12686,16 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>GO Panc# Cj 10k AK</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
         </is>
       </c>
       <c r="H124" s="1" t="n">
@@ -11270,6 +12780,16 @@
           <t>GO Desp Forro Pna@ Muestra Cj 20k AS</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Muestra</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Muestra</t>
+        </is>
+      </c>
       <c r="H125" s="1" t="n">
         <v>0</v>
       </c>
@@ -11352,11 +12872,21 @@
           <t>GO PernilP@ Bo Cj 20k AS</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Pernil</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Pernil Pierna</t>
+        </is>
+      </c>
       <c r="H126" s="1" t="n">
         <v>132000</v>
       </c>
       <c r="I126" s="1" t="n">
-        <v>132000</v>
+        <v>5000</v>
       </c>
       <c r="J126" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -11406,10 +12936,10 @@
       <c r="Z126" s="1" t="n"/>
       <c r="AA126" s="1" t="n"/>
       <c r="AB126" s="1" t="n"/>
-      <c r="AC126" s="1" t="n">
+      <c r="AC126" s="1" t="n"/>
+      <c r="AD126" s="1" t="n">
         <v>96000</v>
       </c>
-      <c r="AD126" s="1" t="n"/>
       <c r="AE126" s="1" t="n"/>
     </row>
     <row r="127">
@@ -11436,11 +12966,21 @@
           <t>GO Cab Ent@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Cabeza</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Cabeza Entera</t>
+        </is>
+      </c>
       <c r="H127" s="1" t="n">
         <v>315194</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>335809</v>
+        <v>5000</v>
       </c>
       <c r="J127" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -11490,10 +13030,10 @@
       <c r="Z127" s="1" t="n"/>
       <c r="AA127" s="1" t="n"/>
       <c r="AB127" s="1" t="n"/>
-      <c r="AC127" s="1" t="n">
+      <c r="AC127" s="1" t="n"/>
+      <c r="AD127" s="1" t="n">
         <v>336000</v>
       </c>
-      <c r="AD127" s="1" t="n"/>
       <c r="AE127" s="1" t="n"/>
     </row>
     <row r="128">
@@ -11520,11 +13060,21 @@
           <t>GO Pana S/Corazón@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H128" s="1" t="n">
         <v>150000</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>201433</v>
+        <v>5000</v>
       </c>
       <c r="J128" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -11574,10 +13124,10 @@
       <c r="Z128" s="1" t="n"/>
       <c r="AA128" s="1" t="n"/>
       <c r="AB128" s="1" t="n"/>
-      <c r="AC128" s="1" t="n">
+      <c r="AC128" s="1" t="n"/>
+      <c r="AD128" s="1" t="n">
         <v>128000</v>
       </c>
-      <c r="AD128" s="1" t="n"/>
       <c r="AE128" s="1" t="n"/>
     </row>
     <row r="129">
@@ -11604,11 +13154,21 @@
           <t>GO Hso femur@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Huesos</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Huesos Cuarto Traser</t>
+        </is>
+      </c>
       <c r="H129" s="1" t="n">
         <v>100000</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="J129" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -11645,24 +13205,28 @@
         <v/>
       </c>
       <c r="V129" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="W129" s="8" t="n"/>
-      <c r="X129" s="1">
-        <f>V129+W129</f>
-        <v/>
+      <c r="X129" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y129" s="1">
         <f>U129-X129</f>
         <v/>
       </c>
-      <c r="Z129" s="1" t="n"/>
+      <c r="Z129" s="1" t="n">
+        <v>24000</v>
+      </c>
       <c r="AA129" s="1" t="n"/>
-      <c r="AB129" s="1" t="n"/>
-      <c r="AC129" s="1" t="n">
+      <c r="AB129" s="1">
+        <f>Z129+AA129</f>
+        <v/>
+      </c>
+      <c r="AC129" s="1" t="n"/>
+      <c r="AD129" s="1" t="n">
         <v>56000</v>
       </c>
-      <c r="AD129" s="1" t="n"/>
       <c r="AE129" s="1" t="n"/>
     </row>
     <row r="130">
@@ -11687,6 +13251,16 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>GO PernilM C/M@ Cj 15k HW</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Pernil</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Pernil Mano</t>
         </is>
       </c>
       <c r="H130" s="1" t="n">
@@ -11771,11 +13345,21 @@
           <t>GO Lom Vet# Cj 12k AK</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H131" s="1" t="n">
         <v>31000</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>31000</v>
+        <v>5000</v>
       </c>
       <c r="J131" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -11825,10 +13409,10 @@
       <c r="Z131" s="1" t="n"/>
       <c r="AA131" s="1" t="n"/>
       <c r="AB131" s="1" t="n"/>
-      <c r="AC131" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD131" s="1" t="n"/>
+      <c r="AC131" s="1" t="n"/>
+      <c r="AD131" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AE131" s="1" t="n"/>
     </row>
     <row r="132">
@@ -11855,11 +13439,21 @@
           <t>GO Lom Vet# Cj 12k AS</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H132" s="1" t="n">
         <v>14000</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="J132" s="7" t="n">
         <v>0.3847626683444947</v>
@@ -11909,10 +13503,10 @@
       <c r="Z132" s="1" t="n"/>
       <c r="AA132" s="1" t="n"/>
       <c r="AB132" s="1" t="n"/>
-      <c r="AC132" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD132" s="1" t="n"/>
+      <c r="AC132" s="1" t="n"/>
+      <c r="AD132" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AE132" s="1" t="n"/>
     </row>
     <row r="133">
@@ -11939,11 +13533,21 @@
           <t>GO Cue Papda CP@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Cuero Papada</t>
+        </is>
+      </c>
       <c r="H133" s="1" t="n">
         <v>61480</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J133" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -11980,24 +13584,28 @@
         <v/>
       </c>
       <c r="V133" s="1" t="n">
-        <v>366400</v>
+        <v>0</v>
       </c>
       <c r="W133" s="8" t="n"/>
-      <c r="X133" s="1">
-        <f>V133+W133</f>
-        <v/>
+      <c r="X133" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y133" s="1">
         <f>U133-X133</f>
         <v/>
       </c>
-      <c r="Z133" s="1" t="n"/>
+      <c r="Z133" s="1" t="n">
+        <v>366400</v>
+      </c>
       <c r="AA133" s="1" t="n"/>
-      <c r="AB133" s="1" t="n"/>
-      <c r="AC133" s="1" t="n">
+      <c r="AB133" s="1">
+        <f>Z133+AA133</f>
+        <v/>
+      </c>
+      <c r="AC133" s="1" t="n"/>
+      <c r="AD133" s="1" t="n">
         <v>390400</v>
       </c>
-      <c r="AD133" s="1" t="n"/>
       <c r="AE133" s="1" t="n"/>
     </row>
     <row r="134">
@@ -12024,11 +13632,21 @@
           <t>GO Lom Tocino@ Bo Cj 20k AS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Grasa Lomo Tocino</t>
+        </is>
+      </c>
       <c r="H134" s="1" t="n">
         <v>363942</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>312000</v>
+        <v>5000</v>
       </c>
       <c r="J134" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -12065,24 +13683,28 @@
         <v/>
       </c>
       <c r="V134" s="1" t="n">
-        <v>1656000</v>
+        <v>0</v>
       </c>
       <c r="W134" s="8" t="n"/>
-      <c r="X134" s="1">
-        <f>V134+W134</f>
-        <v/>
+      <c r="X134" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y134" s="1">
         <f>U134-X134</f>
         <v/>
       </c>
-      <c r="Z134" s="1" t="n"/>
+      <c r="Z134" s="1" t="n">
+        <v>1656000</v>
+      </c>
       <c r="AA134" s="1" t="n"/>
-      <c r="AB134" s="1" t="n"/>
-      <c r="AC134" s="1" t="n">
+      <c r="AB134" s="1">
+        <f>Z134+AA134</f>
+        <v/>
+      </c>
+      <c r="AC134" s="1" t="n"/>
+      <c r="AD134" s="1" t="n">
         <v>1920000</v>
       </c>
-      <c r="AD134" s="1" t="n"/>
       <c r="AE134" s="1" t="n"/>
     </row>
     <row r="135">
@@ -12109,11 +13731,21 @@
           <t>GO Grasa Forro Pna Limp@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Grasa Forro</t>
+        </is>
+      </c>
       <c r="H135" s="1" t="n">
         <v>71836</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>72000</v>
+        <v>5000</v>
       </c>
       <c r="J135" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -12152,24 +13784,28 @@
         <v/>
       </c>
       <c r="V135" s="1" t="n">
-        <v>312000</v>
+        <v>0</v>
       </c>
       <c r="W135" s="8" t="n"/>
-      <c r="X135" s="1">
-        <f>V135+W135</f>
-        <v/>
+      <c r="X135" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y135" s="1">
         <f>U135-X135</f>
         <v/>
       </c>
-      <c r="Z135" s="1" t="n"/>
+      <c r="Z135" s="1" t="n">
+        <v>312000</v>
+      </c>
       <c r="AA135" s="1" t="n"/>
-      <c r="AB135" s="1" t="n"/>
-      <c r="AC135" s="1" t="n">
+      <c r="AB135" s="1">
+        <f>Z135+AA135</f>
+        <v/>
+      </c>
+      <c r="AC135" s="1" t="n"/>
+      <c r="AD135" s="1" t="n">
         <v>384000</v>
       </c>
-      <c r="AD135" s="1" t="n"/>
       <c r="AE135" s="1" t="n"/>
     </row>
     <row r="136">
@@ -12196,11 +13832,21 @@
           <t>GO Grasa Forro Pna Limp@ Bo Cj AS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Grasa Forro</t>
+        </is>
+      </c>
       <c r="H136" s="1" t="n">
         <v>195308</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>192000</v>
+        <v>5000</v>
       </c>
       <c r="J136" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -12239,24 +13885,28 @@
         <v/>
       </c>
       <c r="V136" s="1" t="n">
-        <v>694550</v>
+        <v>0</v>
       </c>
       <c r="W136" s="8" t="n"/>
-      <c r="X136" s="1">
-        <f>V136+W136</f>
-        <v/>
+      <c r="X136" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y136" s="1">
         <f>U136-X136</f>
         <v/>
       </c>
-      <c r="Z136" s="1" t="n"/>
+      <c r="Z136" s="1" t="n">
+        <v>694550</v>
+      </c>
       <c r="AA136" s="1" t="n"/>
-      <c r="AB136" s="1" t="n"/>
-      <c r="AC136" s="1" t="n">
+      <c r="AB136" s="1">
+        <f>Z136+AA136</f>
+        <v/>
+      </c>
+      <c r="AC136" s="1" t="n"/>
+      <c r="AD136" s="1" t="n">
         <v>908550</v>
       </c>
-      <c r="AD136" s="1" t="n"/>
       <c r="AE136" s="1" t="n"/>
     </row>
     <row r="137">
@@ -12283,6 +13933,16 @@
           <t>GO Tripa Calib 38/40# Bo Bidon AS</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H137" s="1" t="n">
         <v>811</v>
       </c>
@@ -12335,10 +13995,10 @@
       <c r="Z137" s="1" t="n"/>
       <c r="AA137" s="1" t="n"/>
       <c r="AB137" s="1" t="n"/>
-      <c r="AC137" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD137" s="1" t="n"/>
+      <c r="AC137" s="1" t="n"/>
+      <c r="AD137" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AE137" s="1" t="n"/>
     </row>
     <row r="138">
@@ -12365,6 +14025,16 @@
           <t>GO Cue Papda CP@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Cuero Papada</t>
+        </is>
+      </c>
       <c r="H138" s="1" t="n">
         <v>14737</v>
       </c>
@@ -12426,10 +14096,10 @@
         <f>Z138+AA138</f>
         <v/>
       </c>
-      <c r="AC138" s="1" t="n">
+      <c r="AC138" s="1" t="n"/>
+      <c r="AD138" s="1" t="n">
         <v>202700</v>
       </c>
-      <c r="AD138" s="1" t="n"/>
       <c r="AE138" s="1" t="n"/>
     </row>
     <row r="139">
@@ -12456,6 +14126,16 @@
           <t>Cue granel Esp CC@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Cuero Mixto</t>
+        </is>
+      </c>
       <c r="H139" s="1" t="n">
         <v>40297</v>
       </c>
@@ -12517,10 +14197,10 @@
         <f>Z139+AA139</f>
         <v/>
       </c>
-      <c r="AC139" s="1" t="n">
+      <c r="AC139" s="1" t="n"/>
+      <c r="AD139" s="1" t="n">
         <v>633000</v>
       </c>
-      <c r="AD139" s="1" t="n"/>
       <c r="AE139" s="1" t="n"/>
     </row>
     <row r="140">
@@ -12547,11 +14227,21 @@
           <t>Cue granel Esp CC@ Cj 20k AS</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Cueros</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Cuero Mixto</t>
+        </is>
+      </c>
       <c r="H140" s="1" t="n">
         <v>34000</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="J140" s="10" t="n">
         <v>0.35</v>
@@ -12590,24 +14280,28 @@
         <v/>
       </c>
       <c r="V140" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="W140" s="8" t="n"/>
-      <c r="X140" s="1">
-        <f>V140+W140</f>
-        <v/>
+      <c r="X140" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y140" s="1">
         <f>U140-X140</f>
         <v/>
       </c>
-      <c r="Z140" s="1" t="n"/>
+      <c r="Z140" s="1" t="n">
+        <v>24000</v>
+      </c>
       <c r="AA140" s="1" t="n"/>
-      <c r="AB140" s="1" t="n"/>
-      <c r="AC140" s="1" t="n">
+      <c r="AB140" s="1">
+        <f>Z140+AA140</f>
+        <v/>
+      </c>
+      <c r="AC140" s="1" t="n"/>
+      <c r="AD140" s="1" t="n">
         <v>144000</v>
       </c>
-      <c r="AD140" s="1" t="n"/>
       <c r="AE140" s="1" t="n"/>
     </row>
     <row r="141">
@@ -12634,11 +14328,21 @@
           <t>PO Corazon@ Cj 18k AS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Menudencias</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Menudencias Corazón</t>
+        </is>
+      </c>
       <c r="H141" s="1" t="n">
         <v>68626</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>68626</v>
+        <v>5000</v>
       </c>
       <c r="J141" s="7" t="n">
         <v>0.8197328667508099</v>
@@ -12675,24 +14379,28 @@
         <v/>
       </c>
       <c r="V141" s="1" t="n">
-        <v>192000</v>
+        <v>0</v>
       </c>
       <c r="W141" s="8" t="n"/>
-      <c r="X141" s="1">
-        <f>V141+W141</f>
-        <v/>
+      <c r="X141" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y141" s="1">
         <f>U141-X141</f>
         <v/>
       </c>
-      <c r="Z141" s="1" t="n"/>
+      <c r="Z141" s="1" t="n">
+        <v>192000</v>
+      </c>
       <c r="AA141" s="1" t="n"/>
-      <c r="AB141" s="1" t="n"/>
-      <c r="AC141" s="1" t="n">
+      <c r="AB141" s="1">
+        <f>Z141+AA141</f>
+        <v/>
+      </c>
+      <c r="AC141" s="1" t="n"/>
+      <c r="AD141" s="1" t="n">
         <v>216000</v>
       </c>
-      <c r="AD141" s="1" t="n"/>
       <c r="AE141" s="1" t="n"/>
     </row>
     <row r="142">
@@ -12719,11 +14427,21 @@
           <t>PO Corazón@ Bo Cj 18k AS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Menudencias</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Menudencias Corazón</t>
+        </is>
+      </c>
       <c r="H142" s="1" t="n">
         <v>24465</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>10216</v>
+        <v>5000</v>
       </c>
       <c r="J142" s="7" t="n">
         <v>0.8197328667508099</v>
@@ -12778,10 +14496,10 @@
         <f>Z142+AA142</f>
         <v/>
       </c>
-      <c r="AC142" s="1" t="n">
+      <c r="AC142" s="1" t="n"/>
+      <c r="AD142" s="1" t="n">
         <v>144000</v>
       </c>
-      <c r="AD142" s="1" t="n"/>
       <c r="AE142" s="1" t="n"/>
     </row>
     <row r="143">
@@ -12808,11 +14526,21 @@
           <t>PO Corazon@Pla Cj 19k</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Menudencias</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Menudencias Corazón</t>
+        </is>
+      </c>
       <c r="H143" s="1" t="n">
         <v>47206</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>19440</v>
+        <v>5000</v>
       </c>
       <c r="J143" s="7" t="n">
         <v>0.8197328667508099</v>
@@ -12867,10 +14595,10 @@
         <f>Z143+AA143</f>
         <v/>
       </c>
-      <c r="AC143" s="1" t="n">
+      <c r="AC143" s="1" t="n"/>
+      <c r="AD143" s="1" t="n">
         <v>143985</v>
       </c>
-      <c r="AD143" s="1" t="n"/>
       <c r="AE143" s="1" t="n"/>
     </row>
     <row r="144">
@@ -12897,6 +14625,16 @@
           <t>GO Estómago Pouch@ 20k bca AS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H144" s="1" t="n">
         <v>3680</v>
       </c>
@@ -12951,10 +14689,10 @@
       <c r="Z144" s="1" t="n"/>
       <c r="AA144" s="1" t="n"/>
       <c r="AB144" s="1" t="n"/>
-      <c r="AC144" s="1" t="n">
+      <c r="AC144" s="1" t="n"/>
+      <c r="AD144" s="1" t="n">
         <v>36000</v>
       </c>
-      <c r="AD144" s="1" t="n"/>
       <c r="AE144" s="1" t="n"/>
     </row>
     <row r="145">
@@ -12981,6 +14719,16 @@
           <t>GO Tripa s/Cal# Bidon AS</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H145" s="1" t="n">
         <v>0</v>
       </c>
@@ -13035,10 +14783,10 @@
       <c r="Z145" s="1" t="n"/>
       <c r="AA145" s="1" t="n"/>
       <c r="AB145" s="1" t="n"/>
-      <c r="AC145" s="1" t="n">
+      <c r="AC145" s="1" t="n"/>
+      <c r="AD145" s="1" t="n">
         <v>47880</v>
       </c>
-      <c r="AD145" s="1" t="n"/>
       <c r="AE145" s="1" t="n"/>
     </row>
     <row r="146">
@@ -13065,6 +14813,16 @@
           <t>GO Pecho Belly C/Hso pec@ Vp Cj AS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H146" s="1" t="n">
         <v>0</v>
       </c>
@@ -13124,10 +14882,10 @@
         <f>Z146+AA146</f>
         <v/>
       </c>
-      <c r="AC146" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD146" s="1" t="n"/>
+      <c r="AC146" s="1" t="n"/>
+      <c r="AD146" s="1" t="n">
+        <v>95000</v>
+      </c>
       <c r="AE146" s="1" t="n"/>
     </row>
     <row r="147">
@@ -13154,11 +14912,21 @@
           <t>GO Lom Tecla@ Cj Lom Ctro JP</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Lomo Centro</t>
+        </is>
+      </c>
       <c r="H147" s="1" t="n">
         <v>81138</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>60000</v>
+        <v>5000</v>
       </c>
       <c r="J147" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13211,10 +14979,10 @@
       <c r="Z147" s="1" t="n"/>
       <c r="AA147" s="1" t="n"/>
       <c r="AB147" s="1" t="n"/>
-      <c r="AC147" s="1" t="n">
+      <c r="AC147" s="1" t="n"/>
+      <c r="AD147" s="1" t="n">
         <v>357875</v>
       </c>
-      <c r="AD147" s="1" t="n"/>
       <c r="AE147" s="1" t="n"/>
     </row>
     <row r="148">
@@ -13241,11 +15009,21 @@
           <t>GO MM Loin L@ Cj 12k AP</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Lomo MM Loin</t>
+        </is>
+      </c>
       <c r="H148" s="1" t="n">
         <v>482625</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="J148" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13284,24 +15062,28 @@
         <v/>
       </c>
       <c r="V148" s="1" t="n">
-        <v>3595300</v>
+        <v>0</v>
       </c>
       <c r="W148" s="8" t="n"/>
-      <c r="X148" s="1">
-        <f>V148+W148</f>
-        <v/>
+      <c r="X148" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y148" s="1">
         <f>U148-X148</f>
         <v/>
       </c>
-      <c r="Z148" s="1" t="n"/>
+      <c r="Z148" s="1" t="n">
+        <v>3595300</v>
+      </c>
       <c r="AA148" s="1" t="n"/>
-      <c r="AB148" s="1" t="n"/>
-      <c r="AC148" s="1" t="n">
+      <c r="AB148" s="1">
+        <f>Z148+AA148</f>
+        <v/>
+      </c>
+      <c r="AC148" s="1" t="n"/>
+      <c r="AD148" s="1" t="n">
         <v>4033960</v>
       </c>
-      <c r="AD148" s="1" t="n"/>
       <c r="AE148" s="1" t="n"/>
     </row>
     <row r="149">
@@ -13328,11 +15110,21 @@
           <t>GO Posta Negra 3P T@ Va Cj t-f JP</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa Fina</t>
+        </is>
+      </c>
       <c r="H149" s="1" t="n">
         <v>5241</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="J149" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13383,10 +15175,10 @@
       <c r="Z149" s="1" t="n"/>
       <c r="AA149" s="1" t="n"/>
       <c r="AB149" s="1" t="n"/>
-      <c r="AC149" s="1" t="n">
+      <c r="AC149" s="1" t="n"/>
+      <c r="AD149" s="1" t="n">
         <v>66500</v>
       </c>
-      <c r="AD149" s="1" t="n"/>
       <c r="AE149" s="1" t="n"/>
     </row>
     <row r="150">
@@ -13413,11 +15205,21 @@
           <t>GO PpPal Pim@ Cj AP</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Paleta</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Paleta Pulpa</t>
+        </is>
+      </c>
       <c r="H150" s="1" t="n">
         <v>244547</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>264000</v>
+        <v>5000</v>
       </c>
       <c r="J150" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13456,24 +15258,28 @@
         <v/>
       </c>
       <c r="V150" s="1" t="n">
-        <v>1983700</v>
+        <v>0</v>
       </c>
       <c r="W150" s="8" t="n"/>
-      <c r="X150" s="1">
-        <f>V150+W150</f>
-        <v/>
+      <c r="X150" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y150" s="1">
         <f>U150-X150</f>
         <v/>
       </c>
-      <c r="Z150" s="1" t="n"/>
+      <c r="Z150" s="1" t="n">
+        <v>1983700</v>
+      </c>
       <c r="AA150" s="1" t="n"/>
-      <c r="AB150" s="1" t="n"/>
-      <c r="AC150" s="1" t="n">
+      <c r="AB150" s="1">
+        <f>Z150+AA150</f>
+        <v/>
+      </c>
+      <c r="AC150" s="1" t="n"/>
+      <c r="AD150" s="1" t="n">
         <v>2031700</v>
       </c>
-      <c r="AD150" s="1" t="n"/>
       <c r="AE150" s="1" t="n"/>
     </row>
     <row r="151">
@@ -13500,11 +15306,21 @@
           <t>GO MM Loin S@ Fi Cj 12k AP</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Lomo MM Loin</t>
+        </is>
+      </c>
       <c r="H151" s="1" t="n">
         <v>32869</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="J151" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13543,24 +15359,28 @@
         <v/>
       </c>
       <c r="V151" s="1" t="n">
-        <v>641700</v>
+        <v>0</v>
       </c>
       <c r="W151" s="8" t="n"/>
-      <c r="X151" s="1">
-        <f>V151+W151</f>
-        <v/>
+      <c r="X151" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y151" s="1">
         <f>U151-X151</f>
         <v/>
       </c>
-      <c r="Z151" s="1" t="n"/>
+      <c r="Z151" s="1" t="n">
+        <v>641700</v>
+      </c>
       <c r="AA151" s="1" t="n"/>
-      <c r="AB151" s="1" t="n"/>
-      <c r="AC151" s="1" t="n">
+      <c r="AB151" s="1">
+        <f>Z151+AA151</f>
+        <v/>
+      </c>
+      <c r="AC151" s="1" t="n"/>
+      <c r="AD151" s="1" t="n">
         <v>751700</v>
       </c>
-      <c r="AD151" s="1" t="n"/>
       <c r="AE151" s="1" t="n"/>
     </row>
     <row r="152">
@@ -13587,11 +15407,21 @@
           <t>GO Lom Vet &gt;2.0@ Fi Cj Lom Vet AP</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H152" s="1" t="n">
         <v>187358</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>210000</v>
+        <v>5000</v>
       </c>
       <c r="J152" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13630,24 +15460,28 @@
         <v/>
       </c>
       <c r="V152" s="1" t="n">
-        <v>1282700</v>
+        <v>0</v>
       </c>
       <c r="W152" s="8" t="n"/>
-      <c r="X152" s="1">
-        <f>V152+W152</f>
-        <v/>
+      <c r="X152" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y152" s="1">
         <f>U152-X152</f>
         <v/>
       </c>
-      <c r="Z152" s="1" t="n"/>
+      <c r="Z152" s="1" t="n">
+        <v>1282700</v>
+      </c>
       <c r="AA152" s="1" t="n"/>
-      <c r="AB152" s="1" t="n"/>
-      <c r="AC152" s="1" t="n">
+      <c r="AB152" s="1">
+        <f>Z152+AA152</f>
+        <v/>
+      </c>
+      <c r="AC152" s="1" t="n"/>
+      <c r="AD152" s="1" t="n">
         <v>1502430</v>
       </c>
-      <c r="AD152" s="1" t="n"/>
       <c r="AE152" s="1" t="n"/>
     </row>
     <row r="153">
@@ -13674,11 +15508,21 @@
           <t>GO Lom Vet &lt;2.0@ Fi Cj AP</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H153" s="1" t="n">
         <v>26564</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="J153" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13729,10 +15573,10 @@
       <c r="Z153" s="1" t="n"/>
       <c r="AA153" s="1" t="n"/>
       <c r="AB153" s="1" t="n"/>
-      <c r="AC153" s="1" t="n">
+      <c r="AC153" s="1" t="n"/>
+      <c r="AD153" s="1" t="n">
         <v>191900</v>
       </c>
-      <c r="AD153" s="1" t="n"/>
       <c r="AE153" s="1" t="n"/>
     </row>
     <row r="154">
@@ -13759,11 +15603,21 @@
           <t>GO File C/cab@ Va Cj 10k AP</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Filete</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Filete c/Cabeza</t>
+        </is>
+      </c>
       <c r="H154" s="1" t="n">
         <v>20905</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="J154" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13816,10 +15670,10 @@
       <c r="Z154" s="1" t="n"/>
       <c r="AA154" s="1" t="n"/>
       <c r="AB154" s="1" t="n"/>
-      <c r="AC154" s="1" t="n">
+      <c r="AC154" s="1" t="n"/>
+      <c r="AD154" s="1" t="n">
         <v>101800</v>
       </c>
-      <c r="AD154" s="1" t="n"/>
       <c r="AE154" s="1" t="n"/>
     </row>
     <row r="155">
@@ -13846,11 +15700,21 @@
           <t>GO Panc Tec S/cue@ Fi Cj ch AP</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H155" s="1" t="n">
         <v>219578</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>233000</v>
+        <v>5000</v>
       </c>
       <c r="J155" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13903,10 +15767,10 @@
       <c r="Z155" s="1" t="n"/>
       <c r="AA155" s="1" t="n"/>
       <c r="AB155" s="1" t="n"/>
-      <c r="AC155" s="1" t="n">
+      <c r="AC155" s="1" t="n"/>
+      <c r="AD155" s="1" t="n">
         <v>1472960</v>
       </c>
-      <c r="AD155" s="1" t="n"/>
       <c r="AE155" s="1" t="n"/>
     </row>
     <row r="156">
@@ -13933,11 +15797,21 @@
           <t>GO Ganso C/asto 3P@ Va Cj t-f AP</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa Fina</t>
+        </is>
+      </c>
       <c r="H156" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J156" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -13988,10 +15862,10 @@
       <c r="Z156" s="1" t="n"/>
       <c r="AA156" s="1" t="n"/>
       <c r="AB156" s="1" t="n"/>
-      <c r="AC156" s="1" t="n">
+      <c r="AC156" s="1" t="n"/>
+      <c r="AD156" s="1" t="n">
         <v>107900</v>
       </c>
-      <c r="AD156" s="1" t="n"/>
       <c r="AE156" s="1" t="n"/>
     </row>
     <row r="157">
@@ -14018,11 +15892,21 @@
           <t>GO Ganso C/asto C/abas S/g@ Va Cj JP</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa Fina</t>
+        </is>
+      </c>
       <c r="H157" s="1" t="n">
         <v>990</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J157" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14073,10 +15957,10 @@
       <c r="Z157" s="1" t="n"/>
       <c r="AA157" s="1" t="n"/>
       <c r="AB157" s="1" t="n"/>
-      <c r="AC157" s="1" t="n">
+      <c r="AC157" s="1" t="n"/>
+      <c r="AD157" s="1" t="n">
         <v>22000</v>
       </c>
-      <c r="AD157" s="1" t="n"/>
       <c r="AE157" s="1" t="n"/>
     </row>
     <row r="158">
@@ -14103,11 +15987,21 @@
           <t>GO Posta Rosada 3P@ Va Cj t-f AP</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa Fina</t>
+        </is>
+      </c>
       <c r="H158" s="1" t="n">
         <v>11700</v>
       </c>
       <c r="I158" s="1" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="J158" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14158,10 +16052,10 @@
       <c r="Z158" s="1" t="n"/>
       <c r="AA158" s="1" t="n"/>
       <c r="AB158" s="1" t="n"/>
-      <c r="AC158" s="1" t="n">
+      <c r="AC158" s="1" t="n"/>
+      <c r="AD158" s="1" t="n">
         <v>72000</v>
       </c>
-      <c r="AD158" s="1" t="n"/>
       <c r="AE158" s="1" t="n"/>
     </row>
     <row r="159">
@@ -14188,6 +16082,16 @@
           <t>GO Lom Tec@ Va Cj Lom Ctro AP</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Lomo Centro</t>
+        </is>
+      </c>
       <c r="H159" s="1" t="n">
         <v>0</v>
       </c>
@@ -14247,10 +16151,10 @@
         <f>Z159+AA159</f>
         <v/>
       </c>
-      <c r="AC159" s="1" t="n">
+      <c r="AC159" s="1" t="n"/>
+      <c r="AD159" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="AD159" s="1" t="n"/>
       <c r="AE159" s="1" t="n"/>
     </row>
     <row r="160">
@@ -14277,11 +16181,21 @@
           <t>GO MM Loin D@ Fi Cj 12k AP</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Lomo MM Loin</t>
+        </is>
+      </c>
       <c r="H160" s="1" t="n">
         <v>3391</v>
       </c>
       <c r="I160" s="1" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J160" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14332,10 +16246,10 @@
       <c r="Z160" s="1" t="n"/>
       <c r="AA160" s="1" t="n"/>
       <c r="AB160" s="1" t="n"/>
-      <c r="AC160" s="1" t="n">
+      <c r="AC160" s="1" t="n"/>
+      <c r="AD160" s="1" t="n">
         <v>121800</v>
       </c>
-      <c r="AD160" s="1" t="n"/>
       <c r="AE160" s="1" t="n"/>
     </row>
     <row r="161">
@@ -14362,11 +16276,21 @@
           <t>GO File N@ Va Cj File AP</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Filete</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Filete c/Cabeza</t>
+        </is>
+      </c>
       <c r="H161" s="1" t="n">
         <v>1004</v>
       </c>
       <c r="I161" s="1" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J161" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14417,10 +16341,10 @@
       <c r="Z161" s="1" t="n"/>
       <c r="AA161" s="1" t="n"/>
       <c r="AB161" s="1" t="n"/>
-      <c r="AC161" s="1" t="n">
+      <c r="AC161" s="1" t="n"/>
+      <c r="AD161" s="1" t="n">
         <v>5800</v>
       </c>
-      <c r="AD161" s="1" t="n"/>
       <c r="AE161" s="1" t="n"/>
     </row>
     <row r="162">
@@ -14447,11 +16371,21 @@
           <t>GO Panc Tec C/cue@ Fi Cj Panc AP</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Panceta c/Cuero</t>
+        </is>
+      </c>
       <c r="H162" s="1" t="n">
         <v>1628</v>
       </c>
       <c r="I162" s="1" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J162" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14502,10 +16436,10 @@
       <c r="Z162" s="1" t="n"/>
       <c r="AA162" s="1" t="n"/>
       <c r="AB162" s="1" t="n"/>
-      <c r="AC162" s="1" t="n">
+      <c r="AC162" s="1" t="n"/>
+      <c r="AD162" s="1" t="n">
         <v>16000</v>
       </c>
-      <c r="AD162" s="1" t="n"/>
       <c r="AE162" s="1" t="n"/>
     </row>
     <row r="163">
@@ -14532,11 +16466,21 @@
           <t>GO Panc S/tec/cue I@ Fi Cj Panc 4s AP</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H163" s="1" t="n">
         <v>44417</v>
       </c>
       <c r="I163" s="1" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="J163" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14589,10 +16533,10 @@
       <c r="Z163" s="1" t="n"/>
       <c r="AA163" s="1" t="n"/>
       <c r="AB163" s="1" t="n"/>
-      <c r="AC163" s="1" t="n">
+      <c r="AC163" s="1" t="n"/>
+      <c r="AD163" s="1" t="n">
         <v>144300</v>
       </c>
-      <c r="AD163" s="1" t="n"/>
       <c r="AE163" s="1" t="n"/>
     </row>
     <row r="164">
@@ -14619,11 +16563,21 @@
           <t>GO Lom Vet S/g@ Va Cj ch AP</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H164" s="1" t="n">
         <v>13882</v>
       </c>
       <c r="I164" s="1" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="J164" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14674,10 +16628,10 @@
       <c r="Z164" s="1" t="n"/>
       <c r="AA164" s="1" t="n"/>
       <c r="AB164" s="1" t="n"/>
-      <c r="AC164" s="1" t="n">
+      <c r="AC164" s="1" t="n"/>
+      <c r="AD164" s="1" t="n">
         <v>45200</v>
       </c>
-      <c r="AD164" s="1" t="n"/>
       <c r="AE164" s="1" t="n"/>
     </row>
     <row r="165">
@@ -14704,11 +16658,21 @@
           <t>GO Malaya Japon@ Va Cj JP</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Prolijado</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Prolijado Malaya</t>
+        </is>
+      </c>
       <c r="H165" s="1" t="n">
         <v>8844</v>
       </c>
       <c r="I165" s="1" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="J165" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14759,10 +16723,10 @@
       <c r="Z165" s="1" t="n"/>
       <c r="AA165" s="1" t="n"/>
       <c r="AB165" s="1" t="n"/>
-      <c r="AC165" s="1" t="n">
+      <c r="AC165" s="1" t="n"/>
+      <c r="AD165" s="1" t="n">
         <v>73400</v>
       </c>
-      <c r="AD165" s="1" t="n"/>
       <c r="AE165" s="1" t="n"/>
     </row>
     <row r="166">
@@ -14789,11 +16753,21 @@
           <t>GO Panc S/tec N@ Fi Cj 20k AP</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H166" s="1" t="n">
         <v>45291</v>
       </c>
       <c r="I166" s="1" t="n">
-        <v>38000</v>
+        <v>5000</v>
       </c>
       <c r="J166" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14846,10 +16820,10 @@
       <c r="Z166" s="1" t="n"/>
       <c r="AA166" s="1" t="n"/>
       <c r="AB166" s="1" t="n"/>
-      <c r="AC166" s="1" t="n">
+      <c r="AC166" s="1" t="n"/>
+      <c r="AD166" s="1" t="n">
         <v>530300</v>
       </c>
-      <c r="AD166" s="1" t="n"/>
       <c r="AE166" s="1" t="n"/>
     </row>
     <row r="167">
@@ -14876,11 +16850,21 @@
           <t>GO Recto@ Cj File AP</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Subprod Tripa</t>
+        </is>
+      </c>
       <c r="H167" s="1" t="n">
         <v>621</v>
       </c>
       <c r="I167" s="1" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J167" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -14931,10 +16915,10 @@
       <c r="Z167" s="1" t="n"/>
       <c r="AA167" s="1" t="n"/>
       <c r="AB167" s="1" t="n"/>
-      <c r="AC167" s="1" t="n">
+      <c r="AC167" s="1" t="n"/>
+      <c r="AD167" s="1" t="n">
         <v>17400</v>
       </c>
-      <c r="AD167" s="1" t="n"/>
       <c r="AE167" s="1" t="n"/>
     </row>
     <row r="168">
@@ -14961,11 +16945,21 @@
           <t>GO Panc Lam 2.5mm@ Cj ch AP</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Panceta c/Cuero</t>
+        </is>
+      </c>
       <c r="H168" s="1" t="n">
         <v>12618</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="J168" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -15016,10 +17010,10 @@
       <c r="Z168" s="1" t="n"/>
       <c r="AA168" s="1" t="n"/>
       <c r="AB168" s="1" t="n"/>
-      <c r="AC168" s="1" t="n">
+      <c r="AC168" s="1" t="n"/>
+      <c r="AD168" s="1" t="n">
         <v>63300</v>
       </c>
-      <c r="AD168" s="1" t="n"/>
       <c r="AE168" s="1" t="n"/>
     </row>
     <row r="169">
@@ -15046,6 +17040,16 @@
           <t>GO Ganso S/g S/abst DA@ Cj 12k AP</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa Fina</t>
+        </is>
+      </c>
       <c r="H169" s="1" t="n">
         <v>158</v>
       </c>
@@ -15101,10 +17105,10 @@
       <c r="Z169" s="1" t="n"/>
       <c r="AA169" s="1" t="n"/>
       <c r="AB169" s="1" t="n"/>
-      <c r="AC169" s="1" t="n">
+      <c r="AC169" s="1" t="n"/>
+      <c r="AD169" s="1" t="n">
         <v>53500</v>
       </c>
-      <c r="AD169" s="1" t="n"/>
       <c r="AE169" s="1" t="n"/>
     </row>
     <row r="170">
@@ -15131,11 +17135,21 @@
           <t>GO Asiento C/g DA@ Cj 12k JP</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Pierna</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Pierna Pulpa Fina</t>
+        </is>
+      </c>
       <c r="H170" s="1" t="n">
         <v>13000</v>
       </c>
       <c r="I170" s="1" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="J170" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -15186,10 +17200,10 @@
       <c r="Z170" s="1" t="n"/>
       <c r="AA170" s="1" t="n"/>
       <c r="AB170" s="1" t="n"/>
-      <c r="AC170" s="1" t="n">
+      <c r="AC170" s="1" t="n"/>
+      <c r="AD170" s="1" t="n">
         <v>110200</v>
       </c>
-      <c r="AD170" s="1" t="n"/>
       <c r="AE170" s="1" t="n"/>
     </row>
     <row r="171">
@@ -15216,11 +17230,21 @@
           <t>GO Tráquea@ Cj Lom Ctro AP</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Subprod</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Subprod Visceras</t>
+        </is>
+      </c>
       <c r="H171" s="1" t="n">
         <v>9800</v>
       </c>
       <c r="I171" s="1" t="n">
-        <v>13090</v>
+        <v>5000</v>
       </c>
       <c r="J171" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -15271,10 +17295,10 @@
       <c r="Z171" s="1" t="n"/>
       <c r="AA171" s="1" t="n"/>
       <c r="AB171" s="1" t="n"/>
-      <c r="AC171" s="1" t="n">
+      <c r="AC171" s="1" t="n"/>
+      <c r="AD171" s="1" t="n">
         <v>25400</v>
       </c>
-      <c r="AD171" s="1" t="n"/>
       <c r="AE171" s="1" t="n"/>
     </row>
     <row r="172">
@@ -15301,6 +17325,16 @@
           <t>GO Panc Mit@ Va Cj 20k AP</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H172" s="1" t="n">
         <v>0</v>
       </c>
@@ -15356,10 +17390,10 @@
       <c r="Z172" s="1" t="n"/>
       <c r="AA172" s="1" t="n"/>
       <c r="AB172" s="1" t="n"/>
-      <c r="AC172" s="1" t="n">
+      <c r="AC172" s="1" t="n"/>
+      <c r="AD172" s="1" t="n">
         <v>110200</v>
       </c>
-      <c r="AD172" s="1" t="n"/>
       <c r="AE172" s="1" t="n"/>
     </row>
     <row r="173">
@@ -15386,11 +17420,21 @@
           <t>GO MM Loin L (MC4-5)@ Fi Cj ch JP</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Lomo MM Loin</t>
+        </is>
+      </c>
       <c r="H173" s="1" t="n">
         <v>14792</v>
       </c>
       <c r="I173" s="1" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="J173" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -15441,10 +17485,10 @@
       <c r="Z173" s="1" t="n"/>
       <c r="AA173" s="1" t="n"/>
       <c r="AB173" s="1" t="n"/>
-      <c r="AC173" s="1" t="n">
+      <c r="AC173" s="1" t="n"/>
+      <c r="AD173" s="1" t="n">
         <v>54500</v>
       </c>
-      <c r="AD173" s="1" t="n"/>
       <c r="AE173" s="1" t="n"/>
     </row>
     <row r="174">
@@ -15471,11 +17515,21 @@
           <t>GO File C/cab@ IWP Cj 10k SC</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Filete</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Filete c/Cabeza</t>
+        </is>
+      </c>
       <c r="H174" s="1" t="n">
         <v>43774</v>
       </c>
       <c r="I174" s="1" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J174" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -15512,24 +17566,28 @@
         <v/>
       </c>
       <c r="V174" s="1" t="n">
-        <v>28600</v>
+        <v>0</v>
       </c>
       <c r="W174" s="8" t="n"/>
-      <c r="X174" s="1">
-        <f>V174+W174</f>
-        <v/>
+      <c r="X174" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y174" s="1">
         <f>U174-X174</f>
         <v/>
       </c>
-      <c r="Z174" s="1" t="n"/>
+      <c r="Z174" s="1" t="n">
+        <v>28600</v>
+      </c>
       <c r="AA174" s="1" t="n"/>
-      <c r="AB174" s="1" t="n"/>
-      <c r="AC174" s="1" t="n">
+      <c r="AB174" s="1">
+        <f>Z174+AA174</f>
+        <v/>
+      </c>
+      <c r="AC174" s="1" t="n"/>
+      <c r="AD174" s="1" t="n">
         <v>78600</v>
       </c>
-      <c r="AD174" s="1" t="n"/>
       <c r="AE174" s="1" t="n"/>
     </row>
     <row r="175">
@@ -15556,11 +17614,21 @@
           <t>GO CC Loin T@ Fi Cj AP</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Lomo CC Loin</t>
+        </is>
+      </c>
       <c r="H175" s="1" t="n">
         <v>7069</v>
       </c>
       <c r="I175" s="1" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="J175" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -15611,10 +17679,10 @@
       <c r="Z175" s="1" t="n"/>
       <c r="AA175" s="1" t="n"/>
       <c r="AB175" s="1" t="n"/>
-      <c r="AC175" s="1" t="n">
+      <c r="AC175" s="1" t="n"/>
+      <c r="AD175" s="1" t="n">
         <v>53600</v>
       </c>
-      <c r="AD175" s="1" t="n"/>
       <c r="AE175" s="1" t="n"/>
     </row>
     <row r="176">
@@ -15641,11 +17709,21 @@
           <t>GO CC Loin L (S/T)@ Fi Cj AP</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Lomo CC Loin</t>
+        </is>
+      </c>
       <c r="H176" s="1" t="n">
         <v>17089</v>
       </c>
       <c r="I176" s="1" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="J176" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -15682,24 +17760,28 @@
         <v/>
       </c>
       <c r="V176" s="1" t="n">
-        <v>208000</v>
+        <v>0</v>
       </c>
       <c r="W176" s="8" t="n"/>
-      <c r="X176" s="1">
-        <f>V176+W176</f>
-        <v/>
+      <c r="X176" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y176" s="1">
         <f>U176-X176</f>
         <v/>
       </c>
-      <c r="Z176" s="1" t="n"/>
+      <c r="Z176" s="1" t="n">
+        <v>208000</v>
+      </c>
       <c r="AA176" s="1" t="n"/>
-      <c r="AB176" s="1" t="n"/>
-      <c r="AC176" s="1" t="n">
+      <c r="AB176" s="1">
+        <f>Z176+AA176</f>
+        <v/>
+      </c>
+      <c r="AC176" s="1" t="n"/>
+      <c r="AD176" s="1" t="n">
         <v>218000</v>
       </c>
-      <c r="AD176" s="1" t="n"/>
       <c r="AE176" s="1" t="n"/>
     </row>
     <row r="177">
@@ -15726,11 +17808,21 @@
           <t>GO MM Loin LL (29-32 VP)@ Bo Cj AP</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Lomo MM Loin</t>
+        </is>
+      </c>
       <c r="H177" s="1" t="n">
         <v>19574</v>
       </c>
       <c r="I177" s="1" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J177" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -15781,10 +17873,10 @@
       <c r="Z177" s="1" t="n"/>
       <c r="AA177" s="1" t="n"/>
       <c r="AB177" s="1" t="n"/>
-      <c r="AC177" s="1" t="n">
+      <c r="AC177" s="1" t="n"/>
+      <c r="AD177" s="1" t="n">
         <v>223600</v>
       </c>
-      <c r="AD177" s="1" t="n"/>
       <c r="AE177" s="1" t="n"/>
     </row>
     <row r="178">
@@ -15811,11 +17903,21 @@
           <t>GO Panc S/tec SP@ Fi Cj AP</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H178" s="1" t="n">
         <v>27899</v>
       </c>
       <c r="I178" s="1" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="J178" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -15866,10 +17968,10 @@
       <c r="Z178" s="1" t="n"/>
       <c r="AA178" s="1" t="n"/>
       <c r="AB178" s="1" t="n"/>
-      <c r="AC178" s="1" t="n">
+      <c r="AC178" s="1" t="n"/>
+      <c r="AD178" s="1" t="n">
         <v>154100</v>
       </c>
-      <c r="AD178" s="1" t="n"/>
       <c r="AE178" s="1" t="n"/>
     </row>
     <row r="179">
@@ -15896,6 +17998,16 @@
           <t>GO Lom Ctro S/Tecla(OY)Mit@ Cj Tf 20k AP</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Lomo Centro</t>
+        </is>
+      </c>
       <c r="H179" s="1" t="n">
         <v>0</v>
       </c>
@@ -15955,10 +18067,10 @@
         <f>Z179+AA179</f>
         <v/>
       </c>
-      <c r="AC179" s="1" t="n">
+      <c r="AC179" s="1" t="n"/>
+      <c r="AD179" s="1" t="n">
         <v>62400</v>
       </c>
-      <c r="AD179" s="1" t="n"/>
       <c r="AE179" s="1" t="n"/>
     </row>
     <row r="180">
@@ -15985,11 +18097,21 @@
           <t>GO Lom Vet Mit@ 4 Bo Cj 10k AP</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H180" s="1" t="n">
         <v>23736</v>
       </c>
       <c r="I180" s="1" t="n">
-        <v>27000</v>
+        <v>5000</v>
       </c>
       <c r="J180" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -16040,10 +18162,10 @@
       <c r="Z180" s="1" t="n"/>
       <c r="AA180" s="1" t="n"/>
       <c r="AB180" s="1" t="n"/>
-      <c r="AC180" s="1" t="n">
+      <c r="AC180" s="1" t="n"/>
+      <c r="AD180" s="1" t="n">
         <v>133200</v>
       </c>
-      <c r="AD180" s="1" t="n"/>
       <c r="AE180" s="1" t="n"/>
     </row>
     <row r="181">
@@ -16070,11 +18192,21 @@
           <t>GO CC Loin L (S/T) 45@ Fi Cj AP</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Lomo CC Loin</t>
+        </is>
+      </c>
       <c r="H181" s="1" t="n">
         <v>4017</v>
       </c>
       <c r="I181" s="1" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="J181" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -16125,10 +18257,10 @@
       <c r="Z181" s="1" t="n"/>
       <c r="AA181" s="1" t="n"/>
       <c r="AB181" s="1" t="n"/>
-      <c r="AC181" s="1" t="n">
+      <c r="AC181" s="1" t="n"/>
+      <c r="AD181" s="1" t="n">
         <v>33000</v>
       </c>
-      <c r="AD181" s="1" t="n"/>
       <c r="AE181" s="1" t="n"/>
     </row>
     <row r="182">
@@ -16155,11 +18287,21 @@
           <t>GO Lom Vet 2 a 2,3k@ Fi Verd Cj AP</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H182" s="1" t="n">
         <v>15692</v>
       </c>
       <c r="I182" s="1" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J182" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -16212,10 +18354,10 @@
       <c r="Z182" s="1" t="n"/>
       <c r="AA182" s="1" t="n"/>
       <c r="AB182" s="1" t="n"/>
-      <c r="AC182" s="1" t="n">
+      <c r="AC182" s="1" t="n"/>
+      <c r="AD182" s="1" t="n">
         <v>108500</v>
       </c>
-      <c r="AD182" s="1" t="n"/>
       <c r="AE182" s="1" t="n"/>
     </row>
     <row r="183">
@@ -16242,11 +18384,21 @@
           <t>GO CC Loin L (S/T) (DF)@ Fi Cj AP</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Lomo CC Loin</t>
+        </is>
+      </c>
       <c r="H183" s="1" t="n">
         <v>66114</v>
       </c>
       <c r="I183" s="1" t="n">
-        <v>56000</v>
+        <v>5000</v>
       </c>
       <c r="J183" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -16283,24 +18435,28 @@
         <v/>
       </c>
       <c r="V183" s="1" t="n">
-        <v>176800</v>
+        <v>0</v>
       </c>
       <c r="W183" s="8" t="n"/>
-      <c r="X183" s="1">
-        <f>V183+W183</f>
-        <v/>
+      <c r="X183" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y183" s="1">
         <f>U183-X183</f>
         <v/>
       </c>
-      <c r="Z183" s="1" t="n"/>
+      <c r="Z183" s="1" t="n">
+        <v>176800</v>
+      </c>
       <c r="AA183" s="1" t="n"/>
-      <c r="AB183" s="1" t="n"/>
-      <c r="AC183" s="1" t="n">
+      <c r="AB183" s="1">
+        <f>Z183+AA183</f>
+        <v/>
+      </c>
+      <c r="AC183" s="1" t="n"/>
+      <c r="AD183" s="1" t="n">
         <v>284800</v>
       </c>
-      <c r="AD183" s="1" t="n"/>
       <c r="AE183" s="1" t="n"/>
     </row>
     <row r="184">
@@ -16327,6 +18483,16 @@
           <t>GO MM LOIN S VP@ Cj 10k AP</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Lomo MM Loin</t>
+        </is>
+      </c>
       <c r="H184" s="1" t="n">
         <v>0</v>
       </c>
@@ -16386,10 +18552,10 @@
         <f>Z184+AA184</f>
         <v/>
       </c>
-      <c r="AC184" s="1" t="n">
+      <c r="AC184" s="1" t="n"/>
+      <c r="AD184" s="1" t="n">
         <v>176000</v>
       </c>
-      <c r="AD184" s="1" t="n"/>
       <c r="AE184" s="1" t="n"/>
     </row>
     <row r="185">
@@ -16416,11 +18582,21 @@
           <t>GO File C/cab 6x1@ VP Cj AP</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Filete</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Filete c/Cabeza</t>
+        </is>
+      </c>
       <c r="H185" s="1" t="n">
         <v>26565</v>
       </c>
       <c r="I185" s="1" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J185" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -16471,10 +18647,10 @@
       <c r="Z185" s="1" t="n"/>
       <c r="AA185" s="1" t="n"/>
       <c r="AB185" s="1" t="n"/>
-      <c r="AC185" s="1" t="n">
+      <c r="AC185" s="1" t="n"/>
+      <c r="AD185" s="1" t="n">
         <v>125100</v>
       </c>
-      <c r="AD185" s="1" t="n"/>
       <c r="AE185" s="1" t="n"/>
     </row>
     <row r="186">
@@ -16501,11 +18677,21 @@
           <t>GO Lom Tocino@ Bo Cj 20k AP</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Plancha</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Plancha s/Cuero</t>
+        </is>
+      </c>
       <c r="H186" s="1" t="n">
         <v>38592</v>
       </c>
       <c r="I186" s="1" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J186" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -16542,24 +18728,28 @@
         <v/>
       </c>
       <c r="V186" s="1" t="n">
-        <v>172800</v>
+        <v>0</v>
       </c>
       <c r="W186" s="8" t="n"/>
-      <c r="X186" s="1">
-        <f>V186+W186</f>
-        <v/>
+      <c r="X186" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y186" s="1">
         <f>U186-X186</f>
         <v/>
       </c>
-      <c r="Z186" s="1" t="n"/>
+      <c r="Z186" s="1" t="n">
+        <v>172800</v>
+      </c>
       <c r="AA186" s="1" t="n"/>
-      <c r="AB186" s="1" t="n"/>
-      <c r="AC186" s="1" t="n">
+      <c r="AB186" s="1">
+        <f>Z186+AA186</f>
+        <v/>
+      </c>
+      <c r="AC186" s="1" t="n"/>
+      <c r="AD186" s="1" t="n">
         <v>220800</v>
       </c>
-      <c r="AD186" s="1" t="n"/>
       <c r="AE186" s="1" t="n"/>
     </row>
     <row r="187">
@@ -16586,6 +18776,16 @@
           <t>GO Panc Tec S/cue VP@ Cj ch AP</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H187" s="1" t="n">
         <v>0</v>
       </c>
@@ -16645,10 +18845,10 @@
         <f>Z187+AA187</f>
         <v/>
       </c>
-      <c r="AC187" s="1" t="n">
+      <c r="AC187" s="1" t="n"/>
+      <c r="AD187" s="1" t="n">
         <v>73500</v>
       </c>
-      <c r="AD187" s="1" t="n"/>
       <c r="AE187" s="1" t="n"/>
     </row>
     <row r="188">
@@ -16675,6 +18875,16 @@
           <t>GO Lom Vet L@ Fi Cj Lom Vet AP</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H188" s="1" t="n">
         <v>0</v>
       </c>
@@ -16734,10 +18944,10 @@
         <f>Z188+AA188</f>
         <v/>
       </c>
-      <c r="AC188" s="1" t="n">
+      <c r="AC188" s="1" t="n"/>
+      <c r="AD188" s="1" t="n">
         <v>4200</v>
       </c>
-      <c r="AD188" s="1" t="n"/>
       <c r="AE188" s="1" t="n"/>
     </row>
     <row r="189">
@@ -16764,6 +18974,16 @@
           <t>GO Lom Vet M@ Fi Cj Lom Vet AP</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H189" s="1" t="n">
         <v>10538</v>
       </c>
@@ -16823,10 +19043,10 @@
         <f>Z189+AA189</f>
         <v/>
       </c>
-      <c r="AC189" s="1" t="n">
+      <c r="AC189" s="1" t="n"/>
+      <c r="AD189" s="1" t="n">
         <v>27600</v>
       </c>
-      <c r="AD189" s="1" t="n"/>
       <c r="AE189" s="1" t="n"/>
     </row>
     <row r="190">
@@ -16853,11 +19073,21 @@
           <t>GO Lom Vet &gt;2.0@ Fi Cj 8k AP</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H190" s="1" t="n">
         <v>15836</v>
       </c>
       <c r="I190" s="1" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="J190" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -16908,10 +19138,10 @@
       <c r="Z190" s="1" t="n"/>
       <c r="AA190" s="1" t="n"/>
       <c r="AB190" s="1" t="n"/>
-      <c r="AC190" s="1" t="n">
+      <c r="AC190" s="1" t="n"/>
+      <c r="AD190" s="1" t="n">
         <v>135000</v>
       </c>
-      <c r="AD190" s="1" t="n"/>
       <c r="AE190" s="1" t="n"/>
     </row>
     <row r="191">
@@ -16938,11 +19168,21 @@
           <t>GO Cne Falda Panc@ Bo Cj AP</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H191" s="1" t="n">
         <v>8936</v>
       </c>
       <c r="I191" s="1" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J191" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -16995,10 +19235,10 @@
       <c r="Z191" s="1" t="n"/>
       <c r="AA191" s="1" t="n"/>
       <c r="AB191" s="1" t="n"/>
-      <c r="AC191" s="1" t="n">
+      <c r="AC191" s="1" t="n"/>
+      <c r="AD191" s="1" t="n">
         <v>48600</v>
       </c>
-      <c r="AD191" s="1" t="n"/>
       <c r="AE191" s="1" t="n"/>
     </row>
     <row r="192">
@@ -17025,6 +19265,16 @@
           <t>GO Panc Tec S/Cue L@ Fi CJ Ch AP</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H192" s="1" t="n">
         <v>0</v>
       </c>
@@ -17084,10 +19334,10 @@
         <f>Z192+AA192</f>
         <v/>
       </c>
-      <c r="AC192" s="1" t="n">
+      <c r="AC192" s="1" t="n"/>
+      <c r="AD192" s="1" t="n">
         <v>68200</v>
       </c>
-      <c r="AD192" s="1" t="n"/>
       <c r="AE192" s="1" t="n"/>
     </row>
     <row r="193">
@@ -17112,6 +19362,16 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>GO Panc Lam 3mm@ Cj AS</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Muestra</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Muestra</t>
         </is>
       </c>
       <c r="H193" s="1" t="n">
@@ -17196,6 +19456,16 @@
           <t>GO CC Loin LL@ Bo Cj Lom Mad AP</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Lomo CC Loin</t>
+        </is>
+      </c>
       <c r="H194" s="1" t="n">
         <v>0</v>
       </c>
@@ -17255,10 +19525,10 @@
         <f>Z194+AA194</f>
         <v/>
       </c>
-      <c r="AC194" s="1" t="n">
+      <c r="AC194" s="1" t="n"/>
+      <c r="AD194" s="1" t="n">
         <v>164500</v>
       </c>
-      <c r="AD194" s="1" t="n"/>
       <c r="AE194" s="1" t="n"/>
     </row>
     <row r="195">
@@ -17285,6 +19555,16 @@
           <t>GO Lom Tecla VP@ Cj Lom Ctro</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Lomo Centro</t>
+        </is>
+      </c>
       <c r="H195" s="1" t="n">
         <v>4393</v>
       </c>
@@ -17340,10 +19620,10 @@
       <c r="Z195" s="1" t="n"/>
       <c r="AA195" s="1" t="n"/>
       <c r="AB195" s="1" t="n"/>
-      <c r="AC195" s="1" t="n">
+      <c r="AC195" s="1" t="n"/>
+      <c r="AD195" s="1" t="n">
         <v>22500</v>
       </c>
-      <c r="AD195" s="1" t="n"/>
       <c r="AE195" s="1" t="n"/>
     </row>
     <row r="196">
@@ -17370,11 +19650,21 @@
           <t>Lom Vet &gt;2.0@ VP Cj Lom Vet AP</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Lomo Vetado</t>
+        </is>
+      </c>
       <c r="H196" s="1" t="n">
         <v>15287</v>
       </c>
       <c r="I196" s="1" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J196" s="10" t="n">
         <v>0.35</v>
@@ -17425,10 +19715,10 @@
       <c r="Z196" s="1" t="n"/>
       <c r="AA196" s="1" t="n"/>
       <c r="AB196" s="1" t="n"/>
-      <c r="AC196" s="1" t="n">
+      <c r="AC196" s="1" t="n"/>
+      <c r="AD196" s="1" t="n">
         <v>133700</v>
       </c>
-      <c r="AD196" s="1" t="n"/>
       <c r="AE196" s="1" t="n"/>
     </row>
     <row r="197">
@@ -17455,11 +19745,21 @@
           <t>GO Panc Tec S/cue@ R VP Cj ch AP</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H197" s="1" t="n">
         <v>51787</v>
       </c>
       <c r="I197" s="1" t="n">
-        <v>60000</v>
+        <v>5000</v>
       </c>
       <c r="J197" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -17512,10 +19812,10 @@
       <c r="Z197" s="1" t="n"/>
       <c r="AA197" s="1" t="n"/>
       <c r="AB197" s="1" t="n"/>
-      <c r="AC197" s="1" t="n">
+      <c r="AC197" s="1" t="n"/>
+      <c r="AD197" s="1" t="n">
         <v>346300</v>
       </c>
-      <c r="AD197" s="1" t="n"/>
       <c r="AE197" s="1" t="n"/>
     </row>
     <row r="198">
@@ -17542,6 +19842,16 @@
           <t>GO Panc S/tec L @VP Cj AP</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Panceta</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Panceta s/Cuero</t>
+        </is>
+      </c>
       <c r="H198" s="1" t="n">
         <v>6152</v>
       </c>
@@ -17597,10 +19907,10 @@
       <c r="Z198" s="1" t="n"/>
       <c r="AA198" s="1" t="n"/>
       <c r="AB198" s="1" t="n"/>
-      <c r="AC198" s="1" t="n">
+      <c r="AC198" s="1" t="n"/>
+      <c r="AD198" s="1" t="n">
         <v>25000</v>
       </c>
-      <c r="AD198" s="1" t="n"/>
       <c r="AE198" s="1" t="n"/>
     </row>
     <row r="199">
@@ -17627,6 +19937,16 @@
           <t>GO PpPal 1P Ex@ Bo AP</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Paleta</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Paleta Pulpa</t>
+        </is>
+      </c>
       <c r="H199" s="1" t="n">
         <v>9480</v>
       </c>
@@ -17682,10 +20002,10 @@
       <c r="Z199" s="1" t="n"/>
       <c r="AA199" s="1" t="n"/>
       <c r="AB199" s="1" t="n"/>
-      <c r="AC199" s="1" t="n">
+      <c r="AC199" s="1" t="n"/>
+      <c r="AD199" s="1" t="n">
         <v>6200</v>
       </c>
-      <c r="AD199" s="1" t="n"/>
       <c r="AE199" s="1" t="n"/>
     </row>
     <row r="200">
@@ -17712,11 +20032,21 @@
           <t>GO Lom Tocino@ Bo Cj 20k AP</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Grasas</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Grasa Lomo Tocino</t>
+        </is>
+      </c>
       <c r="H200" s="1" t="n">
         <v>19418</v>
       </c>
       <c r="I200" s="1" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J200" s="7" t="n">
         <v>0.7733888377600144</v>
@@ -17766,16 +20096,16 @@
       <c r="Z200" s="1" t="n"/>
       <c r="AA200" s="1" t="n"/>
       <c r="AB200" s="1" t="n"/>
-      <c r="AC200" s="1" t="n">
+      <c r="AC200" s="1" t="n"/>
+      <c r="AD200" s="1" t="n">
         <v>24000</v>
       </c>
-      <c r="AD200" s="1" t="n"/>
       <c r="AE200" s="1" t="n"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Exportacion Directa1023084</t>
+          <t>agro sudamerica1100408</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -17785,15 +20115,25 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Exportacion Directa</t>
+          <t>Agro Sudamerica</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1023084</v>
+        <v>1100408</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GO CC Loin LL@ Fi Cj Lom Tec AP</t>
+          <t>Nugg Pollo Uru@ Film 2.5k SH</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Lomo</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Lomo CC Loin</t>
         </is>
       </c>
       <c r="H201" s="1" t="n">
@@ -17803,7 +20143,7 @@
         <v>0</v>
       </c>
       <c r="J201" s="7" t="n">
-        <v>0.7733888377600144</v>
+        <v>0.3545854356400317</v>
       </c>
       <c r="K201" s="1" t="n">
         <v>0</v>
@@ -17811,7 +20151,7 @@
       <c r="L201" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M201" s="1" t="n">
+      <c r="M201" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N201" s="1" t="n"/>
@@ -17819,13 +20159,13 @@
         <v>0</v>
       </c>
       <c r="P201" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q201" s="9" t="n">
-        <v>24000</v>
+        <v>9000</v>
+      </c>
+      <c r="Q201" s="1" t="n">
+        <v>7200</v>
       </c>
       <c r="R201" s="1" t="n">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="S201" s="8" t="n"/>
       <c r="T201" s="1">

--- a/Plan irrestricto.xlsx
+++ b/Plan irrestricto.xlsx
@@ -706,24 +706,22 @@
       <c r="K2" s="1" t="n">
         <v>99224.53567869808</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>1034951</v>
-      </c>
+      <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n">
         <v>60000</v>
       </c>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="1" t="n">
-        <v>1191175.535678698</v>
+        <v>156224.5356786981</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>192000</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>23100</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>192000</v>
+        <v>0</v>
       </c>
       <c r="S2" s="8" t="n"/>
       <c r="T2" s="1">
@@ -746,7 +744,7 @@
         <v/>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>993300</v>
+        <v>138600</v>
       </c>
       <c r="AA2" s="1" t="n"/>
       <c r="AB2" s="1">
@@ -757,7 +755,7 @@
         <v>143799.72</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>1329099.72</v>
+        <v>282399.72</v>
       </c>
       <c r="AE2" s="1" t="n"/>
     </row>
@@ -807,24 +805,22 @@
       <c r="K3" s="1" t="n">
         <v>80491.01625478982</v>
       </c>
-      <c r="L3" s="1" t="n">
-        <v>72000</v>
-      </c>
+      <c r="L3" s="1" t="n"/>
       <c r="M3" s="1" t="n">
         <v>22500</v>
       </c>
       <c r="N3" s="1" t="n"/>
       <c r="O3" s="1" t="n">
-        <v>173866.0162547898</v>
+        <v>101866.0162547898</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>18700</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="S3" s="8" t="n"/>
       <c r="T3" s="1">
@@ -847,7 +843,7 @@
         <v/>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>112200</v>
+        <v>93500</v>
       </c>
       <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1">
@@ -858,7 +854,7 @@
         <v>48008.182</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>208208.182</v>
+        <v>141508.182</v>
       </c>
       <c r="AE3" s="1" t="n"/>
     </row>
@@ -908,24 +904,22 @@
       <c r="K4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <v>244000</v>
-      </c>
+      <c r="L4" s="1" t="n"/>
       <c r="M4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="1" t="n"/>
       <c r="O4" s="1" t="n">
-        <v>244000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="Q4" s="1" t="n">
         <v>9675</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>38700</v>
       </c>
       <c r="S4" s="8" t="n"/>
       <c r="T4" s="1">
@@ -947,20 +941,13 @@
         <f>U4-X4</f>
         <v/>
       </c>
-      <c r="Z4" s="1" t="n">
-        <v>241875</v>
-      </c>
+      <c r="Z4" s="1" t="n"/>
       <c r="AA4" s="1" t="n"/>
-      <c r="AB4" s="1">
-        <f>Z4+AA4</f>
-        <v/>
-      </c>
+      <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="n">
         <v>4001.22</v>
       </c>
-      <c r="AD4" s="1" t="n">
-        <v>245876.22</v>
-      </c>
+      <c r="AD4" s="1" t="n"/>
       <c r="AE4" s="1" t="n"/>
     </row>
     <row r="5">
@@ -1009,9 +996,7 @@
       <c r="K5" s="1" t="n">
         <v>48873.92893600813</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <v>598000</v>
-      </c>
+      <c r="L5" s="1" t="n"/>
       <c r="M5" s="1" t="n">
         <v>33293.32470869322</v>
       </c>
@@ -1019,7 +1004,7 @@
         <v>24000</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>652837.921173832</v>
+        <v>54837.92117383203</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>24000</v>
@@ -1051,7 +1036,7 @@
         <v/>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>618100</v>
+        <v>17660</v>
       </c>
       <c r="AA5" s="1" t="n"/>
       <c r="AB5" s="1">
@@ -1062,7 +1047,7 @@
         <v>2518.32</v>
       </c>
       <c r="AD5" s="1" t="n">
-        <v>644618.3199999999</v>
+        <v>44178.32</v>
       </c>
       <c r="AE5" s="1" t="n"/>
     </row>
@@ -1112,24 +1097,22 @@
       <c r="K6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <v>748000</v>
-      </c>
+      <c r="L6" s="1" t="n"/>
       <c r="M6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n">
-        <v>748000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
         <v>23500</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="S6" s="8" t="n"/>
       <c r="T6" s="1">
@@ -1151,18 +1134,11 @@
         <f>U6-X6</f>
         <v/>
       </c>
-      <c r="Z6" s="1" t="n">
-        <v>705000</v>
-      </c>
+      <c r="Z6" s="1" t="n"/>
       <c r="AA6" s="1" t="n"/>
-      <c r="AB6" s="1">
-        <f>Z6+AA6</f>
-        <v/>
-      </c>
+      <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="n"/>
-      <c r="AD6" s="1" t="n">
-        <v>729000</v>
-      </c>
+      <c r="AD6" s="1" t="n"/>
       <c r="AE6" s="1" t="n"/>
     </row>
     <row r="7">
@@ -1211,24 +1187,22 @@
       <c r="K7" s="1" t="n">
         <v>13204.0524523635</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>240000</v>
-      </c>
+      <c r="L7" s="1" t="n"/>
       <c r="M7" s="1" t="n">
         <v>9839</v>
       </c>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="n">
-        <v>262059.1524523635</v>
+        <v>22059.1524523635</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>72000</v>
+        <v>55420</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>23200</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>72000</v>
+        <v>46400</v>
       </c>
       <c r="S7" s="8" t="n"/>
       <c r="T7" s="1">
@@ -1250,17 +1224,12 @@
         <f>U7-X7</f>
         <v/>
       </c>
-      <c r="Z7" s="1" t="n">
-        <v>185600</v>
-      </c>
+      <c r="Z7" s="1" t="n"/>
       <c r="AA7" s="1" t="n"/>
-      <c r="AB7" s="1">
-        <f>Z7+AA7</f>
-        <v/>
-      </c>
+      <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n">
-        <v>257600</v>
+        <v>46400</v>
       </c>
       <c r="AE7" s="1" t="n"/>
     </row>
@@ -1310,9 +1279,7 @@
       <c r="K8" s="1" t="n">
         <v>34040.20182144304</v>
       </c>
-      <c r="L8" s="1" t="n">
-        <v>587000</v>
-      </c>
+      <c r="L8" s="1" t="n"/>
       <c r="M8" s="1" t="n">
         <v>8772.938406200259</v>
       </c>
@@ -1320,16 +1287,16 @@
         <v>24000</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>604935.8463870232</v>
+        <v>17935.84638702327</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>72000</v>
+        <v>119900</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>18383.33333333333</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>72000</v>
+        <v>110300</v>
       </c>
       <c r="S8" s="8" t="n"/>
       <c r="T8" s="1">
@@ -1351,19 +1318,14 @@
         <f>U8-X8</f>
         <v/>
       </c>
-      <c r="Z8" s="1" t="n">
-        <v>514733.3333333333</v>
-      </c>
+      <c r="Z8" s="1" t="n"/>
       <c r="AA8" s="1" t="n"/>
-      <c r="AB8" s="1">
-        <f>Z8+AA8</f>
-        <v/>
-      </c>
+      <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="AD8" s="1" t="n">
-        <v>610733.3333333333</v>
+        <v>134300</v>
       </c>
       <c r="AE8" s="1" t="n"/>
     </row>
@@ -1413,24 +1375,22 @@
       <c r="K9" s="1" t="n">
         <v>75502.94056713887</v>
       </c>
-      <c r="L9" s="1" t="n">
-        <v>678000</v>
-      </c>
+      <c r="L9" s="1" t="n"/>
       <c r="M9" s="1" t="n">
         <v>44406.7257453342</v>
       </c>
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n">
-        <v>793468.9937379396</v>
+        <v>115468.9937379397</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>20240</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="S9" s="8" t="n"/>
       <c r="T9" s="1">
@@ -1453,7 +1413,7 @@
         <v/>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>748880</v>
+        <v>40480</v>
       </c>
       <c r="AA9" s="1" t="n"/>
       <c r="AB9" s="1">
@@ -1462,7 +1422,7 @@
       </c>
       <c r="AC9" s="1" t="n"/>
       <c r="AD9" s="1" t="n">
-        <v>784880</v>
+        <v>112480</v>
       </c>
       <c r="AE9" s="1" t="n"/>
     </row>
@@ -1512,24 +1472,22 @@
       <c r="K10" s="1" t="n">
         <v>43210.1357725299</v>
       </c>
-      <c r="L10" s="1" t="n">
-        <v>960000</v>
-      </c>
+      <c r="L10" s="1" t="n"/>
       <c r="M10" s="1" t="n">
         <v>19096.03384212821</v>
       </c>
       <c r="N10" s="1" t="n"/>
       <c r="O10" s="1" t="n">
-        <v>1020396.566230445</v>
+        <v>60396.5662304453</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>84000</v>
+        <v>144000</v>
       </c>
       <c r="Q10" s="1" t="n">
         <v>23725</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>84000</v>
+        <v>142350</v>
       </c>
       <c r="S10" s="8" t="n"/>
       <c r="T10" s="1">
@@ -1551,19 +1509,14 @@
         <f>U10-X10</f>
         <v/>
       </c>
-      <c r="Z10" s="1" t="n">
-        <v>925275</v>
-      </c>
+      <c r="Z10" s="1" t="n"/>
       <c r="AA10" s="1" t="n"/>
-      <c r="AB10" s="1">
-        <f>Z10+AA10</f>
-        <v/>
-      </c>
+      <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="n">
         <v>23796.98</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>1033071.98</v>
+        <v>166146.98</v>
       </c>
       <c r="AE10" s="1" t="n"/>
     </row>
@@ -1613,24 +1566,22 @@
       <c r="K11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="1" t="n">
-        <v>111000</v>
-      </c>
+      <c r="L11" s="1" t="n"/>
       <c r="M11" s="1" t="n">
         <v>3025.590401306297</v>
       </c>
       <c r="N11" s="1" t="n"/>
       <c r="O11" s="1" t="n">
-        <v>113723.0313611757</v>
+        <v>2723.031361175668</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="Q11" s="1" t="n">
         <v>17500</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>48000</v>
+        <v>17500</v>
       </c>
       <c r="S11" s="8" t="n"/>
       <c r="T11" s="1">
@@ -1652,17 +1603,12 @@
         <f>U11-X11</f>
         <v/>
       </c>
-      <c r="Z11" s="1" t="n">
-        <v>52500</v>
-      </c>
+      <c r="Z11" s="1" t="n"/>
       <c r="AA11" s="1" t="n"/>
-      <c r="AB11" s="1">
-        <f>Z11+AA11</f>
-        <v/>
-      </c>
+      <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="n"/>
       <c r="AD11" s="1" t="n">
-        <v>100500</v>
+        <v>17500</v>
       </c>
       <c r="AE11" s="1" t="n"/>
     </row>
@@ -1712,18 +1658,16 @@
       <c r="K12" s="1" t="n">
         <v>1869.729002129887</v>
       </c>
-      <c r="L12" s="1" t="n">
-        <v>12000</v>
-      </c>
+      <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="n"/>
       <c r="O12" s="1" t="n">
-        <v>13869.72900212989</v>
+        <v>1869.729002129887</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>18700</v>
+        <v>24000</v>
       </c>
       <c r="Q12" s="1" t="n">
         <v>14300</v>
@@ -1806,24 +1750,22 @@
       <c r="K13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="1" t="n">
-        <v>76000</v>
-      </c>
+      <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n">
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>12530</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
         <v>13025</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>12530</v>
+        <v>0</v>
       </c>
       <c r="S13" s="8" t="n"/>
       <c r="T13" s="1">
@@ -1845,18 +1787,11 @@
         <f>U13-X13</f>
         <v/>
       </c>
-      <c r="Z13" s="1" t="n">
-        <v>52100</v>
-      </c>
+      <c r="Z13" s="1" t="n"/>
       <c r="AA13" s="1" t="n"/>
-      <c r="AB13" s="1">
-        <f>Z13+AA13</f>
-        <v/>
-      </c>
+      <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
-      <c r="AD13" s="1" t="n">
-        <v>64630</v>
-      </c>
+      <c r="AD13" s="1" t="n"/>
       <c r="AE13" s="1" t="n"/>
     </row>
     <row r="14">
@@ -1905,24 +1840,22 @@
       <c r="K14" s="1" t="n">
         <v>6511.252354657902</v>
       </c>
-      <c r="L14" s="1" t="n">
-        <v>374000</v>
-      </c>
+      <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n">
-        <v>380511.2523546579</v>
+        <v>6511.252354657902</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>150200</v>
+        <v>72000</v>
       </c>
       <c r="Q14" s="1" t="n">
         <v>17400</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>150200</v>
+        <v>69600</v>
       </c>
       <c r="S14" s="8" t="n"/>
       <c r="T14" s="1">
@@ -1944,17 +1877,12 @@
         <f>U14-X14</f>
         <v/>
       </c>
-      <c r="Z14" s="1" t="n">
-        <v>226200</v>
-      </c>
+      <c r="Z14" s="1" t="n"/>
       <c r="AA14" s="1" t="n"/>
-      <c r="AB14" s="1">
-        <f>Z14+AA14</f>
-        <v/>
-      </c>
+      <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n">
-        <v>376400</v>
+        <v>69600</v>
       </c>
       <c r="AE14" s="1" t="n"/>
     </row>
@@ -2004,24 +1932,22 @@
       <c r="K15" s="1" t="n">
         <v>78432.17085096118</v>
       </c>
-      <c r="L15" s="1" t="n">
-        <v>2598000</v>
-      </c>
+      <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n">
-        <v>2676432.170850961</v>
+        <v>78432.17085096118</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>132700</v>
+        <v>166960</v>
       </c>
       <c r="Q15" s="1" t="n">
         <v>22560</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>132700</v>
+        <v>157920</v>
       </c>
       <c r="S15" s="8" t="n"/>
       <c r="T15" s="1">
@@ -2043,19 +1969,14 @@
         <f>U15-X15</f>
         <v/>
       </c>
-      <c r="Z15" s="1" t="n">
-        <v>2526720</v>
-      </c>
+      <c r="Z15" s="1" t="n"/>
       <c r="AA15" s="1" t="n"/>
-      <c r="AB15" s="1">
-        <f>Z15+AA15</f>
-        <v/>
-      </c>
+      <c r="AB15" s="1" t="n"/>
       <c r="AC15" s="1" t="n">
         <v>47974.38</v>
       </c>
       <c r="AD15" s="1" t="n">
-        <v>2707394.38</v>
+        <v>205894.38</v>
       </c>
       <c r="AE15" s="1" t="n"/>
     </row>
@@ -2105,24 +2026,22 @@
       <c r="K16" s="1" t="n">
         <v>64856.51286204692</v>
       </c>
-      <c r="L16" s="1" t="n">
-        <v>972000</v>
-      </c>
+      <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n">
-        <v>1036856.512862047</v>
+        <v>64856.51286204692</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>38000</v>
+        <v>144000</v>
       </c>
       <c r="Q16" s="1" t="n">
         <v>20250</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>38000</v>
+        <v>141750</v>
       </c>
       <c r="S16" s="8" t="n"/>
       <c r="T16" s="1">
@@ -2144,19 +2063,14 @@
         <f>U16-X16</f>
         <v/>
       </c>
-      <c r="Z16" s="1" t="n">
-        <v>992250</v>
-      </c>
+      <c r="Z16" s="1" t="n"/>
       <c r="AA16" s="1" t="n"/>
-      <c r="AB16" s="1">
-        <f>Z16+AA16</f>
-        <v/>
-      </c>
+      <c r="AB16" s="1" t="n"/>
       <c r="AC16" s="1" t="n">
         <v>23997.03</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>1054247.03</v>
+        <v>165747.03</v>
       </c>
       <c r="AE16" s="1" t="n"/>
     </row>
@@ -2206,24 +2120,22 @@
       <c r="K17" s="1" t="n">
         <v>6737.123277160602</v>
       </c>
-      <c r="L17" s="1" t="n">
-        <v>312000</v>
-      </c>
+      <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n">
-        <v>318737.1232771606</v>
+        <v>6737.123277160602</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>33271</v>
+        <v>72000</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>19700</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>33271</v>
+        <v>59100</v>
       </c>
       <c r="S17" s="8" t="n"/>
       <c r="T17" s="1">
@@ -2245,17 +2157,12 @@
         <f>U17-X17</f>
         <v/>
       </c>
-      <c r="Z17" s="1" t="n">
-        <v>275800</v>
-      </c>
+      <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
-      <c r="AB17" s="1">
-        <f>Z17+AA17</f>
-        <v/>
-      </c>
+      <c r="AB17" s="1" t="n"/>
       <c r="AC17" s="1" t="n"/>
       <c r="AD17" s="1" t="n">
-        <v>309071</v>
+        <v>59100</v>
       </c>
       <c r="AE17" s="1" t="n"/>
     </row>
@@ -2305,24 +2212,22 @@
       <c r="K18" s="1" t="n">
         <v>19756.08213212001</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <v>720000</v>
-      </c>
+      <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n">
         <v>23730.44787155878</v>
       </c>
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n">
-        <v>761113.4852165229</v>
+        <v>41113.48521652291</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>182000</v>
+        <v>83000</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>18350</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>182000</v>
+        <v>73400</v>
       </c>
       <c r="S18" s="8" t="n"/>
       <c r="T18" s="1">
@@ -2344,17 +2249,12 @@
         <f>U18-X18</f>
         <v/>
       </c>
-      <c r="Z18" s="1" t="n">
-        <v>568850</v>
-      </c>
+      <c r="Z18" s="1" t="n"/>
       <c r="AA18" s="1" t="n"/>
-      <c r="AB18" s="1">
-        <f>Z18+AA18</f>
-        <v/>
-      </c>
+      <c r="AB18" s="1" t="n"/>
       <c r="AC18" s="1" t="n"/>
       <c r="AD18" s="1" t="n">
-        <v>750850</v>
+        <v>73400</v>
       </c>
       <c r="AE18" s="1" t="n"/>
     </row>
@@ -2404,24 +2304,22 @@
       <c r="K19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L19" s="1" t="n">
-        <v>102000</v>
-      </c>
+      <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n">
-        <v>102000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>143000</v>
+        <v>11351</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>15766.66666666667</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>141900</v>
+        <v>0</v>
       </c>
       <c r="S19" s="8" t="n"/>
       <c r="T19" s="1">
@@ -2449,9 +2347,7 @@
       <c r="AC19" s="1" t="n">
         <v>2505.58</v>
       </c>
-      <c r="AD19" s="1" t="n">
-        <v>144405.58</v>
-      </c>
+      <c r="AD19" s="1" t="n"/>
       <c r="AE19" s="1" t="n"/>
     </row>
     <row r="20">
@@ -2500,24 +2396,22 @@
       <c r="K20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L20" s="1" t="n">
-        <v>72000</v>
-      </c>
+      <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="n"/>
       <c r="O20" s="1" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>45300</v>
+        <v>24000</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>14200</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>45300</v>
+        <v>14200</v>
       </c>
       <c r="S20" s="8" t="n"/>
       <c r="T20" s="1">
@@ -2539,18 +2433,11 @@
         <f>U20-X20</f>
         <v/>
       </c>
-      <c r="Z20" s="1" t="n">
-        <v>14200</v>
-      </c>
+      <c r="Z20" s="1" t="n"/>
       <c r="AA20" s="1" t="n"/>
-      <c r="AB20" s="1">
-        <f>Z20+AA20</f>
-        <v/>
-      </c>
+      <c r="AB20" s="1" t="n"/>
       <c r="AC20" s="1" t="n"/>
-      <c r="AD20" s="1" t="n">
-        <v>59500</v>
-      </c>
+      <c r="AD20" s="1" t="n"/>
       <c r="AE20" s="1" t="n"/>
     </row>
     <row r="21">
@@ -2599,24 +2486,22 @@
       <c r="K21" s="1" t="n">
         <v>45922.71435517615</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <v>625000</v>
-      </c>
+      <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
         <v>31814.48647234083</v>
       </c>
       <c r="N21" s="1" t="n"/>
       <c r="O21" s="1" t="n">
-        <v>699555.752180283</v>
+        <v>74555.7521802829</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>120000</v>
+        <v>96000</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>21766.66666666667</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>120000</v>
+        <v>87066.66666666667</v>
       </c>
       <c r="S21" s="8" t="n"/>
       <c r="T21" s="1">
@@ -2638,19 +2523,14 @@
         <f>U21-X21</f>
         <v/>
       </c>
-      <c r="Z21" s="1" t="n">
-        <v>565933.3333333334</v>
-      </c>
+      <c r="Z21" s="1" t="n"/>
       <c r="AA21" s="1" t="n"/>
-      <c r="AB21" s="1">
-        <f>Z21+AA21</f>
-        <v/>
-      </c>
+      <c r="AB21" s="1" t="n"/>
       <c r="AC21" s="1" t="n">
         <v>24016.53</v>
       </c>
       <c r="AD21" s="1" t="n">
-        <v>709949.8633333334</v>
+        <v>111083.1966666667</v>
       </c>
       <c r="AE21" s="1" t="n"/>
     </row>
@@ -2700,24 +2580,22 @@
       <c r="K22" s="1" t="n">
         <v>19224.5585640956</v>
       </c>
-      <c r="L22" s="1" t="n">
-        <v>144000</v>
-      </c>
+      <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n">
         <v>11763</v>
       </c>
       <c r="N22" s="1" t="n"/>
       <c r="O22" s="1" t="n">
-        <v>173811.2585640956</v>
+        <v>29811.2585640956</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>70500</v>
+        <v>47500</v>
       </c>
       <c r="Q22" s="1" t="n">
         <v>14600</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>70500</v>
+        <v>43800</v>
       </c>
       <c r="S22" s="8" t="n"/>
       <c r="T22" s="1">
@@ -2739,17 +2617,12 @@
         <f>U22-X22</f>
         <v/>
       </c>
-      <c r="Z22" s="1" t="n">
-        <v>102200</v>
-      </c>
+      <c r="Z22" s="1" t="n"/>
       <c r="AA22" s="1" t="n"/>
-      <c r="AB22" s="1">
-        <f>Z22+AA22</f>
-        <v/>
-      </c>
+      <c r="AB22" s="1" t="n"/>
       <c r="AC22" s="1" t="n"/>
       <c r="AD22" s="1" t="n">
-        <v>172700</v>
+        <v>43800</v>
       </c>
       <c r="AE22" s="1" t="n"/>
     </row>
@@ -2799,24 +2672,22 @@
       <c r="K23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L23" s="1" t="n">
-        <v>720000</v>
-      </c>
+      <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="1" t="n"/>
       <c r="O23" s="1" t="n">
-        <v>720000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>11000</v>
+        <v>48000</v>
       </c>
       <c r="Q23" s="1" t="n">
         <v>20500</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>11000</v>
+        <v>41000</v>
       </c>
       <c r="S23" s="8" t="n"/>
       <c r="T23" s="1">
@@ -2838,18 +2709,11 @@
         <f>U23-X23</f>
         <v/>
       </c>
-      <c r="Z23" s="1" t="n">
-        <v>697000</v>
-      </c>
+      <c r="Z23" s="1" t="n"/>
       <c r="AA23" s="1" t="n"/>
-      <c r="AB23" s="1">
-        <f>Z23+AA23</f>
-        <v/>
-      </c>
+      <c r="AB23" s="1" t="n"/>
       <c r="AC23" s="1" t="n"/>
-      <c r="AD23" s="1" t="n">
-        <v>708000</v>
-      </c>
+      <c r="AD23" s="1" t="n"/>
       <c r="AE23" s="1" t="n"/>
     </row>
     <row r="24">
@@ -2898,24 +2762,22 @@
       <c r="K24" s="1" t="n">
         <v>1607.335779756264</v>
       </c>
-      <c r="L24" s="1" t="n">
-        <v>10500</v>
-      </c>
+      <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n">
         <v>904</v>
       </c>
       <c r="N24" s="1" t="n"/>
       <c r="O24" s="1" t="n">
-        <v>12920.93577975626</v>
+        <v>2420.935779756264</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
         <v>2800</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="S24" s="8" t="n"/>
       <c r="T24" s="1">
@@ -2937,17 +2799,12 @@
         <f>U24-X24</f>
         <v/>
       </c>
-      <c r="Z24" s="1" t="n">
-        <v>2800</v>
-      </c>
+      <c r="Z24" s="1" t="n"/>
       <c r="AA24" s="1" t="n"/>
-      <c r="AB24" s="1">
-        <f>Z24+AA24</f>
-        <v/>
-      </c>
+      <c r="AB24" s="1" t="n"/>
       <c r="AC24" s="1" t="n"/>
       <c r="AD24" s="1" t="n">
-        <v>11800</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1" t="n"/>
     </row>
@@ -2997,24 +2854,22 @@
       <c r="K25" s="1" t="n">
         <v>18514.67852194425</v>
       </c>
-      <c r="L25" s="1" t="n">
-        <v>312000</v>
-      </c>
+      <c r="L25" s="1" t="n"/>
       <c r="M25" s="1" t="n">
         <v>11543.6532375732</v>
       </c>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n">
-        <v>340903.9664357601</v>
+        <v>28903.96643576014</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>96000</v>
+        <v>72000</v>
       </c>
       <c r="Q25" s="1" t="n">
         <v>23100</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>96000</v>
+        <v>69300</v>
       </c>
       <c r="S25" s="8" t="n"/>
       <c r="T25" s="1">
@@ -3036,17 +2891,12 @@
         <f>U25-X25</f>
         <v/>
       </c>
-      <c r="Z25" s="1" t="n">
-        <v>231000</v>
-      </c>
+      <c r="Z25" s="1" t="n"/>
       <c r="AA25" s="1" t="n"/>
-      <c r="AB25" s="1">
-        <f>Z25+AA25</f>
-        <v/>
-      </c>
+      <c r="AB25" s="1" t="n"/>
       <c r="AC25" s="1" t="n"/>
       <c r="AD25" s="1" t="n">
-        <v>327000</v>
+        <v>69300</v>
       </c>
       <c r="AE25" s="1" t="n"/>
     </row>
@@ -3096,24 +2946,22 @@
       <c r="K26" s="1" t="n">
         <v>53484.60335563546</v>
       </c>
-      <c r="L26" s="1" t="n">
-        <v>984001</v>
-      </c>
+      <c r="L26" s="1" t="n"/>
       <c r="M26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n">
-        <v>1037485.603355635</v>
+        <v>53484.60335563546</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>127200</v>
+        <v>83209</v>
       </c>
       <c r="Q26" s="1" t="n">
         <v>19780</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>127200</v>
+        <v>79120</v>
       </c>
       <c r="S26" s="8" t="n"/>
       <c r="T26" s="1">
@@ -3135,17 +2983,12 @@
         <f>U26-X26</f>
         <v/>
       </c>
-      <c r="Z26" s="1" t="n">
-        <v>909880</v>
-      </c>
+      <c r="Z26" s="1" t="n"/>
       <c r="AA26" s="1" t="n"/>
-      <c r="AB26" s="1">
-        <f>Z26+AA26</f>
-        <v/>
-      </c>
+      <c r="AB26" s="1" t="n"/>
       <c r="AC26" s="1" t="n"/>
       <c r="AD26" s="1" t="n">
-        <v>1037080</v>
+        <v>79120</v>
       </c>
       <c r="AE26" s="1" t="n"/>
     </row>
@@ -3195,24 +3038,22 @@
       <c r="K27" s="1" t="n">
         <v>1776.827617992199</v>
       </c>
-      <c r="L27" s="1" t="n">
-        <v>102000</v>
-      </c>
+      <c r="L27" s="1" t="n"/>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n">
-        <v>103776.8276179922</v>
+        <v>1776.827617992199</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>6100</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>24000</v>
+        <v>18300</v>
       </c>
       <c r="S27" s="8" t="n"/>
       <c r="T27" s="1">
@@ -3234,17 +3075,12 @@
         <f>U27-X27</f>
         <v/>
       </c>
-      <c r="Z27" s="1" t="n">
-        <v>79300</v>
-      </c>
+      <c r="Z27" s="1" t="n"/>
       <c r="AA27" s="1" t="n"/>
-      <c r="AB27" s="1">
-        <f>Z27+AA27</f>
-        <v/>
-      </c>
+      <c r="AB27" s="1" t="n"/>
       <c r="AC27" s="1" t="n"/>
       <c r="AD27" s="1" t="n">
-        <v>103300</v>
+        <v>18300</v>
       </c>
       <c r="AE27" s="1" t="n"/>
     </row>
@@ -3292,24 +3128,22 @@
       <c r="K28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L28" s="1" t="n">
-        <v>24000</v>
-      </c>
+      <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
         <v>13025.35988671113</v>
       </c>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n">
-        <v>35722.82389804002</v>
+        <v>11722.82389804002</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>23450</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="S28" s="8" t="n"/>
       <c r="T28" s="1">
@@ -3336,7 +3170,7 @@
       <c r="AB28" s="1" t="n"/>
       <c r="AC28" s="1" t="n"/>
       <c r="AD28" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="1" t="n"/>
     </row>
@@ -3386,24 +3220,22 @@
       <c r="K29" s="1" t="n">
         <v>19690.83841196224</v>
       </c>
-      <c r="L29" s="1" t="n">
-        <v>1344000</v>
-      </c>
+      <c r="L29" s="1" t="n"/>
       <c r="M29" s="1" t="n">
         <v>50032.58871194257</v>
       </c>
       <c r="N29" s="1" t="n"/>
       <c r="O29" s="1" t="n">
-        <v>1408720.16825271</v>
+        <v>64720.16825271054</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>202859</v>
+        <v>118000</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>19933.33333333333</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>202859</v>
+        <v>99666.66666666666</v>
       </c>
       <c r="S29" s="8" t="n"/>
       <c r="T29" s="1">
@@ -3425,19 +3257,14 @@
         <f>U29-X29</f>
         <v/>
       </c>
-      <c r="Z29" s="1" t="n">
-        <v>1196000</v>
-      </c>
+      <c r="Z29" s="1" t="n"/>
       <c r="AA29" s="1" t="n"/>
-      <c r="AB29" s="1">
-        <f>Z29+AA29</f>
-        <v/>
-      </c>
+      <c r="AB29" s="1" t="n"/>
       <c r="AC29" s="1" t="n">
         <v>4003.94</v>
       </c>
       <c r="AD29" s="1" t="n">
-        <v>1402862.94</v>
+        <v>103670.6066666667</v>
       </c>
       <c r="AE29" s="1" t="n"/>
     </row>
@@ -3487,15 +3314,13 @@
       <c r="K30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L30" s="1" t="n">
-        <v>3000</v>
-      </c>
+      <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
         <v>790</v>
       </c>
       <c r="N30" s="1" t="n"/>
       <c r="O30" s="1" t="n">
-        <v>3711</v>
+        <v>711</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>0</v>
@@ -3581,24 +3406,22 @@
       <c r="K31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L31" s="1" t="n">
-        <v>76000</v>
-      </c>
+      <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n">
         <v>11200</v>
       </c>
       <c r="N31" s="1" t="n"/>
       <c r="O31" s="1" t="n">
-        <v>86080</v>
+        <v>10080</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="Q31" s="1" t="n">
         <v>15750</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="S31" s="8" t="n"/>
       <c r="T31" s="1">
@@ -3620,17 +3443,12 @@
         <f>U31-X31</f>
         <v/>
       </c>
-      <c r="Z31" s="1" t="n">
-        <v>15750</v>
-      </c>
+      <c r="Z31" s="1" t="n"/>
       <c r="AA31" s="1" t="n"/>
-      <c r="AB31" s="1">
-        <f>Z31+AA31</f>
-        <v/>
-      </c>
+      <c r="AB31" s="1" t="n"/>
       <c r="AC31" s="1" t="n"/>
       <c r="AD31" s="1" t="n">
-        <v>75750</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="1" t="n"/>
     </row>
@@ -3680,24 +3498,22 @@
       <c r="K32" s="1" t="n">
         <v>40228.78142966852</v>
       </c>
-      <c r="L32" s="1" t="n">
-        <v>701000</v>
-      </c>
+      <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n">
         <v>23513.77796747034</v>
       </c>
       <c r="N32" s="1" t="n"/>
       <c r="O32" s="1" t="n">
-        <v>762391.1816003919</v>
+        <v>61391.18160039182</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>180000</v>
+        <v>101000</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>22275</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>180000</v>
+        <v>89100</v>
       </c>
       <c r="S32" s="8" t="n"/>
       <c r="T32" s="1">
@@ -3719,17 +3535,12 @@
         <f>U32-X32</f>
         <v/>
       </c>
-      <c r="Z32" s="1" t="n">
-        <v>579150</v>
-      </c>
+      <c r="Z32" s="1" t="n"/>
       <c r="AA32" s="1" t="n"/>
-      <c r="AB32" s="1">
-        <f>Z32+AA32</f>
-        <v/>
-      </c>
+      <c r="AB32" s="1" t="n"/>
       <c r="AC32" s="1" t="n"/>
       <c r="AD32" s="1" t="n">
-        <v>759150</v>
+        <v>89100</v>
       </c>
       <c r="AE32" s="1" t="n"/>
     </row>
@@ -3779,24 +3590,22 @@
       <c r="K33" s="1" t="n">
         <v>11697.77352176465</v>
       </c>
-      <c r="L33" s="1" t="n">
-        <v>312000</v>
-      </c>
+      <c r="L33" s="1" t="n"/>
       <c r="M33" s="1" t="n">
         <v>10061</v>
       </c>
       <c r="N33" s="1" t="n"/>
       <c r="O33" s="1" t="n">
-        <v>332752.6735217647</v>
+        <v>20752.67352176465</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>96800</v>
+        <v>88000</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>21433.33333333333</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>96800</v>
+        <v>85733.33333333333</v>
       </c>
       <c r="S33" s="8" t="n"/>
       <c r="T33" s="1">
@@ -3818,17 +3627,12 @@
         <f>U33-X33</f>
         <v/>
       </c>
-      <c r="Z33" s="1" t="n">
-        <v>235766.6666666667</v>
-      </c>
+      <c r="Z33" s="1" t="n"/>
       <c r="AA33" s="1" t="n"/>
-      <c r="AB33" s="1">
-        <f>Z33+AA33</f>
-        <v/>
-      </c>
+      <c r="AB33" s="1" t="n"/>
       <c r="AC33" s="1" t="n"/>
       <c r="AD33" s="1" t="n">
-        <v>332566.6666666666</v>
+        <v>85733.33333333333</v>
       </c>
       <c r="AE33" s="1" t="n"/>
     </row>
@@ -3878,15 +3682,13 @@
       <c r="K34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L34" s="1" t="n">
-        <v>72000</v>
-      </c>
+      <c r="L34" s="1" t="n"/>
       <c r="M34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="1" t="n"/>
       <c r="O34" s="1" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="P34" s="1" t="n">
         <v>0</v>
@@ -3917,18 +3719,11 @@
         <f>U34-X34</f>
         <v/>
       </c>
-      <c r="Z34" s="1" t="n">
-        <v>70266.66666666667</v>
-      </c>
+      <c r="Z34" s="1" t="n"/>
       <c r="AA34" s="1" t="n"/>
-      <c r="AB34" s="1">
-        <f>Z34+AA34</f>
-        <v/>
-      </c>
+      <c r="AB34" s="1" t="n"/>
       <c r="AC34" s="1" t="n"/>
-      <c r="AD34" s="1" t="n">
-        <v>70266.66666666667</v>
-      </c>
+      <c r="AD34" s="1" t="n"/>
       <c r="AE34" s="1" t="n"/>
     </row>
     <row r="35">
@@ -3977,15 +3772,13 @@
       <c r="K35" s="1" t="n">
         <v>8570.684564855206</v>
       </c>
-      <c r="L35" s="1" t="n">
-        <v>74380</v>
-      </c>
+      <c r="L35" s="1" t="n"/>
       <c r="M35" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="N35" s="1" t="n"/>
       <c r="O35" s="1" t="n">
-        <v>84030.68456485521</v>
+        <v>9650.684564855206</v>
       </c>
       <c r="P35" s="1" t="n">
         <v>47880</v>
@@ -3994,7 +3787,7 @@
         <v>23900</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>47880</v>
+        <v>47800</v>
       </c>
       <c r="S35" s="8" t="n"/>
       <c r="T35" s="1">
@@ -4016,17 +3809,12 @@
         <f>U35-X35</f>
         <v/>
       </c>
-      <c r="Z35" s="1" t="n">
-        <v>23900</v>
-      </c>
+      <c r="Z35" s="1" t="n"/>
       <c r="AA35" s="1" t="n"/>
-      <c r="AB35" s="1">
-        <f>Z35+AA35</f>
-        <v/>
-      </c>
+      <c r="AB35" s="1" t="n"/>
       <c r="AC35" s="1" t="n"/>
       <c r="AD35" s="1" t="n">
-        <v>71780</v>
+        <v>47800</v>
       </c>
       <c r="AE35" s="1" t="n"/>
     </row>
@@ -4076,24 +3864,22 @@
       <c r="K36" s="1" t="n">
         <v>4995.045031861127</v>
       </c>
-      <c r="L36" s="1" t="n">
-        <v>22247</v>
-      </c>
+      <c r="L36" s="1" t="n"/>
       <c r="M36" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="1" t="n"/>
       <c r="O36" s="1" t="n">
-        <v>27242.04503186113</v>
+        <v>4995.045031861127</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>14086.8</v>
+        <v>6104</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>2500</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>14086.8</v>
+        <v>5000</v>
       </c>
       <c r="S36" s="8" t="n"/>
       <c r="T36" s="1">
@@ -4115,17 +3901,12 @@
         <f>U36-X36</f>
         <v/>
       </c>
-      <c r="Z36" s="1" t="n">
-        <v>12500</v>
-      </c>
+      <c r="Z36" s="1" t="n"/>
       <c r="AA36" s="1" t="n"/>
-      <c r="AB36" s="1">
-        <f>Z36+AA36</f>
-        <v/>
-      </c>
+      <c r="AB36" s="1" t="n"/>
       <c r="AC36" s="1" t="n"/>
       <c r="AD36" s="1" t="n">
-        <v>26586.8</v>
+        <v>5000</v>
       </c>
       <c r="AE36" s="1" t="n"/>
     </row>
@@ -4175,24 +3956,22 @@
       <c r="K37" s="1" t="n">
         <v>1016.951029415611</v>
       </c>
-      <c r="L37" s="1" t="n">
-        <v>28956</v>
-      </c>
+      <c r="L37" s="1" t="n"/>
       <c r="M37" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N37" s="1" t="n"/>
       <c r="O37" s="1" t="n">
-        <v>29972.95102941561</v>
+        <v>1016.951029415611</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>17068.8</v>
+        <v>9144</v>
       </c>
       <c r="Q37" s="1" t="n">
         <v>12100</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>17068.8</v>
+        <v>0</v>
       </c>
       <c r="S37" s="8" t="n"/>
       <c r="T37" s="1">
@@ -4214,17 +3993,12 @@
         <f>U37-X37</f>
         <v/>
       </c>
-      <c r="Z37" s="1" t="n">
-        <v>12100</v>
-      </c>
+      <c r="Z37" s="1" t="n"/>
       <c r="AA37" s="1" t="n"/>
-      <c r="AB37" s="1">
-        <f>Z37+AA37</f>
-        <v/>
-      </c>
+      <c r="AB37" s="1" t="n"/>
       <c r="AC37" s="1" t="n"/>
       <c r="AD37" s="1" t="n">
-        <v>29168.8</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="1" t="n"/>
     </row>
@@ -4272,24 +4046,22 @@
       <c r="K38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L38" s="1" t="n">
-        <v>47988</v>
-      </c>
+      <c r="L38" s="1" t="n"/>
       <c r="M38" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="n"/>
       <c r="O38" s="1" t="n">
-        <v>47988</v>
+        <v>0</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>7740</v>
+        <v>15480</v>
       </c>
       <c r="Q38" s="1" t="n">
         <v>9500</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>7740</v>
+        <v>9500</v>
       </c>
       <c r="S38" s="8" t="n"/>
       <c r="T38" s="1">
@@ -4311,18 +4083,11 @@
         <f>U38-X38</f>
         <v/>
       </c>
-      <c r="Z38" s="1" t="n">
-        <v>38000</v>
-      </c>
+      <c r="Z38" s="1" t="n"/>
       <c r="AA38" s="1" t="n"/>
-      <c r="AB38" s="1">
-        <f>Z38+AA38</f>
-        <v/>
-      </c>
+      <c r="AB38" s="1" t="n"/>
       <c r="AC38" s="1" t="n"/>
-      <c r="AD38" s="1" t="n">
-        <v>45740</v>
-      </c>
+      <c r="AD38" s="1" t="n"/>
       <c r="AE38" s="1" t="n"/>
     </row>
     <row r="39">
@@ -4371,9 +4136,7 @@
       <c r="K39" s="1" t="n">
         <v>2090.281143097987</v>
       </c>
-      <c r="L39" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="L39" s="1" t="n"/>
       <c r="M39" s="9" t="n">
         <v>0</v>
       </c>
@@ -4382,13 +4145,13 @@
         <v>2090.281143097987</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>5895</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1" t="n">
         <v>3500</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="S39" s="8" t="n"/>
       <c r="T39" s="1">
@@ -4415,7 +4178,7 @@
       <c r="AB39" s="1" t="n"/>
       <c r="AC39" s="1" t="n"/>
       <c r="AD39" s="1" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="1" t="n"/>
     </row>
@@ -4465,24 +4228,22 @@
       <c r="K40" s="1" t="n">
         <v>8588.059251201568</v>
       </c>
-      <c r="L40" s="1" t="n">
-        <v>144000</v>
-      </c>
+      <c r="L40" s="1" t="n"/>
       <c r="M40" s="1" t="n">
         <v>5249</v>
       </c>
       <c r="N40" s="1" t="n"/>
       <c r="O40" s="1" t="n">
-        <v>157312.1592512016</v>
+        <v>13312.15925120157</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>24000</v>
+        <v>57500</v>
       </c>
       <c r="Q40" s="1" t="n">
         <v>22666.66666666667</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>24000</v>
+        <v>45333.33333333334</v>
       </c>
       <c r="S40" s="8" t="n"/>
       <c r="T40" s="1">
@@ -4504,17 +4265,12 @@
         <f>U40-X40</f>
         <v/>
       </c>
-      <c r="Z40" s="1" t="n">
-        <v>113333.3333333333</v>
-      </c>
+      <c r="Z40" s="1" t="n"/>
       <c r="AA40" s="1" t="n"/>
-      <c r="AB40" s="1">
-        <f>Z40+AA40</f>
-        <v/>
-      </c>
+      <c r="AB40" s="1" t="n"/>
       <c r="AC40" s="1" t="n"/>
       <c r="AD40" s="1" t="n">
-        <v>137333.3333333333</v>
+        <v>45333.33333333334</v>
       </c>
       <c r="AE40" s="1" t="n"/>
     </row>
@@ -4564,24 +4320,22 @@
       <c r="K41" s="1" t="n">
         <v>6357.362275590129</v>
       </c>
-      <c r="L41" s="1" t="n">
-        <v>108000</v>
-      </c>
+      <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n">
         <v>4748</v>
       </c>
       <c r="N41" s="1" t="n"/>
       <c r="O41" s="1" t="n">
-        <v>118630.5622755901</v>
+        <v>10630.56227559013</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>47000</v>
+        <v>68000</v>
       </c>
       <c r="Q41" s="1" t="n">
         <v>23800</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>47000</v>
+        <v>47600</v>
       </c>
       <c r="S41" s="8" t="n"/>
       <c r="T41" s="1">
@@ -4603,17 +4357,12 @@
         <f>U41-X41</f>
         <v/>
       </c>
-      <c r="Z41" s="1" t="n">
-        <v>71400</v>
-      </c>
+      <c r="Z41" s="1" t="n"/>
       <c r="AA41" s="1" t="n"/>
-      <c r="AB41" s="1">
-        <f>Z41+AA41</f>
-        <v/>
-      </c>
+      <c r="AB41" s="1" t="n"/>
       <c r="AC41" s="1" t="n"/>
       <c r="AD41" s="1" t="n">
-        <v>118400</v>
+        <v>47600</v>
       </c>
       <c r="AE41" s="1" t="n"/>
     </row>
@@ -4663,9 +4412,7 @@
       <c r="K42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L42" s="1" t="n">
-        <v>52619</v>
-      </c>
+      <c r="L42" s="1" t="n"/>
       <c r="M42" s="1" t="n">
         <v>4560</v>
       </c>
@@ -4673,16 +4420,16 @@
         <v>24000</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>32723</v>
+        <v>-19896</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>6425</v>
+        <v>12000</v>
       </c>
       <c r="Q42" s="1" t="n">
         <v>11600</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>6425</v>
+        <v>11600</v>
       </c>
       <c r="S42" s="8" t="n"/>
       <c r="T42" s="1">
@@ -4704,18 +4451,11 @@
         <f>U42-X42</f>
         <v/>
       </c>
-      <c r="Z42" s="1" t="n">
-        <v>23200</v>
-      </c>
+      <c r="Z42" s="1" t="n"/>
       <c r="AA42" s="1" t="n"/>
-      <c r="AB42" s="1">
-        <f>Z42+AA42</f>
-        <v/>
-      </c>
+      <c r="AB42" s="1" t="n"/>
       <c r="AC42" s="1" t="n"/>
-      <c r="AD42" s="1" t="n">
-        <v>29625</v>
-      </c>
+      <c r="AD42" s="1" t="n"/>
       <c r="AE42" s="1" t="n"/>
     </row>
     <row r="43">
@@ -4764,24 +4504,22 @@
       <c r="K43" s="1" t="n">
         <v>6766.199282883085</v>
       </c>
-      <c r="L43" s="1" t="n">
-        <v>167000</v>
-      </c>
+      <c r="L43" s="1" t="n"/>
       <c r="M43" s="1" t="n">
         <v>9350</v>
       </c>
       <c r="N43" s="1" t="n"/>
       <c r="O43" s="1" t="n">
-        <v>182181.1992828831</v>
+        <v>15181.19928288308</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>37575</v>
+        <v>23000</v>
       </c>
       <c r="Q43" s="1" t="n">
         <v>15700</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>37575</v>
+        <v>15700</v>
       </c>
       <c r="S43" s="8" t="n"/>
       <c r="T43" s="1">
@@ -4803,17 +4541,12 @@
         <f>U43-X43</f>
         <v/>
       </c>
-      <c r="Z43" s="1" t="n">
-        <v>141300</v>
-      </c>
+      <c r="Z43" s="1" t="n"/>
       <c r="AA43" s="1" t="n"/>
-      <c r="AB43" s="1">
-        <f>Z43+AA43</f>
-        <v/>
-      </c>
+      <c r="AB43" s="1" t="n"/>
       <c r="AC43" s="1" t="n"/>
       <c r="AD43" s="1" t="n">
-        <v>178875</v>
+        <v>15700</v>
       </c>
       <c r="AE43" s="1" t="n"/>
     </row>
@@ -4863,24 +4596,22 @@
       <c r="K44" s="1" t="n">
         <v>7.800879584080698</v>
       </c>
-      <c r="L44" s="1" t="n">
-        <v>16000</v>
-      </c>
+      <c r="L44" s="1" t="n"/>
       <c r="M44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N44" s="1" t="n"/>
       <c r="O44" s="1" t="n">
-        <v>16007.80087958408</v>
+        <v>7.800879584080698</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>0</v>
+        <v>11649</v>
       </c>
       <c r="Q44" s="1" t="n">
         <v>8300</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="S44" s="8" t="n"/>
       <c r="T44" s="1">
@@ -4902,14 +4633,9 @@
         <f>U44-X44</f>
         <v/>
       </c>
-      <c r="Z44" s="1" t="n">
-        <v>8300</v>
-      </c>
+      <c r="Z44" s="1" t="n"/>
       <c r="AA44" s="1" t="n"/>
-      <c r="AB44" s="1">
-        <f>Z44+AA44</f>
-        <v/>
-      </c>
+      <c r="AB44" s="1" t="n"/>
       <c r="AC44" s="1" t="n"/>
       <c r="AD44" s="1" t="n">
         <v>8300</v>
@@ -4962,15 +4688,13 @@
       <c r="K45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L45" s="1" t="n">
-        <v>72000</v>
-      </c>
+      <c r="L45" s="1" t="n"/>
       <c r="M45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N45" s="1" t="n"/>
       <c r="O45" s="1" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="P45" s="1" t="n">
         <v>0</v>
@@ -5001,18 +4725,11 @@
         <f>U45-X45</f>
         <v/>
       </c>
-      <c r="Z45" s="1" t="n">
-        <v>60600</v>
-      </c>
+      <c r="Z45" s="1" t="n"/>
       <c r="AA45" s="1" t="n"/>
-      <c r="AB45" s="1">
-        <f>Z45+AA45</f>
-        <v/>
-      </c>
+      <c r="AB45" s="1" t="n"/>
       <c r="AC45" s="1" t="n"/>
-      <c r="AD45" s="1" t="n">
-        <v>60600</v>
-      </c>
+      <c r="AD45" s="1" t="n"/>
       <c r="AE45" s="1" t="n"/>
     </row>
     <row r="46">
@@ -5061,15 +4778,13 @@
       <c r="K46" s="1" t="n">
         <v>730.8005828541053</v>
       </c>
-      <c r="L46" s="1" t="n">
-        <v>83000</v>
-      </c>
+      <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N46" s="1" t="n"/>
       <c r="O46" s="1" t="n">
-        <v>83730.80058285411</v>
+        <v>730.8005828541053</v>
       </c>
       <c r="P46" s="1" t="n">
         <v>24000</v>
@@ -5078,7 +4793,7 @@
         <v>15150</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>24000</v>
+        <v>15150</v>
       </c>
       <c r="S46" s="8" t="n"/>
       <c r="T46" s="1">
@@ -5100,17 +4815,12 @@
         <f>U46-X46</f>
         <v/>
       </c>
-      <c r="Z46" s="1" t="n">
-        <v>45450</v>
-      </c>
+      <c r="Z46" s="1" t="n"/>
       <c r="AA46" s="1" t="n"/>
-      <c r="AB46" s="1">
-        <f>Z46+AA46</f>
-        <v/>
-      </c>
+      <c r="AB46" s="1" t="n"/>
       <c r="AC46" s="1" t="n"/>
       <c r="AD46" s="1" t="n">
-        <v>69450</v>
+        <v>15150</v>
       </c>
       <c r="AE46" s="1" t="n"/>
     </row>
@@ -5160,24 +4870,22 @@
       <c r="K47" s="1" t="n">
         <v>9699.330006497426</v>
       </c>
-      <c r="L47" s="1" t="n">
-        <v>96000</v>
-      </c>
+      <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N47" s="1" t="n"/>
       <c r="O47" s="1" t="n">
-        <v>105699.3300064974</v>
+        <v>9699.330006497426</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>24000</v>
+        <v>23720</v>
       </c>
       <c r="Q47" s="1" t="n">
         <v>11033.33333333333</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>24000</v>
+        <v>22066.66666666667</v>
       </c>
       <c r="S47" s="8" t="n"/>
       <c r="T47" s="1">
@@ -5199,17 +4907,12 @@
         <f>U47-X47</f>
         <v/>
       </c>
-      <c r="Z47" s="1" t="n">
-        <v>77233.33333333334</v>
-      </c>
+      <c r="Z47" s="1" t="n"/>
       <c r="AA47" s="1" t="n"/>
-      <c r="AB47" s="1">
-        <f>Z47+AA47</f>
-        <v/>
-      </c>
+      <c r="AB47" s="1" t="n"/>
       <c r="AC47" s="1" t="n"/>
       <c r="AD47" s="1" t="n">
-        <v>101233.3333333333</v>
+        <v>22066.66666666667</v>
       </c>
       <c r="AE47" s="1" t="n"/>
     </row>
@@ -5259,24 +4962,22 @@
       <c r="K48" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L48" s="1" t="n">
-        <v>73000</v>
-      </c>
+      <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N48" s="1" t="n"/>
       <c r="O48" s="1" t="n">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>2115</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="1" t="n">
         <v>16200</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>2115</v>
+        <v>0</v>
       </c>
       <c r="S48" s="8" t="n"/>
       <c r="T48" s="1">
@@ -5298,18 +4999,11 @@
         <f>U48-X48</f>
         <v/>
       </c>
-      <c r="Z48" s="1" t="n">
-        <v>64800</v>
-      </c>
+      <c r="Z48" s="1" t="n"/>
       <c r="AA48" s="1" t="n"/>
-      <c r="AB48" s="1">
-        <f>Z48+AA48</f>
-        <v/>
-      </c>
+      <c r="AB48" s="1" t="n"/>
       <c r="AC48" s="1" t="n"/>
-      <c r="AD48" s="1" t="n">
-        <v>66915</v>
-      </c>
+      <c r="AD48" s="1" t="n"/>
       <c r="AE48" s="1" t="n"/>
     </row>
     <row r="49">
@@ -5358,24 +5052,22 @@
       <c r="K49" s="1" t="n">
         <v>8510.050455360761</v>
       </c>
-      <c r="L49" s="1" t="n">
-        <v>48000</v>
-      </c>
+      <c r="L49" s="1" t="n"/>
       <c r="M49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N49" s="1" t="n"/>
       <c r="O49" s="1" t="n">
-        <v>56510.05045536076</v>
+        <v>8510.050455360761</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="Q49" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="S49" s="8" t="n"/>
       <c r="T49" s="1">
@@ -5397,17 +5089,12 @@
         <f>U49-X49</f>
         <v/>
       </c>
-      <c r="Z49" s="1" t="n">
-        <v>48000</v>
-      </c>
+      <c r="Z49" s="1" t="n"/>
       <c r="AA49" s="1" t="n"/>
-      <c r="AB49" s="1">
-        <f>Z49+AA49</f>
-        <v/>
-      </c>
+      <c r="AB49" s="1" t="n"/>
       <c r="AC49" s="1" t="n"/>
       <c r="AD49" s="1" t="n">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="AE49" s="1" t="n"/>
     </row>
@@ -5457,15 +5144,13 @@
       <c r="K50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L50" s="1" t="n">
-        <v>13000</v>
-      </c>
+      <c r="L50" s="1" t="n"/>
       <c r="M50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N50" s="1" t="n"/>
       <c r="O50" s="1" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="P50" s="1" t="n">
         <v>20000</v>
@@ -5500,9 +5185,7 @@
       <c r="AA50" s="1" t="n"/>
       <c r="AB50" s="1" t="n"/>
       <c r="AC50" s="1" t="n"/>
-      <c r="AD50" s="1" t="n">
-        <v>12500</v>
-      </c>
+      <c r="AD50" s="1" t="n"/>
       <c r="AE50" s="1" t="n"/>
     </row>
     <row r="51">
@@ -5551,15 +5234,13 @@
       <c r="K51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L51" s="1" t="n">
-        <v>5000</v>
-      </c>
+      <c r="L51" s="1" t="n"/>
       <c r="M51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N51" s="1" t="n"/>
       <c r="O51" s="1" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="P51" s="1" t="n">
         <v>0</v>
@@ -5594,9 +5275,7 @@
       <c r="AA51" s="1" t="n"/>
       <c r="AB51" s="1" t="n"/>
       <c r="AC51" s="1" t="n"/>
-      <c r="AD51" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD51" s="1" t="n"/>
       <c r="AE51" s="1" t="n"/>
     </row>
     <row r="52">
@@ -5645,24 +5324,22 @@
       <c r="K52" s="1" t="n">
         <v>102120.6054643291</v>
       </c>
-      <c r="L52" s="1" t="n">
-        <v>863000</v>
-      </c>
+      <c r="L52" s="1" t="n"/>
       <c r="M52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N52" s="1" t="n"/>
       <c r="O52" s="1" t="n">
-        <v>965120.6054643291</v>
+        <v>102120.6054643291</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>118000</v>
+        <v>324000</v>
       </c>
       <c r="Q52" s="1" t="n">
         <v>19600</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>118000</v>
+        <v>313600</v>
       </c>
       <c r="S52" s="8" t="n"/>
       <c r="T52" s="1">
@@ -5684,19 +5361,14 @@
         <f>U52-X52</f>
         <v/>
       </c>
-      <c r="Z52" s="1" t="n">
-        <v>842800</v>
-      </c>
+      <c r="Z52" s="1" t="n"/>
       <c r="AA52" s="1" t="n"/>
-      <c r="AB52" s="1">
-        <f>Z52+AA52</f>
-        <v/>
-      </c>
+      <c r="AB52" s="1" t="n"/>
       <c r="AC52" s="1" t="n">
         <v>11011.61</v>
       </c>
       <c r="AD52" s="1" t="n">
-        <v>971811.61</v>
+        <v>324611.61</v>
       </c>
       <c r="AE52" s="1" t="n"/>
     </row>
@@ -5746,15 +5418,13 @@
       <c r="K53" s="1" t="n">
         <v>8510.050455360761</v>
       </c>
-      <c r="L53" s="1" t="n">
-        <v>24000</v>
-      </c>
+      <c r="L53" s="1" t="n"/>
       <c r="M53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N53" s="1" t="n"/>
       <c r="O53" s="1" t="n">
-        <v>32510.05045536076</v>
+        <v>8510.050455360761</v>
       </c>
       <c r="P53" s="1" t="n">
         <v>0</v>
@@ -5785,17 +5455,12 @@
         <f>U53-X53</f>
         <v/>
       </c>
-      <c r="Z53" s="1" t="n">
-        <v>24000</v>
-      </c>
+      <c r="Z53" s="1" t="n"/>
       <c r="AA53" s="1" t="n"/>
-      <c r="AB53" s="1">
-        <f>Z53+AA53</f>
-        <v/>
-      </c>
+      <c r="AB53" s="1" t="n"/>
       <c r="AC53" s="1" t="n"/>
       <c r="AD53" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="1" t="n"/>
     </row>
@@ -5845,24 +5510,22 @@
       <c r="K54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L54" s="1" t="n">
-        <v>1000</v>
-      </c>
+      <c r="L54" s="1" t="n"/>
       <c r="M54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N54" s="1" t="n"/>
       <c r="O54" s="1" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="1" t="n">
         <v>2600</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="S54" s="8" t="n"/>
       <c r="T54" s="1">
@@ -5888,9 +5551,7 @@
       <c r="AA54" s="1" t="n"/>
       <c r="AB54" s="1" t="n"/>
       <c r="AC54" s="1" t="n"/>
-      <c r="AD54" s="1" t="n">
-        <v>2600</v>
-      </c>
+      <c r="AD54" s="1" t="n"/>
       <c r="AE54" s="1" t="n"/>
     </row>
     <row r="55">
@@ -5939,24 +5600,22 @@
       <c r="K55" s="1" t="n">
         <v>106.3756306920095</v>
       </c>
-      <c r="L55" s="1" t="n">
-        <v>600</v>
-      </c>
+      <c r="L55" s="1" t="n"/>
       <c r="M55" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N55" s="1" t="n"/>
       <c r="O55" s="1" t="n">
-        <v>706.3756306920095</v>
+        <v>106.3756306920095</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>2704</v>
+        <v>10140</v>
       </c>
       <c r="Q55" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="S55" s="8" t="n"/>
       <c r="T55" s="1">
@@ -5983,7 +5642,7 @@
       <c r="AB55" s="1" t="n"/>
       <c r="AC55" s="1" t="n"/>
       <c r="AD55" s="1" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="AE55" s="1" t="n"/>
     </row>
@@ -6033,15 +5692,13 @@
       <c r="K56" s="1" t="n">
         <v>354.5854356400317</v>
       </c>
-      <c r="L56" s="1" t="n">
-        <v>6564</v>
-      </c>
+      <c r="L56" s="1" t="n"/>
       <c r="M56" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N56" s="1" t="n"/>
       <c r="O56" s="1" t="n">
-        <v>6918.585435640031</v>
+        <v>354.5854356400317</v>
       </c>
       <c r="P56" s="1" t="n">
         <v>0</v>
@@ -6062,12 +5719,11 @@
         <v/>
       </c>
       <c r="V56" s="1" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="W56" s="8" t="n"/>
-      <c r="X56" s="1">
-        <f>V56+W56</f>
-        <v/>
+      <c r="X56" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
         <f>U56-X56</f>
@@ -6078,7 +5734,7 @@
       <c r="AB56" s="1" t="n"/>
       <c r="AC56" s="1" t="n"/>
       <c r="AD56" s="1" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="1" t="n"/>
     </row>
@@ -6128,24 +5784,22 @@
       <c r="K57" s="1" t="n">
         <v>21374.05547494547</v>
       </c>
-      <c r="L57" s="1" t="n">
-        <v>192000</v>
-      </c>
+      <c r="L57" s="1" t="n"/>
       <c r="M57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N57" s="1" t="n"/>
       <c r="O57" s="1" t="n">
-        <v>213374.0554749455</v>
+        <v>21374.05547494547</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="Q57" s="1" t="n">
         <v>12200</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="S57" s="8" t="n"/>
       <c r="T57" s="1">
@@ -6167,17 +5821,12 @@
         <f>U57-X57</f>
         <v/>
       </c>
-      <c r="Z57" s="1" t="n">
-        <v>170800</v>
-      </c>
+      <c r="Z57" s="1" t="n"/>
       <c r="AA57" s="1" t="n"/>
-      <c r="AB57" s="1">
-        <f>Z57+AA57</f>
-        <v/>
-      </c>
+      <c r="AB57" s="1" t="n"/>
       <c r="AC57" s="1" t="n"/>
       <c r="AD57" s="1" t="n">
-        <v>207800</v>
+        <v>19000</v>
       </c>
       <c r="AE57" s="1" t="n"/>
     </row>
@@ -6227,24 +5876,22 @@
       <c r="K58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L58" s="1" t="n">
-        <v>23000</v>
-      </c>
+      <c r="L58" s="1" t="n"/>
       <c r="M58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N58" s="1" t="n"/>
       <c r="O58" s="1" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>17900</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1" t="n">
         <v>19850</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>17900</v>
+        <v>0</v>
       </c>
       <c r="S58" s="8" t="n"/>
       <c r="T58" s="1">
@@ -6270,9 +5917,7 @@
       <c r="AA58" s="1" t="n"/>
       <c r="AB58" s="1" t="n"/>
       <c r="AC58" s="1" t="n"/>
-      <c r="AD58" s="1" t="n">
-        <v>17900</v>
-      </c>
+      <c r="AD58" s="1" t="n"/>
       <c r="AE58" s="1" t="n"/>
     </row>
     <row r="59">
@@ -6321,24 +5966,22 @@
       <c r="K59" s="1" t="n">
         <v>8687.343173180776</v>
       </c>
-      <c r="L59" s="1" t="n">
-        <v>94500</v>
-      </c>
+      <c r="L59" s="1" t="n"/>
       <c r="M59" s="1" t="n">
         <v>6200</v>
       </c>
       <c r="N59" s="1" t="n"/>
       <c r="O59" s="1" t="n">
-        <v>108767.3431731808</v>
+        <v>14267.34317318078</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>1000</v>
+        <v>46500</v>
       </c>
       <c r="Q59" s="1" t="n">
         <v>22800</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>1000</v>
+        <v>45600</v>
       </c>
       <c r="S59" s="8" t="n"/>
       <c r="T59" s="1">
@@ -6360,19 +6003,14 @@
         <f>U59-X59</f>
         <v/>
       </c>
-      <c r="Z59" s="1" t="n">
-        <v>91200</v>
-      </c>
+      <c r="Z59" s="1" t="n"/>
       <c r="AA59" s="1" t="n"/>
-      <c r="AB59" s="1">
-        <f>Z59+AA59</f>
-        <v/>
-      </c>
+      <c r="AB59" s="1" t="n"/>
       <c r="AC59" s="1" t="n">
         <v>22500.02</v>
       </c>
       <c r="AD59" s="1" t="n">
-        <v>114700.02</v>
+        <v>68100.02</v>
       </c>
       <c r="AE59" s="1" t="n"/>
     </row>
@@ -6422,24 +6060,22 @@
       <c r="K60" s="1" t="n">
         <v>59673.7015791395</v>
       </c>
-      <c r="L60" s="1" t="n">
-        <v>1012382</v>
-      </c>
+      <c r="L60" s="1" t="n"/>
       <c r="M60" s="1" t="n">
         <v>38599</v>
       </c>
       <c r="N60" s="1" t="n"/>
       <c r="O60" s="1" t="n">
-        <v>1108724.75157914</v>
+        <v>96342.7515791395</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>89000</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="1" t="n">
         <v>19800</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>89000</v>
+        <v>0</v>
       </c>
       <c r="S60" s="8" t="n"/>
       <c r="T60" s="1">
@@ -6462,7 +6098,7 @@
         <v/>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>1009800</v>
+        <v>79200</v>
       </c>
       <c r="AA60" s="1" t="n"/>
       <c r="AB60" s="1">
@@ -6473,7 +6109,7 @@
         <v>24000</v>
       </c>
       <c r="AD60" s="1" t="n">
-        <v>1122800</v>
+        <v>103200</v>
       </c>
       <c r="AE60" s="1" t="n"/>
     </row>
@@ -6523,24 +6159,22 @@
       <c r="K61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L61" s="1" t="n">
-        <v>189350</v>
-      </c>
+      <c r="L61" s="1" t="n"/>
       <c r="M61" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N61" s="1" t="n"/>
       <c r="O61" s="1" t="n">
-        <v>189350</v>
+        <v>0</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>24000</v>
+        <v>82000</v>
       </c>
       <c r="Q61" s="1" t="n">
         <v>21500</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>24000</v>
+        <v>64500</v>
       </c>
       <c r="S61" s="8" t="n"/>
       <c r="T61" s="1">
@@ -6562,18 +6196,11 @@
         <f>U61-X61</f>
         <v/>
       </c>
-      <c r="Z61" s="1" t="n">
-        <v>150500</v>
-      </c>
+      <c r="Z61" s="1" t="n"/>
       <c r="AA61" s="1" t="n"/>
-      <c r="AB61" s="1">
-        <f>Z61+AA61</f>
-        <v/>
-      </c>
+      <c r="AB61" s="1" t="n"/>
       <c r="AC61" s="1" t="n"/>
-      <c r="AD61" s="1" t="n">
-        <v>174500</v>
-      </c>
+      <c r="AD61" s="1" t="n"/>
       <c r="AE61" s="1" t="n"/>
     </row>
     <row r="62">
@@ -6622,15 +6249,13 @@
       <c r="K62" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L62" s="1" t="n">
-        <v>31785</v>
-      </c>
+      <c r="L62" s="1" t="n"/>
       <c r="M62" s="1" t="n">
         <v>2470</v>
       </c>
       <c r="N62" s="1" t="n"/>
       <c r="O62" s="1" t="n">
-        <v>34131.5</v>
+        <v>2346.5</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>24000</v>
@@ -6639,7 +6264,7 @@
         <v>16000</v>
       </c>
       <c r="R62" s="1" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="S62" s="8" t="n"/>
       <c r="T62" s="1">
@@ -6666,7 +6291,7 @@
       <c r="AB62" s="1" t="n"/>
       <c r="AC62" s="1" t="n"/>
       <c r="AD62" s="1" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="AE62" s="1" t="n"/>
     </row>
@@ -6716,24 +6341,22 @@
       <c r="K63" s="1" t="n">
         <v>288590.7944712656</v>
       </c>
-      <c r="L63" s="1" t="n">
-        <v>5683569</v>
-      </c>
+      <c r="L63" s="1" t="n"/>
       <c r="M63" s="1" t="n">
         <v>25000</v>
       </c>
       <c r="N63" s="1" t="n"/>
       <c r="O63" s="1" t="n">
-        <v>5995909.794471266</v>
+        <v>312340.7944712656</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>312000</v>
+        <v>384000</v>
       </c>
       <c r="Q63" s="1" t="n">
         <v>23966.66666666667</v>
       </c>
       <c r="R63" s="1" t="n">
-        <v>312000</v>
+        <v>383466.6666666667</v>
       </c>
       <c r="S63" s="8" t="n"/>
       <c r="T63" s="1">
@@ -6755,19 +6378,14 @@
         <f>U63-X63</f>
         <v/>
       </c>
-      <c r="Z63" s="1" t="n">
-        <v>5680100</v>
-      </c>
+      <c r="Z63" s="1" t="n"/>
       <c r="AA63" s="1" t="n"/>
-      <c r="AB63" s="1">
-        <f>Z63+AA63</f>
-        <v/>
-      </c>
+      <c r="AB63" s="1" t="n"/>
       <c r="AC63" s="1" t="n">
         <v>311848.7</v>
       </c>
       <c r="AD63" s="1" t="n">
-        <v>6303948.7</v>
+        <v>695315.3666666667</v>
       </c>
       <c r="AE63" s="1" t="n"/>
     </row>
@@ -6817,24 +6435,22 @@
       <c r="K64" s="1" t="n">
         <v>115121.4867795668</v>
       </c>
-      <c r="L64" s="1" t="n">
-        <v>1610807</v>
-      </c>
+      <c r="L64" s="1" t="n"/>
       <c r="M64" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N64" s="1" t="n"/>
       <c r="O64" s="1" t="n">
-        <v>1725928.486779567</v>
+        <v>115121.4867795668</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>72000</v>
+        <v>288000</v>
       </c>
       <c r="Q64" s="1" t="n">
         <v>23500</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>72000</v>
+        <v>282000</v>
       </c>
       <c r="S64" s="8" t="n"/>
       <c r="T64" s="1">
@@ -6856,17 +6472,12 @@
         <f>U64-X64</f>
         <v/>
       </c>
-      <c r="Z64" s="1" t="n">
-        <v>1645000</v>
-      </c>
+      <c r="Z64" s="1" t="n"/>
       <c r="AA64" s="1" t="n"/>
-      <c r="AB64" s="1">
-        <f>Z64+AA64</f>
-        <v/>
-      </c>
+      <c r="AB64" s="1" t="n"/>
       <c r="AC64" s="1" t="n"/>
       <c r="AD64" s="1" t="n">
-        <v>1717000</v>
+        <v>282000</v>
       </c>
       <c r="AE64" s="1" t="n"/>
     </row>
@@ -6916,24 +6527,22 @@
       <c r="K65" s="1" t="n">
         <v>19814.20514253256</v>
       </c>
-      <c r="L65" s="1" t="n">
-        <v>270000</v>
-      </c>
+      <c r="L65" s="1" t="n"/>
       <c r="M65" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N65" s="1" t="n"/>
       <c r="O65" s="1" t="n">
-        <v>289814.2051425325</v>
+        <v>19814.20514253256</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="1" t="n">
         <v>22000</v>
       </c>
       <c r="R65" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="S65" s="8" t="n"/>
       <c r="T65" s="1">
@@ -6955,17 +6564,12 @@
         <f>U65-X65</f>
         <v/>
       </c>
-      <c r="Z65" s="1" t="n">
-        <v>220000</v>
-      </c>
+      <c r="Z65" s="1" t="n"/>
       <c r="AA65" s="1" t="n"/>
-      <c r="AB65" s="1">
-        <f>Z65+AA65</f>
-        <v/>
-      </c>
+      <c r="AB65" s="1" t="n"/>
       <c r="AC65" s="1" t="n"/>
       <c r="AD65" s="1" t="n">
-        <v>268000</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="1" t="n"/>
     </row>
@@ -7015,24 +6619,22 @@
       <c r="K66" s="1" t="n">
         <v>9784.397734600476</v>
       </c>
-      <c r="L66" s="1" t="n">
-        <v>246802</v>
-      </c>
+      <c r="L66" s="1" t="n"/>
       <c r="M66" s="1" t="n">
         <v>600</v>
       </c>
       <c r="N66" s="1" t="n"/>
       <c r="O66" s="1" t="n">
-        <v>257156.3977346005</v>
+        <v>10354.39773460048</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="Q66" s="1" t="n">
         <v>20100</v>
       </c>
       <c r="R66" s="1" t="n">
-        <v>48000</v>
+        <v>20100</v>
       </c>
       <c r="S66" s="8" t="n"/>
       <c r="T66" s="1">
@@ -7054,17 +6656,12 @@
         <f>U66-X66</f>
         <v/>
       </c>
-      <c r="Z66" s="1" t="n">
-        <v>201000</v>
-      </c>
+      <c r="Z66" s="1" t="n"/>
       <c r="AA66" s="1" t="n"/>
-      <c r="AB66" s="1">
-        <f>Z66+AA66</f>
-        <v/>
-      </c>
+      <c r="AB66" s="1" t="n"/>
       <c r="AC66" s="1" t="n"/>
       <c r="AD66" s="1" t="n">
-        <v>249000</v>
+        <v>20100</v>
       </c>
       <c r="AE66" s="1" t="n"/>
     </row>
@@ -7114,15 +6711,13 @@
       <c r="K67" s="1" t="n">
         <v>7951.464396234633</v>
       </c>
-      <c r="L67" s="1" t="n">
-        <v>538890</v>
-      </c>
+      <c r="L67" s="1" t="n"/>
       <c r="M67" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N67" s="1" t="n"/>
       <c r="O67" s="1" t="n">
-        <v>546841.4643962346</v>
+        <v>7951.464396234633</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>0</v>
@@ -7153,17 +6748,12 @@
         <f>U67-X67</f>
         <v/>
       </c>
-      <c r="Z67" s="1" t="n">
-        <v>538200</v>
-      </c>
+      <c r="Z67" s="1" t="n"/>
       <c r="AA67" s="1" t="n"/>
-      <c r="AB67" s="1">
-        <f>Z67+AA67</f>
-        <v/>
-      </c>
+      <c r="AB67" s="1" t="n"/>
       <c r="AC67" s="1" t="n"/>
       <c r="AD67" s="1" t="n">
-        <v>538200</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="1" t="n"/>
     </row>
@@ -7213,9 +6803,7 @@
       <c r="K68" s="1" t="n">
         <v>186.2057832671734</v>
       </c>
-      <c r="L68" s="1" t="n">
-        <v>265457</v>
-      </c>
+      <c r="L68" s="1" t="n"/>
       <c r="M68" s="9" t="n">
         <v>0</v>
       </c>
@@ -7223,16 +6811,16 @@
         <v>24000</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>241643.2057832672</v>
+        <v>-23813.79421673283</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>57000</v>
+        <v>70000</v>
       </c>
       <c r="Q68" s="1" t="n">
         <v>15416.66666666667</v>
       </c>
       <c r="R68" s="1" t="n">
-        <v>57000</v>
+        <v>61666.66666666666</v>
       </c>
       <c r="S68" s="8" t="n"/>
       <c r="T68" s="1">
@@ -7254,18 +6842,11 @@
         <f>U68-X68</f>
         <v/>
       </c>
-      <c r="Z68" s="1" t="n">
-        <v>169583.3333333333</v>
-      </c>
+      <c r="Z68" s="1" t="n"/>
       <c r="AA68" s="1" t="n"/>
-      <c r="AB68" s="1">
-        <f>Z68+AA68</f>
-        <v/>
-      </c>
+      <c r="AB68" s="1" t="n"/>
       <c r="AC68" s="1" t="n"/>
-      <c r="AD68" s="1" t="n">
-        <v>226583.3333333333</v>
-      </c>
+      <c r="AD68" s="1" t="n"/>
       <c r="AE68" s="1" t="n"/>
     </row>
     <row r="69">
@@ -7314,15 +6895,13 @@
       <c r="K69" s="1" t="n">
         <v>114588.1743182606</v>
       </c>
-      <c r="L69" s="1" t="n">
-        <v>316609</v>
-      </c>
+      <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n">
         <v>45000</v>
       </c>
       <c r="N69" s="1" t="n"/>
       <c r="O69" s="1" t="n">
-        <v>473947.1743182606</v>
+        <v>157338.1743182606</v>
       </c>
       <c r="P69" s="1" t="n">
         <v>120000</v>
@@ -7354,7 +6933,7 @@
         <v/>
       </c>
       <c r="Z69" s="1" t="n">
-        <v>338250</v>
+        <v>22550</v>
       </c>
       <c r="AA69" s="1" t="n"/>
       <c r="AB69" s="1">
@@ -7365,7 +6944,7 @@
         <v>52002.50999999999</v>
       </c>
       <c r="AD69" s="1" t="n">
-        <v>510252.51</v>
+        <v>194552.51</v>
       </c>
       <c r="AE69" s="1" t="n"/>
     </row>
@@ -7415,24 +6994,22 @@
       <c r="K70" s="1" t="n">
         <v>91670.53945460847</v>
       </c>
-      <c r="L70" s="1" t="n">
-        <v>2504980</v>
-      </c>
+      <c r="L70" s="1" t="n"/>
       <c r="M70" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N70" s="1" t="n"/>
       <c r="O70" s="1" t="n">
-        <v>2596650.539454609</v>
+        <v>91670.53945460847</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>24000</v>
+        <v>227900</v>
       </c>
       <c r="Q70" s="1" t="n">
         <v>23366.66666666667</v>
       </c>
       <c r="R70" s="1" t="n">
-        <v>24000</v>
+        <v>210300</v>
       </c>
       <c r="S70" s="8" t="n"/>
       <c r="T70" s="1">
@@ -7454,19 +7031,14 @@
         <f>U70-X70</f>
         <v/>
       </c>
-      <c r="Z70" s="1" t="n">
-        <v>2570333.333333333</v>
-      </c>
+      <c r="Z70" s="1" t="n"/>
       <c r="AA70" s="1" t="n"/>
-      <c r="AB70" s="1">
-        <f>Z70+AA70</f>
-        <v/>
-      </c>
+      <c r="AB70" s="1" t="n"/>
       <c r="AC70" s="1" t="n">
         <v>22590.38</v>
       </c>
       <c r="AD70" s="1" t="n">
-        <v>2616923.713333333</v>
+        <v>232890.38</v>
       </c>
       <c r="AE70" s="1" t="n"/>
     </row>
@@ -7516,24 +7088,22 @@
       <c r="K71" s="1" t="n">
         <v>35531.40560246097</v>
       </c>
-      <c r="L71" s="1" t="n">
-        <v>391100</v>
-      </c>
+      <c r="L71" s="1" t="n"/>
       <c r="M71" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="N71" s="1" t="n"/>
       <c r="O71" s="1" t="n">
-        <v>429481.405602461</v>
+        <v>38381.40560246097</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="1" t="n">
         <v>21300</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="S71" s="8" t="n"/>
       <c r="T71" s="1">
@@ -7556,7 +7126,7 @@
         <v/>
       </c>
       <c r="Z71" s="1" t="n">
-        <v>404700</v>
+        <v>21300</v>
       </c>
       <c r="AA71" s="1" t="n"/>
       <c r="AB71" s="1">
@@ -7567,7 +7137,7 @@
         <v>23982.75</v>
       </c>
       <c r="AD71" s="1" t="n">
-        <v>452682.75</v>
+        <v>45282.75</v>
       </c>
       <c r="AE71" s="1" t="n"/>
     </row>
@@ -7615,24 +7185,22 @@
       <c r="K72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L72" s="1" t="n">
-        <v>95966</v>
-      </c>
+      <c r="L72" s="1" t="n"/>
       <c r="M72" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N72" s="1" t="n"/>
       <c r="O72" s="1" t="n">
-        <v>95966</v>
+        <v>0</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>18205</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="1" t="n">
         <v>9300</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>18205</v>
+        <v>0</v>
       </c>
       <c r="S72" s="8" t="n"/>
       <c r="T72" s="1">
@@ -7654,18 +7222,11 @@
         <f>U72-X72</f>
         <v/>
       </c>
-      <c r="Z72" s="1" t="n">
-        <v>74400</v>
-      </c>
+      <c r="Z72" s="1" t="n"/>
       <c r="AA72" s="1" t="n"/>
-      <c r="AB72" s="1">
-        <f>Z72+AA72</f>
-        <v/>
-      </c>
+      <c r="AB72" s="1" t="n"/>
       <c r="AC72" s="1" t="n"/>
-      <c r="AD72" s="1" t="n">
-        <v>92605</v>
-      </c>
+      <c r="AD72" s="1" t="n"/>
       <c r="AE72" s="1" t="n"/>
     </row>
     <row r="73">
@@ -7714,24 +7275,22 @@
       <c r="K73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L73" s="1" t="n">
-        <v>28697</v>
-      </c>
+      <c r="L73" s="1" t="n"/>
       <c r="M73" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N73" s="1" t="n"/>
       <c r="O73" s="1" t="n">
-        <v>28697</v>
+        <v>0</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="Q73" s="1" t="n">
         <v>17800</v>
       </c>
       <c r="R73" s="1" t="n">
-        <v>12000</v>
+        <v>17800</v>
       </c>
       <c r="S73" s="8" t="n"/>
       <c r="T73" s="1">
@@ -7757,9 +7316,7 @@
       <c r="AA73" s="1" t="n"/>
       <c r="AB73" s="1" t="n"/>
       <c r="AC73" s="1" t="n"/>
-      <c r="AD73" s="1" t="n">
-        <v>12000</v>
-      </c>
+      <c r="AD73" s="1" t="n"/>
       <c r="AE73" s="1" t="n"/>
     </row>
     <row r="74">
@@ -7808,24 +7365,22 @@
       <c r="K74" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L74" s="1" t="n">
-        <v>72000</v>
-      </c>
+      <c r="L74" s="1" t="n"/>
       <c r="M74" s="1" t="n">
         <v>471</v>
       </c>
       <c r="N74" s="1" t="n"/>
       <c r="O74" s="1" t="n">
-        <v>72423.89999999999</v>
+        <v>423.9</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>48000</v>
+        <v>7118</v>
       </c>
       <c r="Q74" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R74" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="S74" s="8" t="n"/>
       <c r="T74" s="1">
@@ -7847,17 +7402,12 @@
         <f>U74-X74</f>
         <v/>
       </c>
-      <c r="Z74" s="1" t="n">
-        <v>24000</v>
-      </c>
+      <c r="Z74" s="1" t="n"/>
       <c r="AA74" s="1" t="n"/>
-      <c r="AB74" s="1">
-        <f>Z74+AA74</f>
-        <v/>
-      </c>
+      <c r="AB74" s="1" t="n"/>
       <c r="AC74" s="1" t="n"/>
       <c r="AD74" s="1" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="1" t="n"/>
     </row>
@@ -7907,24 +7457,22 @@
       <c r="K75" s="1" t="n">
         <v>191.8307206812572</v>
       </c>
-      <c r="L75" s="1" t="n">
-        <v>24000</v>
-      </c>
+      <c r="L75" s="1" t="n"/>
       <c r="M75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N75" s="1" t="n"/>
       <c r="O75" s="1" t="n">
-        <v>24191.83072068126</v>
+        <v>191.8307206812572</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R75" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="S75" s="8" t="n"/>
       <c r="T75" s="1">
@@ -7951,7 +7499,7 @@
       <c r="AB75" s="1" t="n"/>
       <c r="AC75" s="1" t="n"/>
       <c r="AD75" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="AE75" s="1" t="n"/>
     </row>
@@ -8001,24 +7549,22 @@
       <c r="K76" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L76" s="1" t="n">
-        <v>6560</v>
-      </c>
+      <c r="L76" s="1" t="n"/>
       <c r="M76" s="1" t="n">
         <v>2300</v>
       </c>
       <c r="N76" s="1" t="n"/>
       <c r="O76" s="1" t="n">
-        <v>8745</v>
+        <v>2185</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>4760</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1" t="n">
         <v>4700</v>
       </c>
       <c r="R76" s="1" t="n">
-        <v>4760</v>
+        <v>0</v>
       </c>
       <c r="S76" s="8" t="n"/>
       <c r="T76" s="1">
@@ -8045,7 +7591,7 @@
       <c r="AB76" s="1" t="n"/>
       <c r="AC76" s="1" t="n"/>
       <c r="AD76" s="1" t="n">
-        <v>4760</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="1" t="n"/>
     </row>
@@ -8095,24 +7641,22 @@
       <c r="K77" s="1" t="n">
         <v>37627.89725924889</v>
       </c>
-      <c r="L77" s="1" t="n">
-        <v>72000</v>
-      </c>
+      <c r="L77" s="1" t="n"/>
       <c r="M77" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N77" s="1" t="n"/>
       <c r="O77" s="1" t="n">
-        <v>109627.8972592489</v>
+        <v>37627.89725924889</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="Q77" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R77" s="1" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="S77" s="8" t="n"/>
       <c r="T77" s="1">
@@ -8134,17 +7678,12 @@
         <f>U77-X77</f>
         <v/>
       </c>
-      <c r="Z77" s="1" t="n">
-        <v>72000</v>
-      </c>
+      <c r="Z77" s="1" t="n"/>
       <c r="AA77" s="1" t="n"/>
-      <c r="AB77" s="1">
-        <f>Z77+AA77</f>
-        <v/>
-      </c>
+      <c r="AB77" s="1" t="n"/>
       <c r="AC77" s="1" t="n"/>
       <c r="AD77" s="1" t="n">
-        <v>96000</v>
+        <v>48000</v>
       </c>
       <c r="AE77" s="1" t="n"/>
     </row>
@@ -8194,24 +7733,22 @@
       <c r="K78" s="1" t="n">
         <v>308.1347435711875</v>
       </c>
-      <c r="L78" s="1" t="n">
-        <v>24000</v>
-      </c>
+      <c r="L78" s="1" t="n"/>
       <c r="M78" s="1" t="n">
         <v>9064.5</v>
       </c>
       <c r="N78" s="1" t="n"/>
       <c r="O78" s="1" t="n">
-        <v>32466.18474357119</v>
+        <v>8466.184743571188</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R78" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="S78" s="8" t="n"/>
       <c r="T78" s="1">
@@ -8238,7 +7775,7 @@
       <c r="AB78" s="1" t="n"/>
       <c r="AC78" s="1" t="n"/>
       <c r="AD78" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="1" t="n"/>
     </row>
@@ -8288,9 +7825,7 @@
       <c r="K79" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L79" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n">
         <v>0</v>
       </c>
@@ -8299,13 +7834,13 @@
         <v>0</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q79" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R79" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="S79" s="8" t="n"/>
       <c r="T79" s="1">
@@ -8391,13 +7926,13 @@
         <v>48.114</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="1" t="n">
         <v>50</v>
       </c>
       <c r="R80" s="1" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="S80" s="8" t="n"/>
       <c r="T80" s="1">
@@ -8424,7 +7959,7 @@
       <c r="AB80" s="1" t="n"/>
       <c r="AC80" s="1" t="n"/>
       <c r="AD80" s="1" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="1" t="n"/>
     </row>
@@ -8485,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="1" t="n">
         <v>50</v>
@@ -8577,13 +8112,13 @@
         <v>53508.87733145869</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>72000</v>
+        <v>177000</v>
       </c>
       <c r="Q82" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R82" s="1" t="n">
-        <v>72000</v>
+        <v>168000</v>
       </c>
       <c r="S82" s="8" t="n"/>
       <c r="T82" s="1">
@@ -8610,7 +8145,7 @@
       <c r="AB82" s="1" t="n"/>
       <c r="AC82" s="1" t="n"/>
       <c r="AD82" s="1" t="n">
-        <v>72000</v>
+        <v>168000</v>
       </c>
       <c r="AE82" s="1" t="n"/>
     </row>
@@ -8942,24 +8477,22 @@
       <c r="K86" s="1" t="n">
         <v>22185.80021941191</v>
       </c>
-      <c r="L86" s="1" t="n">
-        <v>936766</v>
-      </c>
+      <c r="L86" s="1" t="n"/>
       <c r="M86" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N86" s="1" t="n"/>
       <c r="O86" s="1" t="n">
-        <v>958951.800219412</v>
+        <v>22185.80021941191</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>44000</v>
+        <v>66000</v>
       </c>
       <c r="Q86" s="1" t="n">
         <v>19300</v>
       </c>
       <c r="R86" s="1" t="n">
-        <v>44000</v>
+        <v>57900</v>
       </c>
       <c r="S86" s="8" t="n"/>
       <c r="T86" s="1">
@@ -8981,19 +8514,14 @@
         <f>U86-X86</f>
         <v/>
       </c>
-      <c r="Z86" s="1" t="n">
-        <v>907100</v>
-      </c>
+      <c r="Z86" s="1" t="n"/>
       <c r="AA86" s="1" t="n"/>
-      <c r="AB86" s="1">
-        <f>Z86+AA86</f>
-        <v/>
-      </c>
+      <c r="AB86" s="1" t="n"/>
       <c r="AC86" s="1" t="n">
         <v>22009.75</v>
       </c>
       <c r="AD86" s="1" t="n">
-        <v>973109.75</v>
+        <v>79909.75</v>
       </c>
       <c r="AE86" s="1" t="n"/>
     </row>
@@ -9043,24 +8571,22 @@
       <c r="K87" s="1" t="n">
         <v>48872.93889578606</v>
       </c>
-      <c r="L87" s="1" t="n">
-        <v>770000</v>
-      </c>
+      <c r="L87" s="1" t="n"/>
       <c r="M87" s="1" t="n">
         <v>8669.078570795817</v>
       </c>
       <c r="N87" s="1" t="n"/>
       <c r="O87" s="1" t="n">
-        <v>826675.1096095023</v>
+        <v>56675.1096095023</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>100000</v>
+        <v>66000</v>
       </c>
       <c r="Q87" s="1" t="n">
         <v>19100</v>
       </c>
       <c r="R87" s="1" t="n">
-        <v>100000</v>
+        <v>57300</v>
       </c>
       <c r="S87" s="8" t="n"/>
       <c r="T87" s="1">
@@ -9082,19 +8608,14 @@
         <f>U87-X87</f>
         <v/>
       </c>
-      <c r="Z87" s="1" t="n">
-        <v>725800</v>
-      </c>
+      <c r="Z87" s="1" t="n"/>
       <c r="AA87" s="1" t="n"/>
-      <c r="AB87" s="1">
-        <f>Z87+AA87</f>
-        <v/>
-      </c>
+      <c r="AB87" s="1" t="n"/>
       <c r="AC87" s="1" t="n">
         <v>22010.87</v>
       </c>
       <c r="AD87" s="1" t="n">
-        <v>847810.87</v>
+        <v>79310.87</v>
       </c>
       <c r="AE87" s="1" t="n"/>
     </row>
@@ -9144,24 +8665,22 @@
       <c r="K88" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L88" s="1" t="n">
-        <v>264000</v>
-      </c>
+      <c r="L88" s="1" t="n"/>
       <c r="M88" s="1" t="n">
         <v>9696.427798149847</v>
       </c>
       <c r="N88" s="1" t="n"/>
       <c r="O88" s="1" t="n">
-        <v>272726.7850183349</v>
+        <v>8726.785018334862</v>
       </c>
       <c r="P88" s="1" t="n">
-        <v>66000</v>
+        <v>110000</v>
       </c>
       <c r="Q88" s="1" t="n">
         <v>22000</v>
       </c>
       <c r="R88" s="1" t="n">
-        <v>66000</v>
+        <v>110000</v>
       </c>
       <c r="S88" s="8" t="n"/>
       <c r="T88" s="1">
@@ -9183,19 +8702,14 @@
         <f>U88-X88</f>
         <v/>
       </c>
-      <c r="Z88" s="1" t="n">
-        <v>198000</v>
-      </c>
+      <c r="Z88" s="1" t="n"/>
       <c r="AA88" s="1" t="n"/>
-      <c r="AB88" s="1">
-        <f>Z88+AA88</f>
-        <v/>
-      </c>
+      <c r="AB88" s="1" t="n"/>
       <c r="AC88" s="1" t="n">
         <v>22012.3</v>
       </c>
       <c r="AD88" s="1" t="n">
-        <v>286012.3</v>
+        <v>132012.3</v>
       </c>
       <c r="AE88" s="1" t="n"/>
     </row>
@@ -9245,24 +8759,22 @@
       <c r="K89" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L89" s="1" t="n">
-        <v>176000</v>
-      </c>
+      <c r="L89" s="1" t="n"/>
       <c r="M89" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N89" s="1" t="n"/>
       <c r="O89" s="1" t="n">
-        <v>176000</v>
+        <v>0</v>
       </c>
       <c r="P89" s="1" t="n">
-        <v>44000</v>
+        <v>66000</v>
       </c>
       <c r="Q89" s="1" t="n">
         <v>22000</v>
       </c>
       <c r="R89" s="1" t="n">
-        <v>44000</v>
+        <v>66000</v>
       </c>
       <c r="S89" s="8" t="n"/>
       <c r="T89" s="1">
@@ -9284,20 +8796,13 @@
         <f>U89-X89</f>
         <v/>
       </c>
-      <c r="Z89" s="1" t="n">
-        <v>132000</v>
-      </c>
+      <c r="Z89" s="1" t="n"/>
       <c r="AA89" s="1" t="n"/>
-      <c r="AB89" s="1">
-        <f>Z89+AA89</f>
-        <v/>
-      </c>
+      <c r="AB89" s="1" t="n"/>
       <c r="AC89" s="1" t="n">
         <v>22010.02</v>
       </c>
-      <c r="AD89" s="1" t="n">
-        <v>198010.02</v>
-      </c>
+      <c r="AD89" s="1" t="n"/>
       <c r="AE89" s="1" t="n"/>
     </row>
     <row r="90">
@@ -9346,24 +8851,22 @@
       <c r="K90" s="1" t="n">
         <v>55699.39815755409</v>
       </c>
-      <c r="L90" s="1" t="n">
-        <v>737812</v>
-      </c>
+      <c r="L90" s="1" t="n"/>
       <c r="M90" s="1" t="n">
         <v>23256.79237396258</v>
       </c>
       <c r="N90" s="1" t="n"/>
       <c r="O90" s="1" t="n">
-        <v>814442.5112941205</v>
+        <v>76630.51129412041</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="Q90" s="1" t="n">
         <v>20600</v>
       </c>
       <c r="R90" s="1" t="n">
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="S90" s="8" t="n"/>
       <c r="T90" s="1">
@@ -9385,19 +8888,14 @@
         <f>U90-X90</f>
         <v/>
       </c>
-      <c r="Z90" s="1" t="n">
-        <v>803400</v>
-      </c>
+      <c r="Z90" s="1" t="n"/>
       <c r="AA90" s="1" t="n"/>
-      <c r="AB90" s="1">
-        <f>Z90+AA90</f>
-        <v/>
-      </c>
+      <c r="AB90" s="1" t="n"/>
       <c r="AC90" s="1" t="n">
         <v>66222.06</v>
       </c>
       <c r="AD90" s="1" t="n">
-        <v>869622.0600000001</v>
+        <v>132222.06</v>
       </c>
       <c r="AE90" s="1" t="n"/>
     </row>
@@ -9447,15 +8945,13 @@
       <c r="K91" s="1" t="n">
         <v>33989.93412155267</v>
       </c>
-      <c r="L91" s="1" t="n">
-        <v>221606</v>
-      </c>
+      <c r="L91" s="1" t="n"/>
       <c r="M91" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N91" s="1" t="n"/>
       <c r="O91" s="1" t="n">
-        <v>255595.9341215527</v>
+        <v>33989.93412155267</v>
       </c>
       <c r="P91" s="1" t="n">
         <v>44000</v>
@@ -9464,7 +8960,7 @@
         <v>19200</v>
       </c>
       <c r="R91" s="1" t="n">
-        <v>44000</v>
+        <v>38400</v>
       </c>
       <c r="S91" s="8" t="n"/>
       <c r="T91" s="1">
@@ -9486,19 +8982,14 @@
         <f>U91-X91</f>
         <v/>
       </c>
-      <c r="Z91" s="1" t="n">
-        <v>211200</v>
-      </c>
+      <c r="Z91" s="1" t="n"/>
       <c r="AA91" s="1" t="n"/>
-      <c r="AB91" s="1">
-        <f>Z91+AA91</f>
-        <v/>
-      </c>
+      <c r="AB91" s="1" t="n"/>
       <c r="AC91" s="1" t="n">
         <v>22004.64</v>
       </c>
       <c r="AD91" s="1" t="n">
-        <v>277204.64</v>
+        <v>60404.64</v>
       </c>
       <c r="AE91" s="1" t="n"/>
     </row>
@@ -9548,24 +9039,22 @@
       <c r="K92" s="1" t="n">
         <v>16160.03207046878</v>
       </c>
-      <c r="L92" s="1" t="n">
-        <v>173105</v>
-      </c>
+      <c r="L92" s="1" t="n"/>
       <c r="M92" s="1" t="n">
         <v>74663.05680000001</v>
       </c>
       <c r="N92" s="1" t="n"/>
       <c r="O92" s="1" t="n">
-        <v>256461.7831904688</v>
+        <v>83356.78319046878</v>
       </c>
       <c r="P92" s="1" t="n">
-        <v>154000</v>
+        <v>22000</v>
       </c>
       <c r="Q92" s="1" t="n">
         <v>19500</v>
       </c>
       <c r="R92" s="1" t="n">
-        <v>154000</v>
+        <v>22000</v>
       </c>
       <c r="S92" s="8" t="n"/>
       <c r="T92" s="1">
@@ -9588,7 +9077,7 @@
         <v/>
       </c>
       <c r="Z92" s="1" t="n">
-        <v>97500</v>
+        <v>58500</v>
       </c>
       <c r="AA92" s="1" t="n"/>
       <c r="AB92" s="1">
@@ -9599,7 +9088,7 @@
         <v>22011.06</v>
       </c>
       <c r="AD92" s="1" t="n">
-        <v>273511.06</v>
+        <v>102511.06</v>
       </c>
       <c r="AE92" s="1" t="n"/>
     </row>
@@ -9649,24 +9138,22 @@
       <c r="K93" s="1" t="n">
         <v>58036.06184241021</v>
       </c>
-      <c r="L93" s="1" t="n">
-        <v>325718</v>
-      </c>
+      <c r="L93" s="1" t="n"/>
       <c r="M93" s="1" t="n">
         <v>22300</v>
       </c>
       <c r="N93" s="1" t="n"/>
       <c r="O93" s="1" t="n">
-        <v>403824.0618424102</v>
+        <v>78106.06184241021</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="1" t="n">
         <v>18500</v>
       </c>
       <c r="R93" s="1" t="n">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="S93" s="8" t="n"/>
       <c r="T93" s="1">
@@ -9689,7 +9176,7 @@
         <v/>
       </c>
       <c r="Z93" s="1" t="n">
-        <v>351500</v>
+        <v>74000</v>
       </c>
       <c r="AA93" s="1" t="n"/>
       <c r="AB93" s="1">
@@ -9698,7 +9185,7 @@
       </c>
       <c r="AC93" s="1" t="n"/>
       <c r="AD93" s="1" t="n">
-        <v>386500</v>
+        <v>74000</v>
       </c>
       <c r="AE93" s="1" t="n"/>
     </row>
@@ -9748,24 +9235,22 @@
       <c r="K94" s="1" t="n">
         <v>1377.835115341636</v>
       </c>
-      <c r="L94" s="1" t="n">
-        <v>246528</v>
-      </c>
+      <c r="L94" s="1" t="n"/>
       <c r="M94" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N94" s="1" t="n"/>
       <c r="O94" s="1" t="n">
-        <v>247905.8351153416</v>
+        <v>1377.835115341636</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>44000</v>
+        <v>22000</v>
       </c>
       <c r="Q94" s="1" t="n">
         <v>20700</v>
       </c>
       <c r="R94" s="1" t="n">
-        <v>44000</v>
+        <v>20700</v>
       </c>
       <c r="S94" s="8" t="n"/>
       <c r="T94" s="1">
@@ -9787,19 +9272,14 @@
         <f>U94-X94</f>
         <v/>
       </c>
-      <c r="Z94" s="1" t="n">
-        <v>186300</v>
-      </c>
+      <c r="Z94" s="1" t="n"/>
       <c r="AA94" s="1" t="n"/>
-      <c r="AB94" s="1">
-        <f>Z94+AA94</f>
-        <v/>
-      </c>
+      <c r="AB94" s="1" t="n"/>
       <c r="AC94" s="1" t="n">
         <v>66000</v>
       </c>
       <c r="AD94" s="1" t="n">
-        <v>296300</v>
+        <v>86700</v>
       </c>
       <c r="AE94" s="1" t="n"/>
     </row>
@@ -9849,15 +9329,13 @@
       <c r="K95" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L95" s="1" t="n">
-        <v>132000</v>
-      </c>
+      <c r="L95" s="1" t="n"/>
       <c r="M95" s="1" t="n">
         <v>23079</v>
       </c>
       <c r="N95" s="1" t="n"/>
       <c r="O95" s="1" t="n">
-        <v>152771.1</v>
+        <v>20771.1</v>
       </c>
       <c r="P95" s="1" t="n">
         <v>22000</v>
@@ -9866,7 +9344,7 @@
         <v>18800</v>
       </c>
       <c r="R95" s="1" t="n">
-        <v>22000</v>
+        <v>18800</v>
       </c>
       <c r="S95" s="8" t="n"/>
       <c r="T95" s="1">
@@ -9888,19 +9366,14 @@
         <f>U95-X95</f>
         <v/>
       </c>
-      <c r="Z95" s="1" t="n">
-        <v>112800</v>
-      </c>
+      <c r="Z95" s="1" t="n"/>
       <c r="AA95" s="1" t="n"/>
-      <c r="AB95" s="1">
-        <f>Z95+AA95</f>
-        <v/>
-      </c>
+      <c r="AB95" s="1" t="n"/>
       <c r="AC95" s="1" t="n">
         <v>66000</v>
       </c>
       <c r="AD95" s="1" t="n">
-        <v>200800</v>
+        <v>84800</v>
       </c>
       <c r="AE95" s="1" t="n"/>
     </row>
@@ -9950,24 +9423,22 @@
       <c r="K96" s="1" t="n">
         <v>22153.86491793932</v>
       </c>
-      <c r="L96" s="1" t="n">
-        <v>110000</v>
-      </c>
+      <c r="L96" s="1" t="n"/>
       <c r="M96" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N96" s="1" t="n"/>
       <c r="O96" s="1" t="n">
-        <v>132153.8649179393</v>
+        <v>22153.86491793932</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>66000</v>
+        <v>22000</v>
       </c>
       <c r="Q96" s="1" t="n">
         <v>22000</v>
       </c>
       <c r="R96" s="1" t="n">
-        <v>66000</v>
+        <v>22000</v>
       </c>
       <c r="S96" s="8" t="n"/>
       <c r="T96" s="1">
@@ -9989,17 +9460,12 @@
         <f>U96-X96</f>
         <v/>
       </c>
-      <c r="Z96" s="1" t="n">
-        <v>66000</v>
-      </c>
+      <c r="Z96" s="1" t="n"/>
       <c r="AA96" s="1" t="n"/>
-      <c r="AB96" s="1">
-        <f>Z96+AA96</f>
-        <v/>
-      </c>
+      <c r="AB96" s="1" t="n"/>
       <c r="AC96" s="1" t="n"/>
       <c r="AD96" s="1" t="n">
-        <v>132000</v>
+        <v>22000</v>
       </c>
       <c r="AE96" s="1" t="n"/>
     </row>
@@ -10049,24 +9515,22 @@
       <c r="K97" s="1" t="n">
         <v>18647.52272131594</v>
       </c>
-      <c r="L97" s="1" t="n">
-        <v>202000</v>
-      </c>
+      <c r="L97" s="1" t="n"/>
       <c r="M97" s="1" t="n">
         <v>2909.64</v>
       </c>
       <c r="N97" s="1" t="n"/>
       <c r="O97" s="1" t="n">
-        <v>223266.1987213159</v>
+        <v>21266.19872131594</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="Q97" s="1" t="n">
         <v>17750</v>
       </c>
       <c r="R97" s="1" t="n">
-        <v>24000</v>
+        <v>35500</v>
       </c>
       <c r="S97" s="8" t="n"/>
       <c r="T97" s="1">
@@ -10088,19 +9552,14 @@
         <f>U97-X97</f>
         <v/>
       </c>
-      <c r="Z97" s="1" t="n">
-        <v>195250</v>
-      </c>
+      <c r="Z97" s="1" t="n"/>
       <c r="AA97" s="1" t="n"/>
-      <c r="AB97" s="1">
-        <f>Z97+AA97</f>
-        <v/>
-      </c>
+      <c r="AB97" s="1" t="n"/>
       <c r="AC97" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="AD97" s="1" t="n">
-        <v>243250</v>
+        <v>59500</v>
       </c>
       <c r="AE97" s="1" t="n"/>
     </row>
@@ -10150,24 +9609,22 @@
       <c r="K98" s="1" t="n">
         <v>14698.70345609639</v>
       </c>
-      <c r="L98" s="1" t="n">
-        <v>88000</v>
-      </c>
+      <c r="L98" s="1" t="n"/>
       <c r="M98" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N98" s="1" t="n"/>
       <c r="O98" s="1" t="n">
-        <v>102698.7034560964</v>
+        <v>14698.70345609639</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="Q98" s="1" t="n">
         <v>22000</v>
       </c>
       <c r="R98" s="1" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="S98" s="8" t="n"/>
       <c r="T98" s="1">
@@ -10189,19 +9646,14 @@
         <f>U98-X98</f>
         <v/>
       </c>
-      <c r="Z98" s="1" t="n">
-        <v>88000</v>
-      </c>
+      <c r="Z98" s="1" t="n"/>
       <c r="AA98" s="1" t="n"/>
-      <c r="AB98" s="1">
-        <f>Z98+AA98</f>
-        <v/>
-      </c>
+      <c r="AB98" s="1" t="n"/>
       <c r="AC98" s="1" t="n">
         <v>44011.66</v>
       </c>
       <c r="AD98" s="1" t="n">
-        <v>132011.66</v>
+        <v>66011.66</v>
       </c>
       <c r="AE98" s="1" t="n"/>
     </row>
@@ -10251,24 +9703,22 @@
       <c r="K99" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L99" s="1" t="n">
-        <v>254003</v>
-      </c>
+      <c r="L99" s="1" t="n"/>
       <c r="M99" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N99" s="1" t="n"/>
       <c r="O99" s="1" t="n">
-        <v>254003</v>
+        <v>0</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q99" s="1" t="n">
         <v>21300</v>
       </c>
       <c r="R99" s="1" t="n">
-        <v>17000</v>
+        <v>21300</v>
       </c>
       <c r="S99" s="8" t="n"/>
       <c r="T99" s="1">
@@ -10290,18 +9740,11 @@
         <f>U99-X99</f>
         <v/>
       </c>
-      <c r="Z99" s="1" t="n">
-        <v>234300</v>
-      </c>
+      <c r="Z99" s="1" t="n"/>
       <c r="AA99" s="1" t="n"/>
-      <c r="AB99" s="1">
-        <f>Z99+AA99</f>
-        <v/>
-      </c>
+      <c r="AB99" s="1" t="n"/>
       <c r="AC99" s="1" t="n"/>
-      <c r="AD99" s="1" t="n">
-        <v>251300</v>
-      </c>
+      <c r="AD99" s="1" t="n"/>
       <c r="AE99" s="1" t="n"/>
     </row>
     <row r="100">
@@ -10350,24 +9793,22 @@
       <c r="K100" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L100" s="1" t="n">
-        <v>176000</v>
-      </c>
+      <c r="L100" s="1" t="n"/>
       <c r="M100" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N100" s="1" t="n"/>
       <c r="O100" s="1" t="n">
-        <v>176000</v>
+        <v>0</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>0</v>
+        <v>68000</v>
       </c>
       <c r="Q100" s="1" t="n">
         <v>22000</v>
       </c>
       <c r="R100" s="1" t="n">
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="S100" s="8" t="n"/>
       <c r="T100" s="1">
@@ -10389,18 +9830,11 @@
         <f>U100-X100</f>
         <v/>
       </c>
-      <c r="Z100" s="1" t="n">
-        <v>176000</v>
-      </c>
+      <c r="Z100" s="1" t="n"/>
       <c r="AA100" s="1" t="n"/>
-      <c r="AB100" s="1">
-        <f>Z100+AA100</f>
-        <v/>
-      </c>
+      <c r="AB100" s="1" t="n"/>
       <c r="AC100" s="1" t="n"/>
-      <c r="AD100" s="1" t="n">
-        <v>176000</v>
-      </c>
+      <c r="AD100" s="1" t="n"/>
       <c r="AE100" s="1" t="n"/>
     </row>
     <row r="101">
@@ -10449,24 +9883,22 @@
       <c r="K101" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L101" s="1" t="n">
-        <v>20137</v>
-      </c>
+      <c r="L101" s="1" t="n"/>
       <c r="M101" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N101" s="1" t="n"/>
       <c r="O101" s="1" t="n">
-        <v>20137</v>
+        <v>0</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="1" t="n">
         <v>4000</v>
       </c>
       <c r="R101" s="1" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="S101" s="8" t="n"/>
       <c r="T101" s="1">
@@ -10478,12 +9910,11 @@
         <v/>
       </c>
       <c r="V101" s="1" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="W101" s="8" t="n"/>
-      <c r="X101" s="1">
-        <f>V101+W101</f>
-        <v/>
+      <c r="X101" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y101" s="1">
         <f>U101-X101</f>
@@ -10493,9 +9924,7 @@
       <c r="AA101" s="1" t="n"/>
       <c r="AB101" s="1" t="n"/>
       <c r="AC101" s="1" t="n"/>
-      <c r="AD101" s="1" t="n">
-        <v>19000</v>
-      </c>
+      <c r="AD101" s="1" t="n"/>
       <c r="AE101" s="1" t="n"/>
     </row>
     <row r="102">
@@ -10544,24 +9973,22 @@
       <c r="K102" s="1" t="n">
         <v>7563.279771647733</v>
       </c>
-      <c r="L102" s="1" t="n">
-        <v>579</v>
-      </c>
+      <c r="L102" s="1" t="n"/>
       <c r="M102" s="1" t="n">
         <v>700</v>
       </c>
       <c r="N102" s="1" t="n"/>
       <c r="O102" s="1" t="n">
-        <v>8772.279771647733</v>
+        <v>8193.279771647733</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="Q102" s="9" t="n">
         <v>24000</v>
       </c>
       <c r="R102" s="1" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="S102" s="8" t="n"/>
       <c r="T102" s="1">
@@ -10588,7 +10015,7 @@
       <c r="AB102" s="1" t="n"/>
       <c r="AC102" s="1" t="n"/>
       <c r="AD102" s="1" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="AE102" s="1" t="n"/>
     </row>
@@ -10638,15 +10065,13 @@
       <c r="K103" s="1" t="n">
         <v>10397.05682400494</v>
       </c>
-      <c r="L103" s="1" t="n">
-        <v>198000</v>
-      </c>
+      <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
         <v>4946</v>
       </c>
       <c r="N103" s="1" t="n"/>
       <c r="O103" s="1" t="n">
-        <v>212848.4568240049</v>
+        <v>14848.45682400494</v>
       </c>
       <c r="P103" s="1" t="n">
         <v>22000</v>
@@ -10677,17 +10102,12 @@
         <f>U103-X103</f>
         <v/>
       </c>
-      <c r="Z103" s="1" t="n">
-        <v>176000</v>
-      </c>
+      <c r="Z103" s="1" t="n"/>
       <c r="AA103" s="1" t="n"/>
-      <c r="AB103" s="1">
-        <f>Z103+AA103</f>
-        <v/>
-      </c>
+      <c r="AB103" s="1" t="n"/>
       <c r="AC103" s="1" t="n"/>
       <c r="AD103" s="1" t="n">
-        <v>198000</v>
+        <v>22000</v>
       </c>
       <c r="AE103" s="1" t="n"/>
     </row>
@@ -10737,24 +10157,22 @@
       <c r="K104" s="1" t="n">
         <v>199184.7076739147</v>
       </c>
-      <c r="L104" s="1" t="n">
-        <v>3353041</v>
-      </c>
+      <c r="L104" s="1" t="n"/>
       <c r="M104" s="1" t="n">
         <v>147581.4719601205</v>
       </c>
       <c r="N104" s="1" t="n"/>
       <c r="O104" s="1" t="n">
-        <v>3685049.032438023</v>
+        <v>332008.0324380232</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>257000</v>
+        <v>210000</v>
       </c>
       <c r="Q104" s="1" t="n">
         <v>21600</v>
       </c>
       <c r="R104" s="1" t="n">
-        <v>257000</v>
+        <v>210000</v>
       </c>
       <c r="S104" s="8" t="n"/>
       <c r="T104" s="1">
@@ -10777,7 +10195,7 @@
         <v/>
       </c>
       <c r="Z104" s="1" t="n">
-        <v>3412800</v>
+        <v>108000</v>
       </c>
       <c r="AA104" s="1" t="n"/>
       <c r="AB104" s="1">
@@ -10788,7 +10206,7 @@
         <v>176027.8</v>
       </c>
       <c r="AD104" s="1" t="n">
-        <v>3845827.8</v>
+        <v>494027.8</v>
       </c>
       <c r="AE104" s="1" t="n"/>
     </row>
@@ -10838,24 +10256,22 @@
       <c r="K105" s="1" t="n">
         <v>24489.75907745874</v>
       </c>
-      <c r="L105" s="1" t="n">
-        <v>2035000</v>
-      </c>
+      <c r="L105" s="1" t="n"/>
       <c r="M105" s="1" t="n">
         <v>24046.71634117929</v>
       </c>
       <c r="N105" s="1" t="n"/>
       <c r="O105" s="1" t="n">
-        <v>2081131.80378452</v>
+        <v>46131.80378452011</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>0</v>
+        <v>88000</v>
       </c>
       <c r="Q105" s="1" t="n">
         <v>21750</v>
       </c>
       <c r="R105" s="1" t="n">
-        <v>0</v>
+        <v>87000</v>
       </c>
       <c r="S105" s="8" t="n"/>
       <c r="T105" s="1">
@@ -10877,19 +10293,14 @@
         <f>U105-X105</f>
         <v/>
       </c>
-      <c r="Z105" s="1" t="n">
-        <v>2066250</v>
-      </c>
+      <c r="Z105" s="1" t="n"/>
       <c r="AA105" s="1" t="n"/>
-      <c r="AB105" s="1">
-        <f>Z105+AA105</f>
-        <v/>
-      </c>
+      <c r="AB105" s="1" t="n"/>
       <c r="AC105" s="1" t="n">
         <v>22011.2</v>
       </c>
       <c r="AD105" s="1" t="n">
-        <v>2088261.2</v>
+        <v>109011.2</v>
       </c>
       <c r="AE105" s="1" t="n"/>
     </row>
@@ -10939,24 +10350,22 @@
       <c r="K106" s="1" t="n">
         <v>85517.73542891575</v>
       </c>
-      <c r="L106" s="1" t="n">
-        <v>814000</v>
-      </c>
+      <c r="L106" s="1" t="n"/>
       <c r="M106" s="1" t="n">
         <v>38273.54011262151</v>
       </c>
       <c r="N106" s="1" t="n"/>
       <c r="O106" s="1" t="n">
-        <v>933963.921530275</v>
+        <v>119963.9215302751</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>88000</v>
+        <v>220000</v>
       </c>
       <c r="Q106" s="1" t="n">
         <v>22000</v>
       </c>
       <c r="R106" s="1" t="n">
-        <v>88000</v>
+        <v>220000</v>
       </c>
       <c r="S106" s="8" t="n"/>
       <c r="T106" s="1">
@@ -10978,19 +10387,14 @@
         <f>U106-X106</f>
         <v/>
       </c>
-      <c r="Z106" s="1" t="n">
-        <v>836000</v>
-      </c>
+      <c r="Z106" s="1" t="n"/>
       <c r="AA106" s="1" t="n"/>
-      <c r="AB106" s="1">
-        <f>Z106+AA106</f>
-        <v/>
-      </c>
+      <c r="AB106" s="1" t="n"/>
       <c r="AC106" s="1" t="n">
         <v>22016.21</v>
       </c>
       <c r="AD106" s="1" t="n">
-        <v>946016.21</v>
+        <v>242016.21</v>
       </c>
       <c r="AE106" s="1" t="n"/>
     </row>
@@ -11040,24 +10444,22 @@
       <c r="K107" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L107" s="1" t="n">
-        <v>24000</v>
-      </c>
+      <c r="L107" s="1" t="n"/>
       <c r="M107" s="1" t="n">
         <v>991.1930261476655</v>
       </c>
       <c r="N107" s="1" t="n"/>
       <c r="O107" s="1" t="n">
-        <v>24892.0737235329</v>
+        <v>892.073723532899</v>
       </c>
       <c r="P107" s="1" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1" t="n">
         <v>4100</v>
       </c>
       <c r="R107" s="1" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S107" s="8" t="n"/>
       <c r="T107" s="1">
@@ -11069,12 +10471,11 @@
         <v/>
       </c>
       <c r="V107" s="1" t="n">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="W107" s="8" t="n"/>
-      <c r="X107" s="1">
-        <f>V107+W107</f>
-        <v/>
+      <c r="X107" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y107" s="1">
         <f>U107-X107</f>
@@ -11085,7 +10486,7 @@
       <c r="AB107" s="1" t="n"/>
       <c r="AC107" s="1" t="n"/>
       <c r="AD107" s="1" t="n">
-        <v>22300</v>
+        <v>0</v>
       </c>
       <c r="AE107" s="1" t="n"/>
     </row>
@@ -11135,24 +10536,22 @@
       <c r="K108" s="1" t="n">
         <v>1357.442693919377</v>
       </c>
-      <c r="L108" s="1" t="n">
-        <v>15091</v>
-      </c>
+      <c r="L108" s="1" t="n"/>
       <c r="M108" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N108" s="1" t="n"/>
       <c r="O108" s="1" t="n">
-        <v>16448.44269391938</v>
+        <v>1357.442693919377</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q108" s="1" t="n">
         <v>5000</v>
       </c>
       <c r="R108" s="1" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="S108" s="8" t="n"/>
       <c r="T108" s="1">
@@ -11174,17 +10573,12 @@
         <f>U108-X108</f>
         <v/>
       </c>
-      <c r="Z108" s="1" t="n">
-        <v>10000</v>
-      </c>
+      <c r="Z108" s="1" t="n"/>
       <c r="AA108" s="1" t="n"/>
-      <c r="AB108" s="1">
-        <f>Z108+AA108</f>
-        <v/>
-      </c>
+      <c r="AB108" s="1" t="n"/>
       <c r="AC108" s="1" t="n"/>
       <c r="AD108" s="1" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AE108" s="1" t="n"/>
     </row>
@@ -11234,24 +10628,22 @@
       <c r="K109" s="1" t="n">
         <v>27872.2076948752</v>
       </c>
-      <c r="L109" s="1" t="n">
-        <v>836000</v>
-      </c>
+      <c r="L109" s="1" t="n"/>
       <c r="M109" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N109" s="1" t="n"/>
       <c r="O109" s="1" t="n">
-        <v>863872.2076948752</v>
+        <v>27872.2076948752</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="Q109" s="1" t="n">
         <v>20200</v>
       </c>
       <c r="R109" s="1" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="S109" s="8" t="n"/>
       <c r="T109" s="1">
@@ -11273,17 +10665,12 @@
         <f>U109-X109</f>
         <v/>
       </c>
-      <c r="Z109" s="1" t="n">
-        <v>848400</v>
-      </c>
+      <c r="Z109" s="1" t="n"/>
       <c r="AA109" s="1" t="n"/>
-      <c r="AB109" s="1">
-        <f>Z109+AA109</f>
-        <v/>
-      </c>
+      <c r="AB109" s="1" t="n"/>
       <c r="AC109" s="1" t="n"/>
       <c r="AD109" s="1" t="n">
-        <v>848400</v>
+        <v>22000</v>
       </c>
       <c r="AE109" s="1" t="n"/>
     </row>
@@ -11333,15 +10720,13 @@
       <c r="K110" s="1" t="n">
         <v>47446.62368423303</v>
       </c>
-      <c r="L110" s="1" t="n">
-        <v>497974</v>
-      </c>
+      <c r="L110" s="1" t="n"/>
       <c r="M110" s="1" t="n">
         <v>11239.47289786119</v>
       </c>
       <c r="N110" s="1" t="n"/>
       <c r="O110" s="1" t="n">
-        <v>555536.1492923081</v>
+        <v>57562.1492923081</v>
       </c>
       <c r="P110" s="1" t="n">
         <v>44000</v>
@@ -11372,19 +10757,14 @@
         <f>U110-X110</f>
         <v/>
       </c>
-      <c r="Z110" s="1" t="n">
-        <v>502200</v>
-      </c>
+      <c r="Z110" s="1" t="n"/>
       <c r="AA110" s="1" t="n"/>
-      <c r="AB110" s="1">
-        <f>Z110+AA110</f>
-        <v/>
-      </c>
+      <c r="AB110" s="1" t="n"/>
       <c r="AC110" s="1" t="n">
         <v>22009.96</v>
       </c>
       <c r="AD110" s="1" t="n">
-        <v>568209.96</v>
+        <v>66009.95999999999</v>
       </c>
       <c r="AE110" s="1" t="n"/>
     </row>
@@ -11434,24 +10814,22 @@
       <c r="K111" s="1" t="n">
         <v>2603.304214018851</v>
       </c>
-      <c r="L111" s="1" t="n">
-        <v>132000</v>
-      </c>
+      <c r="L111" s="1" t="n"/>
       <c r="M111" s="1" t="n">
         <v>8909.434243548418</v>
       </c>
       <c r="N111" s="1" t="n"/>
       <c r="O111" s="1" t="n">
-        <v>142621.7950332124</v>
+        <v>10621.79503321243</v>
       </c>
       <c r="P111" s="1" t="n">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="1" t="n">
         <v>22000</v>
       </c>
       <c r="R111" s="1" t="n">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="S111" s="8" t="n"/>
       <c r="T111" s="1">
@@ -11473,17 +10851,12 @@
         <f>U111-X111</f>
         <v/>
       </c>
-      <c r="Z111" s="1" t="n">
-        <v>88000</v>
-      </c>
+      <c r="Z111" s="1" t="n"/>
       <c r="AA111" s="1" t="n"/>
-      <c r="AB111" s="1">
-        <f>Z111+AA111</f>
-        <v/>
-      </c>
+      <c r="AB111" s="1" t="n"/>
       <c r="AC111" s="1" t="n"/>
       <c r="AD111" s="1" t="n">
-        <v>132000</v>
+        <v>0</v>
       </c>
       <c r="AE111" s="1" t="n"/>
     </row>
@@ -11533,24 +10906,22 @@
       <c r="K112" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L112" s="1" t="n">
-        <v>140328</v>
-      </c>
+      <c r="L112" s="1" t="n"/>
       <c r="M112" s="1" t="n">
         <v>21073</v>
       </c>
       <c r="N112" s="1" t="n"/>
       <c r="O112" s="1" t="n">
-        <v>159293.7</v>
+        <v>18965.7</v>
       </c>
       <c r="P112" s="1" t="n">
-        <v>96000</v>
+        <v>192000</v>
       </c>
       <c r="Q112" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R112" s="1" t="n">
-        <v>96000</v>
+        <v>192000</v>
       </c>
       <c r="S112" s="8" t="n"/>
       <c r="T112" s="1">
@@ -11572,17 +10943,12 @@
         <f>U112-X112</f>
         <v/>
       </c>
-      <c r="Z112" s="1" t="n">
-        <v>48000</v>
-      </c>
+      <c r="Z112" s="1" t="n"/>
       <c r="AA112" s="1" t="n"/>
-      <c r="AB112" s="1">
-        <f>Z112+AA112</f>
-        <v/>
-      </c>
+      <c r="AB112" s="1" t="n"/>
       <c r="AC112" s="1" t="n"/>
       <c r="AD112" s="1" t="n">
-        <v>144000</v>
+        <v>192000</v>
       </c>
       <c r="AE112" s="1" t="n"/>
     </row>
@@ -11632,15 +10998,13 @@
       <c r="K113" s="1" t="n">
         <v>12312.40538702383</v>
       </c>
-      <c r="L113" s="1" t="n">
-        <v>220000</v>
-      </c>
+      <c r="L113" s="1" t="n"/>
       <c r="M113" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N113" s="1" t="n"/>
       <c r="O113" s="1" t="n">
-        <v>232312.4053870238</v>
+        <v>12312.40538702383</v>
       </c>
       <c r="P113" s="1" t="n">
         <v>0</v>
@@ -11671,17 +11035,12 @@
         <f>U113-X113</f>
         <v/>
       </c>
-      <c r="Z113" s="1" t="n">
-        <v>220000</v>
-      </c>
+      <c r="Z113" s="1" t="n"/>
       <c r="AA113" s="1" t="n"/>
-      <c r="AB113" s="1">
-        <f>Z113+AA113</f>
-        <v/>
-      </c>
+      <c r="AB113" s="1" t="n"/>
       <c r="AC113" s="1" t="n"/>
       <c r="AD113" s="1" t="n">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="AE113" s="1" t="n"/>
     </row>
@@ -11731,24 +11090,22 @@
       <c r="K114" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L114" s="1" t="n">
-        <v>72000</v>
-      </c>
+      <c r="L114" s="1" t="n"/>
       <c r="M114" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N114" s="1" t="n"/>
       <c r="O114" s="1" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="P114" s="1" t="n">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="Q114" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R114" s="1" t="n">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="S114" s="8" t="n"/>
       <c r="T114" s="1">
@@ -11774,9 +11131,7 @@
       <c r="AA114" s="1" t="n"/>
       <c r="AB114" s="1" t="n"/>
       <c r="AC114" s="1" t="n"/>
-      <c r="AD114" s="1" t="n">
-        <v>48000</v>
-      </c>
+      <c r="AD114" s="1" t="n"/>
       <c r="AE114" s="1" t="n"/>
     </row>
     <row r="115">
@@ -11825,15 +11180,13 @@
       <c r="K115" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L115" s="1" t="n">
-        <v>96000</v>
-      </c>
+      <c r="L115" s="1" t="n"/>
       <c r="M115" s="1" t="n">
         <v>5825</v>
       </c>
       <c r="N115" s="1" t="n"/>
       <c r="O115" s="1" t="n">
-        <v>101242.5</v>
+        <v>5242.5</v>
       </c>
       <c r="P115" s="1" t="n">
         <v>0</v>
@@ -11864,17 +11217,12 @@
         <f>U115-X115</f>
         <v/>
       </c>
-      <c r="Z115" s="1" t="n">
-        <v>96000</v>
-      </c>
+      <c r="Z115" s="1" t="n"/>
       <c r="AA115" s="1" t="n"/>
-      <c r="AB115" s="1">
-        <f>Z115+AA115</f>
-        <v/>
-      </c>
+      <c r="AB115" s="1" t="n"/>
       <c r="AC115" s="1" t="n"/>
       <c r="AD115" s="1" t="n">
-        <v>96000</v>
+        <v>0</v>
       </c>
       <c r="AE115" s="1" t="n"/>
     </row>
@@ -11924,24 +11272,22 @@
       <c r="K116" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L116" s="1" t="n">
-        <v>66000</v>
-      </c>
+      <c r="L116" s="1" t="n"/>
       <c r="M116" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N116" s="1" t="n"/>
       <c r="O116" s="1" t="n">
-        <v>66000</v>
+        <v>0</v>
       </c>
       <c r="P116" s="1" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="Q116" s="1" t="n">
         <v>22000</v>
       </c>
       <c r="R116" s="1" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="S116" s="8" t="n"/>
       <c r="T116" s="1">
@@ -11963,18 +11309,11 @@
         <f>U116-X116</f>
         <v/>
       </c>
-      <c r="Z116" s="1" t="n">
-        <v>66000</v>
-      </c>
+      <c r="Z116" s="1" t="n"/>
       <c r="AA116" s="1" t="n"/>
-      <c r="AB116" s="1">
-        <f>Z116+AA116</f>
-        <v/>
-      </c>
+      <c r="AB116" s="1" t="n"/>
       <c r="AC116" s="1" t="n"/>
-      <c r="AD116" s="1" t="n">
-        <v>66000</v>
-      </c>
+      <c r="AD116" s="1" t="n"/>
       <c r="AE116" s="1" t="n"/>
     </row>
     <row r="117">
@@ -12023,24 +11362,22 @@
       <c r="K117" s="1" t="n">
         <v>32334.68512233465</v>
       </c>
-      <c r="L117" s="1" t="n">
-        <v>365483</v>
-      </c>
+      <c r="L117" s="1" t="n"/>
       <c r="M117" s="1" t="n">
         <v>19066</v>
       </c>
       <c r="N117" s="1" t="n"/>
       <c r="O117" s="1" t="n">
-        <v>414977.0851223347</v>
+        <v>49494.08512233465</v>
       </c>
       <c r="P117" s="1" t="n">
-        <v>72000</v>
+        <v>96000</v>
       </c>
       <c r="Q117" s="1" t="n">
         <v>23633.33333333333</v>
       </c>
       <c r="R117" s="1" t="n">
-        <v>72000</v>
+        <v>94533.33333333333</v>
       </c>
       <c r="S117" s="8" t="n"/>
       <c r="T117" s="1">
@@ -12062,19 +11399,14 @@
         <f>U117-X117</f>
         <v/>
       </c>
-      <c r="Z117" s="1" t="n">
-        <v>330866.6666666666</v>
-      </c>
+      <c r="Z117" s="1" t="n"/>
       <c r="AA117" s="1" t="n"/>
-      <c r="AB117" s="1">
-        <f>Z117+AA117</f>
-        <v/>
-      </c>
+      <c r="AB117" s="1" t="n"/>
       <c r="AC117" s="1" t="n">
         <v>47976.12</v>
       </c>
       <c r="AD117" s="1" t="n">
-        <v>450842.7866666666</v>
+        <v>142509.4533333333</v>
       </c>
       <c r="AE117" s="1" t="n"/>
     </row>
@@ -12124,24 +11456,22 @@
       <c r="K118" s="1" t="n">
         <v>490.1876394708863</v>
       </c>
-      <c r="L118" s="1" t="n">
-        <v>192000</v>
-      </c>
+      <c r="L118" s="1" t="n"/>
       <c r="M118" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N118" s="1" t="n"/>
       <c r="O118" s="1" t="n">
-        <v>192490.1876394709</v>
+        <v>490.1876394708863</v>
       </c>
       <c r="P118" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Q118" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R118" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="S118" s="8" t="n"/>
       <c r="T118" s="1">
@@ -12163,17 +11493,12 @@
         <f>U118-X118</f>
         <v/>
       </c>
-      <c r="Z118" s="1" t="n">
-        <v>168000</v>
-      </c>
+      <c r="Z118" s="1" t="n"/>
       <c r="AA118" s="1" t="n"/>
-      <c r="AB118" s="1">
-        <f>Z118+AA118</f>
-        <v/>
-      </c>
+      <c r="AB118" s="1" t="n"/>
       <c r="AC118" s="1" t="n"/>
       <c r="AD118" s="1" t="n">
-        <v>192000</v>
+        <v>0</v>
       </c>
       <c r="AE118" s="1" t="n"/>
     </row>
@@ -12223,24 +11548,22 @@
       <c r="K119" s="1" t="n">
         <v>8078.861747229356</v>
       </c>
-      <c r="L119" s="1" t="n">
-        <v>192000</v>
-      </c>
+      <c r="L119" s="1" t="n"/>
       <c r="M119" s="1" t="n">
         <v>11867.95540360635</v>
       </c>
       <c r="N119" s="1" t="n"/>
       <c r="O119" s="1" t="n">
-        <v>210760.0216104751</v>
+        <v>18760.02161047507</v>
       </c>
       <c r="P119" s="1" t="n">
-        <v>96000</v>
+        <v>24000</v>
       </c>
       <c r="Q119" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R119" s="1" t="n">
-        <v>96000</v>
+        <v>24000</v>
       </c>
       <c r="S119" s="8" t="n"/>
       <c r="T119" s="1">
@@ -12262,17 +11585,12 @@
         <f>U119-X119</f>
         <v/>
       </c>
-      <c r="Z119" s="1" t="n">
-        <v>96000</v>
-      </c>
+      <c r="Z119" s="1" t="n"/>
       <c r="AA119" s="1" t="n"/>
-      <c r="AB119" s="1">
-        <f>Z119+AA119</f>
-        <v/>
-      </c>
+      <c r="AB119" s="1" t="n"/>
       <c r="AC119" s="1" t="n"/>
       <c r="AD119" s="1" t="n">
-        <v>192000</v>
+        <v>24000</v>
       </c>
       <c r="AE119" s="1" t="n"/>
     </row>
@@ -12322,24 +11640,22 @@
       <c r="K120" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L120" s="1" t="n">
-        <v>16961</v>
-      </c>
+      <c r="L120" s="1" t="n"/>
       <c r="M120" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N120" s="1" t="n"/>
       <c r="O120" s="1" t="n">
-        <v>16961</v>
+        <v>0</v>
       </c>
       <c r="P120" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R120" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="S120" s="8" t="n"/>
       <c r="T120" s="1">
@@ -12365,9 +11681,7 @@
       <c r="AA120" s="1" t="n"/>
       <c r="AB120" s="1" t="n"/>
       <c r="AC120" s="1" t="n"/>
-      <c r="AD120" s="1" t="n">
-        <v>24000</v>
-      </c>
+      <c r="AD120" s="1" t="n"/>
       <c r="AE120" s="1" t="n"/>
     </row>
     <row r="121">
@@ -12416,24 +11730,22 @@
       <c r="K121" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L121" s="1" t="n">
-        <v>96000</v>
-      </c>
+      <c r="L121" s="1" t="n"/>
       <c r="M121" s="1" t="n">
         <v>9898.753453670968</v>
       </c>
       <c r="N121" s="1" t="n"/>
       <c r="O121" s="1" t="n">
-        <v>104908.8781083039</v>
+        <v>8908.878108303872</v>
       </c>
       <c r="P121" s="1" t="n">
-        <v>120000</v>
+        <v>59000</v>
       </c>
       <c r="Q121" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R121" s="1" t="n">
-        <v>120000</v>
+        <v>48000</v>
       </c>
       <c r="S121" s="8" t="n"/>
       <c r="T121" s="1">
@@ -12460,7 +11772,7 @@
       <c r="AB121" s="1" t="n"/>
       <c r="AC121" s="1" t="n"/>
       <c r="AD121" s="1" t="n">
-        <v>120000</v>
+        <v>48000</v>
       </c>
       <c r="AE121" s="1" t="n"/>
     </row>
@@ -12510,24 +11822,22 @@
       <c r="K122" s="1" t="n">
         <v>528990.0998808077</v>
       </c>
-      <c r="L122" s="1" t="n">
-        <v>6548298</v>
-      </c>
+      <c r="L122" s="1" t="n"/>
       <c r="M122" s="1" t="n">
         <v>409000</v>
       </c>
       <c r="N122" s="1" t="n"/>
       <c r="O122" s="1" t="n">
-        <v>7465838.099880808</v>
+        <v>917540.0998808077</v>
       </c>
       <c r="P122" s="1" t="n">
-        <v>950000</v>
+        <v>775000</v>
       </c>
       <c r="Q122" s="1" t="n">
         <v>25000</v>
       </c>
       <c r="R122" s="1" t="n">
-        <v>950000</v>
+        <v>775000</v>
       </c>
       <c r="S122" s="8" t="n"/>
       <c r="T122" s="1">
@@ -12550,7 +11860,7 @@
         <v/>
       </c>
       <c r="Z122" s="1" t="n">
-        <v>6500000</v>
+        <v>125000</v>
       </c>
       <c r="AA122" s="1" t="n"/>
       <c r="AB122" s="1">
@@ -12561,7 +11871,7 @@
         <v>143866.24</v>
       </c>
       <c r="AD122" s="1" t="n">
-        <v>7593866.24</v>
+        <v>1043866.24</v>
       </c>
       <c r="AE122" s="1" t="n"/>
     </row>
@@ -12611,24 +11921,22 @@
       <c r="K123" s="1" t="n">
         <v>27385.1413098853</v>
       </c>
-      <c r="L123" s="1" t="n">
-        <v>97000</v>
-      </c>
+      <c r="L123" s="1" t="n"/>
       <c r="M123" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N123" s="1" t="n"/>
       <c r="O123" s="1" t="n">
-        <v>124385.1413098853</v>
+        <v>27385.1413098853</v>
       </c>
       <c r="P123" s="1" t="n">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="Q123" s="1" t="n">
         <v>19550</v>
       </c>
       <c r="R123" s="1" t="n">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="S123" s="8" t="n"/>
       <c r="T123" s="1">
@@ -12651,7 +11959,7 @@
         <v/>
       </c>
       <c r="Z123" s="1" t="n">
-        <v>78200</v>
+        <v>19550</v>
       </c>
       <c r="AA123" s="1" t="n"/>
       <c r="AB123" s="1">
@@ -12660,7 +11968,7 @@
       </c>
       <c r="AC123" s="1" t="n"/>
       <c r="AD123" s="1" t="n">
-        <v>115200</v>
+        <v>19550</v>
       </c>
       <c r="AE123" s="1" t="n"/>
     </row>
@@ -12710,9 +12018,7 @@
       <c r="K124" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L124" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="L124" s="1" t="n"/>
       <c r="M124" s="1" t="n">
         <v>0</v>
       </c>
@@ -12802,9 +12108,7 @@
       <c r="K125" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L125" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="L125" s="1" t="n"/>
       <c r="M125" s="1" t="n">
         <v>0</v>
       </c>
@@ -12905,13 +12209,13 @@
         <v>104749.4466214733</v>
       </c>
       <c r="P126" s="1" t="n">
-        <v>115000</v>
+        <v>144000</v>
       </c>
       <c r="Q126" s="9" t="n">
         <v>24000</v>
       </c>
       <c r="R126" s="1" t="n">
-        <v>96000</v>
+        <v>144000</v>
       </c>
       <c r="S126" s="8" t="n"/>
       <c r="T126" s="1">
@@ -12938,7 +12242,7 @@
       <c r="AB126" s="1" t="n"/>
       <c r="AC126" s="1" t="n"/>
       <c r="AD126" s="1" t="n">
-        <v>96000</v>
+        <v>144000</v>
       </c>
       <c r="AE126" s="1" t="n"/>
     </row>
@@ -12999,13 +12303,13 @@
         <v>249943.9834949985</v>
       </c>
       <c r="P127" s="1" t="n">
-        <v>336000</v>
+        <v>48000</v>
       </c>
       <c r="Q127" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R127" s="1" t="n">
-        <v>336000</v>
+        <v>48000</v>
       </c>
       <c r="S127" s="8" t="n"/>
       <c r="T127" s="1">
@@ -13027,12 +12331,17 @@
         <f>U127-X127</f>
         <v/>
       </c>
-      <c r="Z127" s="1" t="n"/>
+      <c r="Z127" s="1" t="n">
+        <v>192000</v>
+      </c>
       <c r="AA127" s="1" t="n"/>
-      <c r="AB127" s="1" t="n"/>
+      <c r="AB127" s="1">
+        <f>Z127+AA127</f>
+        <v/>
+      </c>
       <c r="AC127" s="1" t="n"/>
       <c r="AD127" s="1" t="n">
-        <v>336000</v>
+        <v>240000</v>
       </c>
       <c r="AE127" s="1" t="n"/>
     </row>
@@ -13093,13 +12402,13 @@
         <v>90789.84300014751</v>
       </c>
       <c r="P128" s="1" t="n">
-        <v>141000</v>
+        <v>24000</v>
       </c>
       <c r="Q128" s="1" t="n">
         <v>16000</v>
       </c>
       <c r="R128" s="1" t="n">
-        <v>128000</v>
+        <v>24000</v>
       </c>
       <c r="S128" s="8" t="n"/>
       <c r="T128" s="1">
@@ -13121,12 +12430,17 @@
         <f>U128-X128</f>
         <v/>
       </c>
-      <c r="Z128" s="1" t="n"/>
+      <c r="Z128" s="1" t="n">
+        <v>64000</v>
+      </c>
       <c r="AA128" s="1" t="n"/>
-      <c r="AB128" s="1" t="n"/>
+      <c r="AB128" s="1">
+        <f>Z128+AA128</f>
+        <v/>
+      </c>
       <c r="AC128" s="1" t="n"/>
       <c r="AD128" s="1" t="n">
-        <v>128000</v>
+        <v>88000</v>
       </c>
       <c r="AE128" s="1" t="n"/>
     </row>
@@ -13187,13 +12501,13 @@
         <v>61671.61853444947</v>
       </c>
       <c r="P129" s="1" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q129" s="1" t="n">
         <v>8000</v>
       </c>
       <c r="R129" s="1" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="S129" s="8" t="n"/>
       <c r="T129" s="1">
@@ -13225,7 +12539,7 @@
       </c>
       <c r="AC129" s="1" t="n"/>
       <c r="AD129" s="1" t="n">
-        <v>56000</v>
+        <v>61000</v>
       </c>
       <c r="AE129" s="1" t="n"/>
     </row>
@@ -13555,24 +12869,22 @@
       <c r="K133" s="1" t="n">
         <v>47547.94574548569</v>
       </c>
-      <c r="L133" s="1" t="n">
-        <v>336000</v>
-      </c>
+      <c r="L133" s="1" t="n"/>
       <c r="M133" s="1" t="n">
         <v>13025.35988671113</v>
       </c>
       <c r="N133" s="1" t="n"/>
       <c r="O133" s="1" t="n">
-        <v>395270.7696435257</v>
+        <v>59270.76964352571</v>
       </c>
       <c r="P133" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Q133" s="1" t="n">
         <v>22900</v>
       </c>
       <c r="R133" s="1" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="S133" s="8" t="n"/>
       <c r="T133" s="1">
@@ -13595,7 +12907,7 @@
         <v/>
       </c>
       <c r="Z133" s="1" t="n">
-        <v>366400</v>
+        <v>45800</v>
       </c>
       <c r="AA133" s="1" t="n"/>
       <c r="AB133" s="1">
@@ -13604,7 +12916,7 @@
       </c>
       <c r="AC133" s="1" t="n"/>
       <c r="AD133" s="1" t="n">
-        <v>390400</v>
+        <v>45800</v>
       </c>
       <c r="AE133" s="1" t="n"/>
     </row>
@@ -13654,24 +12966,22 @@
       <c r="K134" s="1" t="n">
         <v>281468.6803920552</v>
       </c>
-      <c r="L134" s="1" t="n">
-        <v>1632000</v>
-      </c>
+      <c r="L134" s="1" t="n"/>
       <c r="M134" s="1" t="n">
         <v>12861.67327406388</v>
       </c>
       <c r="N134" s="1" t="n"/>
       <c r="O134" s="1" t="n">
-        <v>1925044.186338713</v>
+        <v>293044.1863387127</v>
       </c>
       <c r="P134" s="1" t="n">
-        <v>264000</v>
+        <v>408000</v>
       </c>
       <c r="Q134" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R134" s="1" t="n">
-        <v>264000</v>
+        <v>408000</v>
       </c>
       <c r="S134" s="8" t="n"/>
       <c r="T134" s="1">
@@ -13693,17 +13003,12 @@
         <f>U134-X134</f>
         <v/>
       </c>
-      <c r="Z134" s="1" t="n">
-        <v>1656000</v>
-      </c>
+      <c r="Z134" s="1" t="n"/>
       <c r="AA134" s="1" t="n"/>
-      <c r="AB134" s="1">
-        <f>Z134+AA134</f>
-        <v/>
-      </c>
+      <c r="AB134" s="1" t="n"/>
       <c r="AC134" s="1" t="n"/>
       <c r="AD134" s="1" t="n">
-        <v>1920000</v>
+        <v>408000</v>
       </c>
       <c r="AE134" s="1" t="n"/>
     </row>
@@ -13753,9 +13058,7 @@
       <c r="K135" s="1" t="n">
         <v>55557.1605493284</v>
       </c>
-      <c r="L135" s="1" t="n">
-        <v>360000</v>
-      </c>
+      <c r="L135" s="1" t="n"/>
       <c r="M135" s="1" t="n">
         <v>14343.85411700897</v>
       </c>
@@ -13763,16 +13066,16 @@
         <v>24000</v>
       </c>
       <c r="O135" s="1" t="n">
-        <v>404466.6292546365</v>
+        <v>44466.62925463647</v>
       </c>
       <c r="P135" s="1" t="n">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="Q135" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R135" s="1" t="n">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="S135" s="8" t="n"/>
       <c r="T135" s="1">
@@ -13794,17 +13097,12 @@
         <f>U135-X135</f>
         <v/>
       </c>
-      <c r="Z135" s="1" t="n">
-        <v>312000</v>
-      </c>
+      <c r="Z135" s="1" t="n"/>
       <c r="AA135" s="1" t="n"/>
-      <c r="AB135" s="1">
-        <f>Z135+AA135</f>
-        <v/>
-      </c>
+      <c r="AB135" s="1" t="n"/>
       <c r="AC135" s="1" t="n"/>
       <c r="AD135" s="1" t="n">
-        <v>384000</v>
+        <v>24000</v>
       </c>
       <c r="AE135" s="1" t="n"/>
     </row>
@@ -13854,9 +13152,7 @@
       <c r="K136" s="1" t="n">
         <v>151049.0271252329</v>
       </c>
-      <c r="L136" s="1" t="n">
-        <v>768000</v>
-      </c>
+      <c r="L136" s="1" t="n"/>
       <c r="M136" s="1" t="n">
         <v>60281.5573381625</v>
       </c>
@@ -13864,16 +13160,16 @@
         <v>48000</v>
       </c>
       <c r="O136" s="1" t="n">
-        <v>925302.4287295791</v>
+        <v>157302.4287295792</v>
       </c>
       <c r="P136" s="1" t="n">
-        <v>214000</v>
+        <v>166000</v>
       </c>
       <c r="Q136" s="1" t="n">
         <v>23950</v>
       </c>
       <c r="R136" s="1" t="n">
-        <v>214000</v>
+        <v>143700</v>
       </c>
       <c r="S136" s="8" t="n"/>
       <c r="T136" s="1">
@@ -13895,17 +13191,12 @@
         <f>U136-X136</f>
         <v/>
       </c>
-      <c r="Z136" s="1" t="n">
-        <v>694550</v>
-      </c>
+      <c r="Z136" s="1" t="n"/>
       <c r="AA136" s="1" t="n"/>
-      <c r="AB136" s="1">
-        <f>Z136+AA136</f>
-        <v/>
-      </c>
+      <c r="AB136" s="1" t="n"/>
       <c r="AC136" s="1" t="n"/>
       <c r="AD136" s="1" t="n">
-        <v>908550</v>
+        <v>143700</v>
       </c>
       <c r="AE136" s="1" t="n"/>
     </row>
@@ -14047,9 +13338,7 @@
       <c r="K138" s="1" t="n">
         <v>11397.43130206933</v>
       </c>
-      <c r="L138" s="1" t="n">
-        <v>216000</v>
-      </c>
+      <c r="L138" s="1" t="n"/>
       <c r="M138" s="1" t="n">
         <v>8494.388940787443</v>
       </c>
@@ -14057,16 +13346,16 @@
         <v>24000</v>
       </c>
       <c r="O138" s="1" t="n">
-        <v>211042.381348778</v>
+        <v>-4957.618651221968</v>
       </c>
       <c r="P138" s="1" t="n">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="Q138" s="1" t="n">
         <v>22100</v>
       </c>
       <c r="R138" s="1" t="n">
-        <v>48000</v>
+        <v>22100</v>
       </c>
       <c r="S138" s="8" t="n"/>
       <c r="T138" s="1">
@@ -14088,18 +13377,11 @@
         <f>U138-X138</f>
         <v/>
       </c>
-      <c r="Z138" s="1" t="n">
-        <v>154700</v>
-      </c>
+      <c r="Z138" s="1" t="n"/>
       <c r="AA138" s="1" t="n"/>
-      <c r="AB138" s="1">
-        <f>Z138+AA138</f>
-        <v/>
-      </c>
+      <c r="AB138" s="1" t="n"/>
       <c r="AC138" s="1" t="n"/>
-      <c r="AD138" s="1" t="n">
-        <v>202700</v>
-      </c>
+      <c r="AD138" s="1" t="n"/>
       <c r="AE138" s="1" t="n"/>
     </row>
     <row r="139">
@@ -14148,9 +13430,7 @@
       <c r="K139" s="1" t="n">
         <v>14103.95</v>
       </c>
-      <c r="L139" s="1" t="n">
-        <v>672000</v>
-      </c>
+      <c r="L139" s="1" t="n"/>
       <c r="M139" s="1" t="n">
         <v>0</v>
       </c>
@@ -14158,16 +13438,16 @@
         <v>48000</v>
       </c>
       <c r="O139" s="1" t="n">
-        <v>638103.95</v>
+        <v>-33896.05</v>
       </c>
       <c r="P139" s="1" t="n">
-        <v>48000</v>
+        <v>72000</v>
       </c>
       <c r="Q139" s="1" t="n">
         <v>23400</v>
       </c>
       <c r="R139" s="1" t="n">
-        <v>48000</v>
+        <v>70200</v>
       </c>
       <c r="S139" s="8" t="n"/>
       <c r="T139" s="1">
@@ -14189,18 +13469,11 @@
         <f>U139-X139</f>
         <v/>
       </c>
-      <c r="Z139" s="1" t="n">
-        <v>585000</v>
-      </c>
+      <c r="Z139" s="1" t="n"/>
       <c r="AA139" s="1" t="n"/>
-      <c r="AB139" s="1">
-        <f>Z139+AA139</f>
-        <v/>
-      </c>
+      <c r="AB139" s="1" t="n"/>
       <c r="AC139" s="1" t="n"/>
-      <c r="AD139" s="1" t="n">
-        <v>633000</v>
-      </c>
+      <c r="AD139" s="1" t="n"/>
       <c r="AE139" s="1" t="n"/>
     </row>
     <row r="140">
@@ -14249,9 +13522,7 @@
       <c r="K140" s="1" t="n">
         <v>11900</v>
       </c>
-      <c r="L140" s="1" t="n">
-        <v>96000</v>
-      </c>
+      <c r="L140" s="1" t="n"/>
       <c r="M140" s="1" t="n">
         <v>75962.54665154051</v>
       </c>
@@ -14259,16 +13530,16 @@
         <v>24000</v>
       </c>
       <c r="O140" s="1" t="n">
-        <v>159862.5466515405</v>
+        <v>63862.54665154051</v>
       </c>
       <c r="P140" s="1" t="n">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="Q140" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R140" s="1" t="n">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="S140" s="8" t="n"/>
       <c r="T140" s="1">
@@ -14291,7 +13562,7 @@
         <v/>
       </c>
       <c r="Z140" s="1" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="AA140" s="1" t="n"/>
       <c r="AB140" s="1">
@@ -14300,7 +13571,7 @@
       </c>
       <c r="AC140" s="1" t="n"/>
       <c r="AD140" s="1" t="n">
-        <v>144000</v>
+        <v>48000</v>
       </c>
       <c r="AE140" s="1" t="n"/>
     </row>
@@ -14350,24 +13621,22 @@
       <c r="K141" s="1" t="n">
         <v>56254.98771364108</v>
       </c>
-      <c r="L141" s="1" t="n">
-        <v>161200</v>
-      </c>
+      <c r="L141" s="1" t="n"/>
       <c r="M141" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N141" s="1" t="n"/>
       <c r="O141" s="1" t="n">
-        <v>217454.9877136411</v>
+        <v>56254.98771364108</v>
       </c>
       <c r="P141" s="1" t="n">
-        <v>24000</v>
+        <v>72000</v>
       </c>
       <c r="Q141" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R141" s="1" t="n">
-        <v>24000</v>
+        <v>72000</v>
       </c>
       <c r="S141" s="8" t="n"/>
       <c r="T141" s="1">
@@ -14389,17 +13658,12 @@
         <f>U141-X141</f>
         <v/>
       </c>
-      <c r="Z141" s="1" t="n">
-        <v>192000</v>
-      </c>
+      <c r="Z141" s="1" t="n"/>
       <c r="AA141" s="1" t="n"/>
-      <c r="AB141" s="1">
-        <f>Z141+AA141</f>
-        <v/>
-      </c>
+      <c r="AB141" s="1" t="n"/>
       <c r="AC141" s="1" t="n"/>
       <c r="AD141" s="1" t="n">
-        <v>216000</v>
+        <v>72000</v>
       </c>
       <c r="AE141" s="1" t="n"/>
     </row>
@@ -14449,15 +13713,13 @@
       <c r="K142" s="1" t="n">
         <v>20054.76458505856</v>
       </c>
-      <c r="L142" s="1" t="n">
-        <v>120000</v>
-      </c>
+      <c r="L142" s="1" t="n"/>
       <c r="M142" s="1" t="n">
         <v>17923.39917790415</v>
       </c>
       <c r="N142" s="1" t="n"/>
       <c r="O142" s="1" t="n">
-        <v>157081.9938040675</v>
+        <v>37081.99380406751</v>
       </c>
       <c r="P142" s="1" t="n">
         <v>48000</v>
@@ -14488,17 +13750,12 @@
         <f>U142-X142</f>
         <v/>
       </c>
-      <c r="Z142" s="1" t="n">
-        <v>96000</v>
-      </c>
+      <c r="Z142" s="1" t="n"/>
       <c r="AA142" s="1" t="n"/>
-      <c r="AB142" s="1">
-        <f>Z142+AA142</f>
-        <v/>
-      </c>
+      <c r="AB142" s="1" t="n"/>
       <c r="AC142" s="1" t="n"/>
       <c r="AD142" s="1" t="n">
-        <v>144000</v>
+        <v>48000</v>
       </c>
       <c r="AE142" s="1" t="n"/>
     </row>
@@ -14548,24 +13805,22 @@
       <c r="K143" s="1" t="n">
         <v>38696.30970783874</v>
       </c>
-      <c r="L143" s="1" t="n">
-        <v>99694</v>
-      </c>
+      <c r="L143" s="1" t="n"/>
       <c r="M143" s="1" t="n">
         <v>9000</v>
       </c>
       <c r="N143" s="1" t="n"/>
       <c r="O143" s="1" t="n">
-        <v>146940.3097078388</v>
+        <v>47246.30970783874</v>
       </c>
       <c r="P143" s="1" t="n">
-        <v>71985</v>
+        <v>71995</v>
       </c>
       <c r="Q143" s="1" t="n">
         <v>24000</v>
       </c>
       <c r="R143" s="1" t="n">
-        <v>71985</v>
+        <v>48000</v>
       </c>
       <c r="S143" s="8" t="n"/>
       <c r="T143" s="1">
@@ -14587,17 +13842,12 @@
         <f>U143-X143</f>
         <v/>
       </c>
-      <c r="Z143" s="1" t="n">
-        <v>72000</v>
-      </c>
+      <c r="Z143" s="1" t="n"/>
       <c r="AA143" s="1" t="n"/>
-      <c r="AB143" s="1">
-        <f>Z143+AA143</f>
-        <v/>
-      </c>
+      <c r="AB143" s="1" t="n"/>
       <c r="AC143" s="1" t="n"/>
       <c r="AD143" s="1" t="n">
-        <v>143985</v>
+        <v>48000</v>
       </c>
       <c r="AE143" s="1" t="n"/>
     </row>
@@ -14647,24 +13897,22 @@
       <c r="K144" s="1" t="n">
         <v>1415.926619507741</v>
       </c>
-      <c r="L144" s="1" t="n">
-        <v>24000</v>
-      </c>
+      <c r="L144" s="1" t="n"/>
       <c r="M144" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N144" s="1" t="n"/>
       <c r="O144" s="1" t="n">
-        <v>25415.92661950774</v>
+        <v>1415.926619507741</v>
       </c>
       <c r="P144" s="1" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="Q144" s="1" t="n">
         <v>18000</v>
       </c>
       <c r="R144" s="1" t="n">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="S144" s="8" t="n"/>
       <c r="T144" s="1">
@@ -14691,7 +13939,7 @@
       <c r="AB144" s="1" t="n"/>
       <c r="AC144" s="1" t="n"/>
       <c r="AD144" s="1" t="n">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="AE144" s="1" t="n"/>
     </row>
@@ -14741,24 +13989,22 @@
       <c r="K145" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L145" s="1" t="n">
-        <v>47880</v>
-      </c>
+      <c r="L145" s="1" t="n"/>
       <c r="M145" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="N145" s="1" t="n"/>
       <c r="O145" s="1" t="n">
-        <v>51120</v>
+        <v>3240</v>
       </c>
       <c r="P145" s="1" t="n">
-        <v>47880</v>
+        <v>0</v>
       </c>
       <c r="Q145" s="1" t="n">
         <v>23900</v>
       </c>
       <c r="R145" s="1" t="n">
-        <v>47880</v>
+        <v>0</v>
       </c>
       <c r="S145" s="8" t="n"/>
       <c r="T145" s="1">
@@ -14785,7 +14031,7 @@
       <c r="AB145" s="1" t="n"/>
       <c r="AC145" s="1" t="n"/>
       <c r="AD145" s="1" t="n">
-        <v>47880</v>
+        <v>0</v>
       </c>
       <c r="AE145" s="1" t="n"/>
     </row>
@@ -14835,15 +14081,13 @@
       <c r="K146" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L146" s="1" t="n">
-        <v>109085</v>
-      </c>
+      <c r="L146" s="1" t="n"/>
       <c r="M146" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N146" s="1" t="n"/>
       <c r="O146" s="1" t="n">
-        <v>109085</v>
+        <v>0</v>
       </c>
       <c r="P146" s="1" t="n">
         <v>0</v>
@@ -14874,18 +14118,11 @@
         <f>U146-X146</f>
         <v/>
       </c>
-      <c r="Z146" s="1" t="n">
-        <v>95000</v>
-      </c>
+      <c r="Z146" s="1" t="n"/>
       <c r="AA146" s="1" t="n"/>
-      <c r="AB146" s="1">
-        <f>Z146+AA146</f>
-        <v/>
-      </c>
+      <c r="AB146" s="1" t="n"/>
       <c r="AC146" s="1" t="n"/>
-      <c r="AD146" s="1" t="n">
-        <v>95000</v>
-      </c>
+      <c r="AD146" s="1" t="n"/>
       <c r="AE146" s="1" t="n"/>
     </row>
     <row r="147">
@@ -14934,9 +14171,7 @@
       <c r="K147" s="1" t="n">
         <v>62751.22351817205</v>
       </c>
-      <c r="L147" s="1" t="n">
-        <v>290000</v>
-      </c>
+      <c r="L147" s="1" t="n"/>
       <c r="M147" s="1" t="n">
         <v>13678.82868260178</v>
       </c>
@@ -14944,16 +14179,16 @@
         <v>5500</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>359562.1693325136</v>
+        <v>69562.16933251366</v>
       </c>
       <c r="P147" s="1" t="n">
-        <v>61000</v>
+        <v>64000</v>
       </c>
       <c r="Q147" s="1" t="n">
         <v>2375</v>
       </c>
       <c r="R147" s="1" t="n">
-        <v>61000</v>
+        <v>64000</v>
       </c>
       <c r="S147" s="8" t="n"/>
       <c r="T147" s="1">
@@ -14965,7 +14200,7 @@
         <v/>
       </c>
       <c r="V147" s="1" t="n">
-        <v>296875</v>
+        <v>4750</v>
       </c>
       <c r="W147" s="8" t="n"/>
       <c r="X147" s="1">
@@ -14981,7 +14216,7 @@
       <c r="AB147" s="1" t="n"/>
       <c r="AC147" s="1" t="n"/>
       <c r="AD147" s="1" t="n">
-        <v>357875</v>
+        <v>68750</v>
       </c>
       <c r="AE147" s="1" t="n"/>
     </row>
@@ -15031,9 +14266,7 @@
       <c r="K148" s="1" t="n">
         <v>373256.7878239269</v>
       </c>
-      <c r="L148" s="1" t="n">
-        <v>3537400</v>
-      </c>
+      <c r="L148" s="1" t="n"/>
       <c r="M148" s="1" t="n">
         <v>144677.4117376989</v>
       </c>
@@ -15041,16 +14274,16 @@
         <v>1800</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>4039066.458387856</v>
+        <v>501666.458387856</v>
       </c>
       <c r="P148" s="1" t="n">
-        <v>438660</v>
+        <v>352500</v>
       </c>
       <c r="Q148" s="1" t="n">
         <v>7850</v>
       </c>
       <c r="R148" s="1" t="n">
-        <v>438660</v>
+        <v>352500</v>
       </c>
       <c r="S148" s="8" t="n"/>
       <c r="T148" s="1">
@@ -15073,7 +14306,7 @@
         <v/>
       </c>
       <c r="Z148" s="1" t="n">
-        <v>3595300</v>
+        <v>149150</v>
       </c>
       <c r="AA148" s="1" t="n"/>
       <c r="AB148" s="1">
@@ -15082,7 +14315,7 @@
       </c>
       <c r="AC148" s="1" t="n"/>
       <c r="AD148" s="1" t="n">
-        <v>4033960</v>
+        <v>501650</v>
       </c>
       <c r="AE148" s="1" t="n"/>
     </row>
@@ -15132,24 +14365,22 @@
       <c r="K149" s="1" t="n">
         <v>4053.330898700236</v>
       </c>
-      <c r="L149" s="1" t="n">
-        <v>64000</v>
-      </c>
+      <c r="L149" s="1" t="n"/>
       <c r="M149" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N149" s="1" t="n"/>
       <c r="O149" s="1" t="n">
-        <v>68053.33089870024</v>
+        <v>4053.330898700236</v>
       </c>
       <c r="P149" s="1" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q149" s="1" t="n">
         <v>2500</v>
       </c>
       <c r="R149" s="1" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="S149" s="8" t="n"/>
       <c r="T149" s="1">
@@ -15161,12 +14392,11 @@
         <v/>
       </c>
       <c r="V149" s="1" t="n">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="W149" s="8" t="n"/>
-      <c r="X149" s="1">
-        <f>V149+W149</f>
-        <v/>
+      <c r="X149" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y149" s="1">
         <f>U149-X149</f>
@@ -15177,7 +14407,7 @@
       <c r="AB149" s="1" t="n"/>
       <c r="AC149" s="1" t="n"/>
       <c r="AD149" s="1" t="n">
-        <v>66500</v>
+        <v>7500</v>
       </c>
       <c r="AE149" s="1" t="n"/>
     </row>
@@ -15227,9 +14457,7 @@
       <c r="K150" s="1" t="n">
         <v>189129.9201076982</v>
       </c>
-      <c r="L150" s="1" t="n">
-        <v>1872000</v>
-      </c>
+      <c r="L150" s="1" t="n"/>
       <c r="M150" s="1" t="n">
         <v>0</v>
       </c>
@@ -15237,16 +14465,16 @@
         <v>24000</v>
       </c>
       <c r="O150" s="1" t="n">
-        <v>2037129.920107698</v>
+        <v>165129.9201076982</v>
       </c>
       <c r="P150" s="1" t="n">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="Q150" s="1" t="n">
         <v>23900</v>
       </c>
       <c r="R150" s="1" t="n">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="S150" s="8" t="n"/>
       <c r="T150" s="1">
@@ -15269,7 +14497,7 @@
         <v/>
       </c>
       <c r="Z150" s="1" t="n">
-        <v>1983700</v>
+        <v>119500</v>
       </c>
       <c r="AA150" s="1" t="n"/>
       <c r="AB150" s="1">
@@ -15278,7 +14506,7 @@
       </c>
       <c r="AC150" s="1" t="n"/>
       <c r="AD150" s="1" t="n">
-        <v>2031700</v>
+        <v>143500</v>
       </c>
       <c r="AE150" s="1" t="n"/>
     </row>
@@ -15328,9 +14556,7 @@
       <c r="K151" s="1" t="n">
         <v>25420.51770833391</v>
       </c>
-      <c r="L151" s="1" t="n">
-        <v>720000</v>
-      </c>
+      <c r="L151" s="1" t="n"/>
       <c r="M151" s="1" t="n">
         <v>18200.44175441534</v>
       </c>
@@ -15338,16 +14564,16 @@
         <v>5000</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>756800.9152873077</v>
+        <v>36800.91528730773</v>
       </c>
       <c r="P151" s="1" t="n">
-        <v>110000</v>
+        <v>88800</v>
       </c>
       <c r="Q151" s="1" t="n">
         <v>6975</v>
       </c>
       <c r="R151" s="1" t="n">
-        <v>110000</v>
+        <v>83700</v>
       </c>
       <c r="S151" s="8" t="n"/>
       <c r="T151" s="1">
@@ -15369,17 +14595,12 @@
         <f>U151-X151</f>
         <v/>
       </c>
-      <c r="Z151" s="1" t="n">
-        <v>641700</v>
-      </c>
+      <c r="Z151" s="1" t="n"/>
       <c r="AA151" s="1" t="n"/>
-      <c r="AB151" s="1">
-        <f>Z151+AA151</f>
-        <v/>
-      </c>
+      <c r="AB151" s="1" t="n"/>
       <c r="AC151" s="1" t="n"/>
       <c r="AD151" s="1" t="n">
-        <v>751700</v>
+        <v>83700</v>
       </c>
       <c r="AE151" s="1" t="n"/>
     </row>
@@ -15429,9 +14650,7 @@
       <c r="K152" s="1" t="n">
         <v>144900.5858650408</v>
       </c>
-      <c r="L152" s="1" t="n">
-        <v>1332950</v>
-      </c>
+      <c r="L152" s="1" t="n"/>
       <c r="M152" s="1" t="n">
         <v>46510.47347699921</v>
       </c>
@@ -15439,16 +14658,16 @@
         <v>15800</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>1503910.01199434</v>
+        <v>170960.01199434</v>
       </c>
       <c r="P152" s="1" t="n">
-        <v>219730</v>
+        <v>196000</v>
       </c>
       <c r="Q152" s="1" t="n">
         <v>5050</v>
       </c>
       <c r="R152" s="1" t="n">
-        <v>219730</v>
+        <v>191900</v>
       </c>
       <c r="S152" s="8" t="n"/>
       <c r="T152" s="1">
@@ -15470,17 +14689,12 @@
         <f>U152-X152</f>
         <v/>
       </c>
-      <c r="Z152" s="1" t="n">
-        <v>1282700</v>
-      </c>
+      <c r="Z152" s="1" t="n"/>
       <c r="AA152" s="1" t="n"/>
-      <c r="AB152" s="1">
-        <f>Z152+AA152</f>
-        <v/>
-      </c>
+      <c r="AB152" s="1" t="n"/>
       <c r="AC152" s="1" t="n"/>
       <c r="AD152" s="1" t="n">
-        <v>1502430</v>
+        <v>191900</v>
       </c>
       <c r="AE152" s="1" t="n"/>
     </row>
@@ -15530,24 +14744,22 @@
       <c r="K153" s="1" t="n">
         <v>20544.30108625702</v>
       </c>
-      <c r="L153" s="1" t="n">
-        <v>162000</v>
-      </c>
+      <c r="L153" s="1" t="n"/>
       <c r="M153" s="1" t="n">
         <v>11390.51255530853</v>
       </c>
       <c r="N153" s="1" t="n"/>
       <c r="O153" s="1" t="n">
-        <v>192795.7623860347</v>
+        <v>30795.7623860347</v>
       </c>
       <c r="P153" s="1" t="n">
-        <v>64700</v>
+        <v>46300</v>
       </c>
       <c r="Q153" s="1" t="n">
         <v>2400</v>
       </c>
       <c r="R153" s="1" t="n">
-        <v>64700</v>
+        <v>45600</v>
       </c>
       <c r="S153" s="8" t="n"/>
       <c r="T153" s="1">
@@ -15559,12 +14771,11 @@
         <v/>
       </c>
       <c r="V153" s="1" t="n">
-        <v>127200</v>
+        <v>0</v>
       </c>
       <c r="W153" s="8" t="n"/>
-      <c r="X153" s="1">
-        <f>V153+W153</f>
-        <v/>
+      <c r="X153" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y153" s="1">
         <f>U153-X153</f>
@@ -15575,7 +14786,7 @@
       <c r="AB153" s="1" t="n"/>
       <c r="AC153" s="1" t="n"/>
       <c r="AD153" s="1" t="n">
-        <v>191900</v>
+        <v>45600</v>
       </c>
       <c r="AE153" s="1" t="n"/>
     </row>
@@ -15625,9 +14836,7 @@
       <c r="K154" s="1" t="n">
         <v>16167.6936533731</v>
       </c>
-      <c r="L154" s="1" t="n">
-        <v>85000</v>
-      </c>
+      <c r="L154" s="1" t="n"/>
       <c r="M154" s="1" t="n">
         <v>4077.195364129783</v>
       </c>
@@ -15635,16 +14844,16 @@
         <v>2500</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>102337.1694810899</v>
+        <v>17337.16948108991</v>
       </c>
       <c r="P154" s="1" t="n">
-        <v>16800</v>
+        <v>17000</v>
       </c>
       <c r="Q154" s="1" t="n">
         <v>1133.333333333333</v>
       </c>
       <c r="R154" s="1" t="n">
-        <v>16800</v>
+        <v>17000</v>
       </c>
       <c r="S154" s="8" t="n"/>
       <c r="T154" s="1">
@@ -15656,12 +14865,11 @@
         <v/>
       </c>
       <c r="V154" s="1" t="n">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="W154" s="8" t="n"/>
-      <c r="X154" s="1">
-        <f>V154+W154</f>
-        <v/>
+      <c r="X154" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y154" s="1">
         <f>U154-X154</f>
@@ -15672,7 +14880,7 @@
       <c r="AB154" s="1" t="n"/>
       <c r="AC154" s="1" t="n"/>
       <c r="AD154" s="1" t="n">
-        <v>101800</v>
+        <v>17000</v>
       </c>
       <c r="AE154" s="1" t="n"/>
     </row>
@@ -15722,9 +14930,7 @@
       <c r="K155" s="1" t="n">
         <v>169819.1742176684</v>
       </c>
-      <c r="L155" s="1" t="n">
-        <v>1285950</v>
-      </c>
+      <c r="L155" s="1" t="n"/>
       <c r="M155" s="1" t="n">
         <v>32251.76562593091</v>
       </c>
@@ -15732,16 +14938,16 @@
         <v>10860</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>1473935.763281006</v>
+        <v>187985.7632810063</v>
       </c>
       <c r="P155" s="1" t="n">
-        <v>196410</v>
+        <v>248400</v>
       </c>
       <c r="Q155" s="1" t="n">
         <v>3025</v>
       </c>
       <c r="R155" s="1" t="n">
-        <v>196410</v>
+        <v>248050</v>
       </c>
       <c r="S155" s="8" t="n"/>
       <c r="T155" s="1">
@@ -15753,12 +14959,11 @@
         <v/>
       </c>
       <c r="V155" s="1" t="n">
-        <v>1276550</v>
+        <v>0</v>
       </c>
       <c r="W155" s="8" t="n"/>
-      <c r="X155" s="1">
-        <f>V155+W155</f>
-        <v/>
+      <c r="X155" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y155" s="1">
         <f>U155-X155</f>
@@ -15769,7 +14974,7 @@
       <c r="AB155" s="1" t="n"/>
       <c r="AC155" s="1" t="n"/>
       <c r="AD155" s="1" t="n">
-        <v>1472960</v>
+        <v>248050</v>
       </c>
       <c r="AE155" s="1" t="n"/>
     </row>
@@ -15819,24 +15024,22 @@
       <c r="K156" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L156" s="1" t="n">
-        <v>110000</v>
-      </c>
+      <c r="L156" s="1" t="n"/>
       <c r="M156" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N156" s="1" t="n"/>
       <c r="O156" s="1" t="n">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="P156" s="1" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q156" s="1" t="n">
         <v>4150</v>
       </c>
       <c r="R156" s="1" t="n">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="S156" s="8" t="n"/>
       <c r="T156" s="1">
@@ -15848,12 +15051,11 @@
         <v/>
       </c>
       <c r="V156" s="1" t="n">
-        <v>107900</v>
+        <v>0</v>
       </c>
       <c r="W156" s="8" t="n"/>
-      <c r="X156" s="1">
-        <f>V156+W156</f>
-        <v/>
+      <c r="X156" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y156" s="1">
         <f>U156-X156</f>
@@ -15863,9 +15065,7 @@
       <c r="AA156" s="1" t="n"/>
       <c r="AB156" s="1" t="n"/>
       <c r="AC156" s="1" t="n"/>
-      <c r="AD156" s="1" t="n">
-        <v>107900</v>
-      </c>
+      <c r="AD156" s="1" t="n"/>
       <c r="AE156" s="1" t="n"/>
     </row>
     <row r="157">
@@ -15914,24 +15114,22 @@
       <c r="K157" s="1" t="n">
         <v>765.6549493824143</v>
       </c>
-      <c r="L157" s="1" t="n">
-        <v>21000</v>
-      </c>
+      <c r="L157" s="1" t="n"/>
       <c r="M157" s="1" t="n">
         <v>2620</v>
       </c>
       <c r="N157" s="1" t="n"/>
       <c r="O157" s="1" t="n">
-        <v>24123.65494938241</v>
+        <v>3123.654949382414</v>
       </c>
       <c r="P157" s="1" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q157" s="1" t="n">
         <v>2400</v>
       </c>
       <c r="R157" s="1" t="n">
-        <v>10000</v>
+        <v>16800</v>
       </c>
       <c r="S157" s="8" t="n"/>
       <c r="T157" s="1">
@@ -15943,12 +15141,11 @@
         <v/>
       </c>
       <c r="V157" s="1" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="W157" s="8" t="n"/>
-      <c r="X157" s="1">
-        <f>V157+W157</f>
-        <v/>
+      <c r="X157" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y157" s="1">
         <f>U157-X157</f>
@@ -15959,7 +15156,7 @@
       <c r="AB157" s="1" t="n"/>
       <c r="AC157" s="1" t="n"/>
       <c r="AD157" s="1" t="n">
-        <v>22000</v>
+        <v>16800</v>
       </c>
       <c r="AE157" s="1" t="n"/>
     </row>
@@ -16009,24 +15206,22 @@
       <c r="K158" s="1" t="n">
         <v>9048.649401792169</v>
       </c>
-      <c r="L158" s="1" t="n">
-        <v>65000</v>
-      </c>
+      <c r="L158" s="1" t="n"/>
       <c r="M158" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N158" s="1" t="n"/>
       <c r="O158" s="1" t="n">
-        <v>74048.64940179217</v>
+        <v>9048.649401792169</v>
       </c>
       <c r="P158" s="1" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="Q158" s="1" t="n">
         <v>2500</v>
       </c>
       <c r="R158" s="1" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="S158" s="8" t="n"/>
       <c r="T158" s="1">
@@ -16038,12 +15233,11 @@
         <v/>
       </c>
       <c r="V158" s="1" t="n">
-        <v>52500</v>
+        <v>0</v>
       </c>
       <c r="W158" s="8" t="n"/>
-      <c r="X158" s="1">
-        <f>V158+W158</f>
-        <v/>
+      <c r="X158" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y158" s="1">
         <f>U158-X158</f>
@@ -16054,7 +15248,7 @@
       <c r="AB158" s="1" t="n"/>
       <c r="AC158" s="1" t="n"/>
       <c r="AD158" s="1" t="n">
-        <v>72000</v>
+        <v>9000</v>
       </c>
       <c r="AE158" s="1" t="n"/>
     </row>
@@ -16104,24 +15298,22 @@
       <c r="K159" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L159" s="1" t="n">
-        <v>1500</v>
-      </c>
+      <c r="L159" s="1" t="n"/>
       <c r="M159" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N159" s="1" t="n"/>
       <c r="O159" s="1" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P159" s="1" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q159" s="1" t="n">
         <v>500</v>
       </c>
       <c r="R159" s="1" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S159" s="8" t="n"/>
       <c r="T159" s="1">
@@ -16143,18 +15335,11 @@
         <f>U159-X159</f>
         <v/>
       </c>
-      <c r="Z159" s="1" t="n">
-        <v>1000</v>
-      </c>
+      <c r="Z159" s="1" t="n"/>
       <c r="AA159" s="1" t="n"/>
-      <c r="AB159" s="1">
-        <f>Z159+AA159</f>
-        <v/>
-      </c>
+      <c r="AB159" s="1" t="n"/>
       <c r="AC159" s="1" t="n"/>
-      <c r="AD159" s="1" t="n">
-        <v>1500</v>
-      </c>
+      <c r="AD159" s="1" t="n"/>
       <c r="AE159" s="1" t="n"/>
     </row>
     <row r="160">
@@ -16203,24 +15388,22 @@
       <c r="K160" s="1" t="n">
         <v>2622.561548844209</v>
       </c>
-      <c r="L160" s="1" t="n">
-        <v>120000</v>
-      </c>
+      <c r="L160" s="1" t="n"/>
       <c r="M160" s="1" t="n">
         <v>1110.48390288185</v>
       </c>
       <c r="N160" s="1" t="n"/>
       <c r="O160" s="1" t="n">
-        <v>123621.9970614379</v>
+        <v>3621.997061437874</v>
       </c>
       <c r="P160" s="1" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="Q160" s="1" t="n">
         <v>3100</v>
       </c>
       <c r="R160" s="1" t="n">
-        <v>19500</v>
+        <v>9300</v>
       </c>
       <c r="S160" s="8" t="n"/>
       <c r="T160" s="1">
@@ -16232,12 +15415,11 @@
         <v/>
       </c>
       <c r="V160" s="1" t="n">
-        <v>102300</v>
+        <v>0</v>
       </c>
       <c r="W160" s="8" t="n"/>
-      <c r="X160" s="1">
-        <f>V160+W160</f>
-        <v/>
+      <c r="X160" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y160" s="1">
         <f>U160-X160</f>
@@ -16248,7 +15430,7 @@
       <c r="AB160" s="1" t="n"/>
       <c r="AC160" s="1" t="n"/>
       <c r="AD160" s="1" t="n">
-        <v>121800</v>
+        <v>9300</v>
       </c>
       <c r="AE160" s="1" t="n"/>
     </row>
@@ -16298,15 +15480,13 @@
       <c r="K161" s="1" t="n">
         <v>776.4823931110545</v>
       </c>
-      <c r="L161" s="1" t="n">
-        <v>5500</v>
-      </c>
+      <c r="L161" s="1" t="n"/>
       <c r="M161" s="1" t="n">
         <v>156.445809373046</v>
       </c>
       <c r="N161" s="1" t="n"/>
       <c r="O161" s="1" t="n">
-        <v>6417.283621546796</v>
+        <v>917.283621546796</v>
       </c>
       <c r="P161" s="1" t="n">
         <v>1000</v>
@@ -16315,7 +15495,7 @@
         <v>800</v>
       </c>
       <c r="R161" s="1" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="S161" s="8" t="n"/>
       <c r="T161" s="1">
@@ -16327,12 +15507,11 @@
         <v/>
       </c>
       <c r="V161" s="1" t="n">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="W161" s="8" t="n"/>
-      <c r="X161" s="1">
-        <f>V161+W161</f>
-        <v/>
+      <c r="X161" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y161" s="1">
         <f>U161-X161</f>
@@ -16343,7 +15522,7 @@
       <c r="AB161" s="1" t="n"/>
       <c r="AC161" s="1" t="n"/>
       <c r="AD161" s="1" t="n">
-        <v>5800</v>
+        <v>800</v>
       </c>
       <c r="AE161" s="1" t="n"/>
     </row>
@@ -16393,15 +15572,13 @@
       <c r="K162" s="1" t="n">
         <v>1259.077027873303</v>
       </c>
-      <c r="L162" s="1" t="n">
-        <v>14000</v>
-      </c>
+      <c r="L162" s="1" t="n"/>
       <c r="M162" s="1" t="n">
         <v>1184.894392719165</v>
       </c>
       <c r="N162" s="1" t="n"/>
       <c r="O162" s="1" t="n">
-        <v>16325.48198132055</v>
+        <v>2325.481981320552</v>
       </c>
       <c r="P162" s="1" t="n">
         <v>2000</v>
@@ -16422,12 +15599,11 @@
         <v/>
       </c>
       <c r="V162" s="1" t="n">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="W162" s="8" t="n"/>
-      <c r="X162" s="1">
-        <f>V162+W162</f>
-        <v/>
+      <c r="X162" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y162" s="1">
         <f>U162-X162</f>
@@ -16438,7 +15614,7 @@
       <c r="AB162" s="1" t="n"/>
       <c r="AC162" s="1" t="n"/>
       <c r="AD162" s="1" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="AE162" s="1" t="n"/>
     </row>
@@ -16488,9 +15664,7 @@
       <c r="K163" s="1" t="n">
         <v>34351.61200678656</v>
       </c>
-      <c r="L163" s="1" t="n">
-        <v>110000</v>
-      </c>
+      <c r="L163" s="1" t="n"/>
       <c r="M163" s="1" t="n">
         <v>4030.970965989946</v>
       </c>
@@ -16498,16 +15672,16 @@
         <v>3000</v>
       </c>
       <c r="O163" s="1" t="n">
-        <v>144979.4858761775</v>
+        <v>34979.48587617752</v>
       </c>
       <c r="P163" s="1" t="n">
-        <v>44000</v>
+        <v>28000</v>
       </c>
       <c r="Q163" s="1" t="n">
         <v>2950</v>
       </c>
       <c r="R163" s="1" t="n">
-        <v>44000</v>
+        <v>28000</v>
       </c>
       <c r="S163" s="8" t="n"/>
       <c r="T163" s="1">
@@ -16519,7 +15693,7 @@
         <v/>
       </c>
       <c r="V163" s="1" t="n">
-        <v>100300</v>
+        <v>5900</v>
       </c>
       <c r="W163" s="8" t="n"/>
       <c r="X163" s="1">
@@ -16535,7 +15709,7 @@
       <c r="AB163" s="1" t="n"/>
       <c r="AC163" s="1" t="n"/>
       <c r="AD163" s="1" t="n">
-        <v>144300</v>
+        <v>33900</v>
       </c>
       <c r="AE163" s="1" t="n"/>
     </row>
@@ -16585,24 +15759,22 @@
       <c r="K164" s="1" t="n">
         <v>10736.18384578452</v>
       </c>
-      <c r="L164" s="1" t="n">
-        <v>31000</v>
-      </c>
+      <c r="L164" s="1" t="n"/>
       <c r="M164" s="1" t="n">
         <v>6617.391568722924</v>
       </c>
       <c r="N164" s="1" t="n"/>
       <c r="O164" s="1" t="n">
-        <v>47691.83625763515</v>
+        <v>16691.83625763515</v>
       </c>
       <c r="P164" s="1" t="n">
-        <v>9200</v>
+        <v>6000</v>
       </c>
       <c r="Q164" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="R164" s="1" t="n">
-        <v>9200</v>
+        <v>6000</v>
       </c>
       <c r="S164" s="8" t="n"/>
       <c r="T164" s="1">
@@ -16614,7 +15786,7 @@
         <v/>
       </c>
       <c r="V164" s="1" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="W164" s="8" t="n"/>
       <c r="X164" s="1">
@@ -16630,7 +15802,7 @@
       <c r="AB164" s="1" t="n"/>
       <c r="AC164" s="1" t="n"/>
       <c r="AD164" s="1" t="n">
-        <v>45200</v>
+        <v>15000</v>
       </c>
       <c r="AE164" s="1" t="n"/>
     </row>
@@ -16680,24 +15852,22 @@
       <c r="K165" s="1" t="n">
         <v>6839.850881149568</v>
       </c>
-      <c r="L165" s="1" t="n">
-        <v>66000</v>
-      </c>
+      <c r="L165" s="1" t="n"/>
       <c r="M165" s="1" t="n">
         <v>2092</v>
       </c>
       <c r="N165" s="1" t="n"/>
       <c r="O165" s="1" t="n">
-        <v>74722.65088114957</v>
+        <v>8722.650881149568</v>
       </c>
       <c r="P165" s="1" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q165" s="1" t="n">
         <v>1400</v>
       </c>
       <c r="R165" s="1" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="S165" s="8" t="n"/>
       <c r="T165" s="1">
@@ -16709,12 +15879,11 @@
         <v/>
       </c>
       <c r="V165" s="1" t="n">
-        <v>64400</v>
+        <v>0</v>
       </c>
       <c r="W165" s="8" t="n"/>
-      <c r="X165" s="1">
-        <f>V165+W165</f>
-        <v/>
+      <c r="X165" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y165" s="1">
         <f>U165-X165</f>
@@ -16725,7 +15894,7 @@
       <c r="AB165" s="1" t="n"/>
       <c r="AC165" s="1" t="n"/>
       <c r="AD165" s="1" t="n">
-        <v>73400</v>
+        <v>7500</v>
       </c>
       <c r="AE165" s="1" t="n"/>
     </row>
@@ -16775,9 +15944,7 @@
       <c r="K166" s="1" t="n">
         <v>35027.55385098881</v>
       </c>
-      <c r="L166" s="1" t="n">
-        <v>491500</v>
-      </c>
+      <c r="L166" s="1" t="n"/>
       <c r="M166" s="1" t="n">
         <v>8044.745809428076</v>
       </c>
@@ -16785,16 +15952,16 @@
         <v>3000</v>
       </c>
       <c r="O166" s="1" t="n">
-        <v>530767.8250794741</v>
+        <v>39267.82507947408</v>
       </c>
       <c r="P166" s="1" t="n">
-        <v>10000</v>
+        <v>20800</v>
       </c>
       <c r="Q166" s="1" t="n">
         <v>4033.333333333333</v>
       </c>
       <c r="R166" s="1" t="n">
-        <v>10000</v>
+        <v>20800</v>
       </c>
       <c r="S166" s="8" t="n"/>
       <c r="T166" s="1">
@@ -16806,7 +15973,7 @@
         <v/>
       </c>
       <c r="V166" s="1" t="n">
-        <v>520300</v>
+        <v>16133.33333333333</v>
       </c>
       <c r="W166" s="8" t="n"/>
       <c r="X166" s="1">
@@ -16822,7 +15989,7 @@
       <c r="AB166" s="1" t="n"/>
       <c r="AC166" s="1" t="n"/>
       <c r="AD166" s="1" t="n">
-        <v>530300</v>
+        <v>36933.33333333334</v>
       </c>
       <c r="AE166" s="1" t="n"/>
     </row>
@@ -16872,24 +16039,22 @@
       <c r="K167" s="1" t="n">
         <v>480.274468248969</v>
       </c>
-      <c r="L167" s="1" t="n">
-        <v>18000</v>
-      </c>
+      <c r="L167" s="1" t="n"/>
       <c r="M167" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N167" s="1" t="n"/>
       <c r="O167" s="1" t="n">
-        <v>18480.27446824897</v>
+        <v>480.274468248969</v>
       </c>
       <c r="P167" s="1" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q167" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="R167" s="1" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="S167" s="8" t="n"/>
       <c r="T167" s="1">
@@ -16901,12 +16066,11 @@
         <v/>
       </c>
       <c r="V167" s="1" t="n">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="W167" s="8" t="n"/>
-      <c r="X167" s="1">
-        <f>V167+W167</f>
-        <v/>
+      <c r="X167" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y167" s="1">
         <f>U167-X167</f>
@@ -16917,7 +16081,7 @@
       <c r="AB167" s="1" t="n"/>
       <c r="AC167" s="1" t="n"/>
       <c r="AD167" s="1" t="n">
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="AE167" s="1" t="n"/>
     </row>
@@ -16967,24 +16131,22 @@
       <c r="K168" s="1" t="n">
         <v>9758.620354855862</v>
       </c>
-      <c r="L168" s="1" t="n">
-        <v>52000</v>
-      </c>
+      <c r="L168" s="1" t="n"/>
       <c r="M168" s="1" t="n">
         <v>2618</v>
       </c>
       <c r="N168" s="1" t="n"/>
       <c r="O168" s="1" t="n">
-        <v>64114.82035485586</v>
+        <v>12114.82035485586</v>
       </c>
       <c r="P168" s="1" t="n">
-        <v>25500</v>
+        <v>1500</v>
       </c>
       <c r="Q168" s="1" t="n">
         <v>1400</v>
       </c>
       <c r="R168" s="1" t="n">
-        <v>25500</v>
+        <v>1500</v>
       </c>
       <c r="S168" s="8" t="n"/>
       <c r="T168" s="1">
@@ -16996,7 +16158,7 @@
         <v/>
       </c>
       <c r="V168" s="1" t="n">
-        <v>37800</v>
+        <v>9800</v>
       </c>
       <c r="W168" s="8" t="n"/>
       <c r="X168" s="1">
@@ -17012,7 +16174,7 @@
       <c r="AB168" s="1" t="n"/>
       <c r="AC168" s="1" t="n"/>
       <c r="AD168" s="1" t="n">
-        <v>63300</v>
+        <v>11300</v>
       </c>
       <c r="AE168" s="1" t="n"/>
     </row>
@@ -17062,24 +16224,22 @@
       <c r="K169" s="1" t="n">
         <v>122.1954363660823</v>
       </c>
-      <c r="L169" s="1" t="n">
-        <v>55000</v>
-      </c>
+      <c r="L169" s="1" t="n"/>
       <c r="M169" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N169" s="1" t="n"/>
       <c r="O169" s="1" t="n">
-        <v>55122.19543636608</v>
+        <v>122.1954363660823</v>
       </c>
       <c r="P169" s="1" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q169" s="1" t="n">
         <v>2900</v>
       </c>
       <c r="R169" s="1" t="n">
-        <v>10000</v>
+        <v>2900</v>
       </c>
       <c r="S169" s="8" t="n"/>
       <c r="T169" s="1">
@@ -17091,12 +16251,11 @@
         <v/>
       </c>
       <c r="V169" s="1" t="n">
-        <v>43500</v>
+        <v>0</v>
       </c>
       <c r="W169" s="8" t="n"/>
-      <c r="X169" s="1">
-        <f>V169+W169</f>
-        <v/>
+      <c r="X169" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y169" s="1">
         <f>U169-X169</f>
@@ -17107,7 +16266,7 @@
       <c r="AB169" s="1" t="n"/>
       <c r="AC169" s="1" t="n"/>
       <c r="AD169" s="1" t="n">
-        <v>53500</v>
+        <v>2900</v>
       </c>
       <c r="AE169" s="1" t="n"/>
     </row>
@@ -17157,24 +16316,22 @@
       <c r="K170" s="1" t="n">
         <v>10054.05489088019</v>
       </c>
-      <c r="L170" s="1" t="n">
-        <v>99000</v>
-      </c>
+      <c r="L170" s="1" t="n"/>
       <c r="M170" s="1" t="n">
         <v>2874.9</v>
       </c>
       <c r="N170" s="1" t="n"/>
       <c r="O170" s="1" t="n">
-        <v>111641.4648908802</v>
+        <v>12641.46489088019</v>
       </c>
       <c r="P170" s="1" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q170" s="1" t="n">
         <v>3400</v>
       </c>
       <c r="R170" s="1" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="S170" s="8" t="n"/>
       <c r="T170" s="1">
@@ -17186,7 +16343,7 @@
         <v/>
       </c>
       <c r="V170" s="1" t="n">
-        <v>95200</v>
+        <v>6800</v>
       </c>
       <c r="W170" s="8" t="n"/>
       <c r="X170" s="1">
@@ -17202,7 +16359,7 @@
       <c r="AB170" s="1" t="n"/>
       <c r="AC170" s="1" t="n"/>
       <c r="AD170" s="1" t="n">
-        <v>110200</v>
+        <v>11800</v>
       </c>
       <c r="AE170" s="1" t="n"/>
     </row>
@@ -17252,24 +16409,22 @@
       <c r="K171" s="1" t="n">
         <v>7579.210610048141</v>
       </c>
-      <c r="L171" s="1" t="n">
-        <v>19000</v>
-      </c>
+      <c r="L171" s="1" t="n"/>
       <c r="M171" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N171" s="1" t="n"/>
       <c r="O171" s="1" t="n">
-        <v>26579.21061004814</v>
+        <v>7579.210610048141</v>
       </c>
       <c r="P171" s="1" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="Q171" s="1" t="n">
         <v>2600</v>
       </c>
       <c r="R171" s="1" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="S171" s="8" t="n"/>
       <c r="T171" s="1">
@@ -17281,12 +16436,11 @@
         <v/>
       </c>
       <c r="V171" s="1" t="n">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="W171" s="8" t="n"/>
-      <c r="X171" s="1">
-        <f>V171+W171</f>
-        <v/>
+      <c r="X171" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y171" s="1">
         <f>U171-X171</f>
@@ -17297,7 +16451,7 @@
       <c r="AB171" s="1" t="n"/>
       <c r="AC171" s="1" t="n"/>
       <c r="AD171" s="1" t="n">
-        <v>25400</v>
+        <v>6500</v>
       </c>
       <c r="AE171" s="1" t="n"/>
     </row>
@@ -17347,24 +16501,22 @@
       <c r="K172" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L172" s="1" t="n">
-        <v>105000</v>
-      </c>
+      <c r="L172" s="1" t="n"/>
       <c r="M172" s="1" t="n">
         <v>6233.873164113521</v>
       </c>
       <c r="N172" s="1" t="n"/>
       <c r="O172" s="1" t="n">
-        <v>110610.4858477022</v>
+        <v>5610.485847702169</v>
       </c>
       <c r="P172" s="1" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q172" s="1" t="n">
         <v>4100</v>
       </c>
       <c r="R172" s="1" t="n">
-        <v>20000</v>
+        <v>28700</v>
       </c>
       <c r="S172" s="8" t="n"/>
       <c r="T172" s="1">
@@ -17376,12 +16528,11 @@
         <v/>
       </c>
       <c r="V172" s="1" t="n">
-        <v>90200</v>
+        <v>0</v>
       </c>
       <c r="W172" s="8" t="n"/>
-      <c r="X172" s="1">
-        <f>V172+W172</f>
-        <v/>
+      <c r="X172" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y172" s="1">
         <f>U172-X172</f>
@@ -17392,7 +16543,7 @@
       <c r="AB172" s="1" t="n"/>
       <c r="AC172" s="1" t="n"/>
       <c r="AD172" s="1" t="n">
-        <v>110200</v>
+        <v>28700</v>
       </c>
       <c r="AE172" s="1" t="n"/>
     </row>
@@ -17442,24 +16593,22 @@
       <c r="K173" s="1" t="n">
         <v>11439.96768814613</v>
       </c>
-      <c r="L173" s="1" t="n">
-        <v>43000</v>
-      </c>
+      <c r="L173" s="1" t="n"/>
       <c r="M173" s="1" t="n">
         <v>3464.732393374877</v>
       </c>
       <c r="N173" s="1" t="n"/>
       <c r="O173" s="1" t="n">
-        <v>57558.22684218353</v>
+        <v>14558.22684218352</v>
       </c>
       <c r="P173" s="1" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q173" s="1" t="n">
         <v>4500</v>
       </c>
       <c r="R173" s="1" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="S173" s="8" t="n"/>
       <c r="T173" s="1">
@@ -17471,7 +16620,7 @@
         <v/>
       </c>
       <c r="V173" s="1" t="n">
-        <v>40500</v>
+        <v>9000</v>
       </c>
       <c r="W173" s="8" t="n"/>
       <c r="X173" s="1">
@@ -17487,7 +16636,7 @@
       <c r="AB173" s="1" t="n"/>
       <c r="AC173" s="1" t="n"/>
       <c r="AD173" s="1" t="n">
-        <v>54500</v>
+        <v>12000</v>
       </c>
       <c r="AE173" s="1" t="n"/>
     </row>
@@ -17537,24 +16686,22 @@
       <c r="K174" s="1" t="n">
         <v>33854.32298410688</v>
       </c>
-      <c r="L174" s="1" t="n">
-        <v>44000</v>
-      </c>
+      <c r="L174" s="1" t="n"/>
       <c r="M174" s="1" t="n">
         <v>8770.698249165427</v>
       </c>
       <c r="N174" s="1" t="n"/>
       <c r="O174" s="1" t="n">
-        <v>85747.95140835576</v>
+        <v>41747.95140835576</v>
       </c>
       <c r="P174" s="1" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="Q174" s="1" t="n">
         <v>7150</v>
       </c>
       <c r="R174" s="1" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="S174" s="8" t="n"/>
       <c r="T174" s="1">
@@ -17577,7 +16724,7 @@
         <v/>
       </c>
       <c r="Z174" s="1" t="n">
-        <v>28600</v>
+        <v>21450</v>
       </c>
       <c r="AA174" s="1" t="n"/>
       <c r="AB174" s="1">
@@ -17586,7 +16733,7 @@
       </c>
       <c r="AC174" s="1" t="n"/>
       <c r="AD174" s="1" t="n">
-        <v>78600</v>
+        <v>39450</v>
       </c>
       <c r="AE174" s="1" t="n"/>
     </row>
@@ -17636,24 +16783,22 @@
       <c r="K175" s="1" t="n">
         <v>5467.085694125542</v>
       </c>
-      <c r="L175" s="1" t="n">
-        <v>47000</v>
-      </c>
+      <c r="L175" s="1" t="n"/>
       <c r="M175" s="1" t="n">
         <v>2008.542697599974</v>
       </c>
       <c r="N175" s="1" t="n"/>
       <c r="O175" s="1" t="n">
-        <v>54274.77412196551</v>
+        <v>7274.77412196552</v>
       </c>
       <c r="P175" s="1" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="Q175" s="1" t="n">
         <v>2800</v>
       </c>
       <c r="R175" s="1" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="S175" s="8" t="n"/>
       <c r="T175" s="1">
@@ -17665,7 +16810,7 @@
         <v/>
       </c>
       <c r="V175" s="1" t="n">
-        <v>33600</v>
+        <v>2800</v>
       </c>
       <c r="W175" s="8" t="n"/>
       <c r="X175" s="1">
@@ -17681,7 +16826,7 @@
       <c r="AB175" s="1" t="n"/>
       <c r="AC175" s="1" t="n"/>
       <c r="AD175" s="1" t="n">
-        <v>53600</v>
+        <v>4800</v>
       </c>
       <c r="AE175" s="1" t="n"/>
     </row>
@@ -17731,24 +16876,22 @@
       <c r="K176" s="1" t="n">
         <v>13216.44184848089</v>
       </c>
-      <c r="L176" s="1" t="n">
-        <v>205000</v>
-      </c>
+      <c r="L176" s="1" t="n"/>
       <c r="M176" s="1" t="n">
         <v>3694.16807160875</v>
       </c>
       <c r="N176" s="1" t="n"/>
       <c r="O176" s="1" t="n">
-        <v>221541.1931129288</v>
+        <v>16541.19311292876</v>
       </c>
       <c r="P176" s="1" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q176" s="1" t="n">
         <v>5200</v>
       </c>
       <c r="R176" s="1" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="S176" s="8" t="n"/>
       <c r="T176" s="1">
@@ -17770,17 +16913,12 @@
         <f>U176-X176</f>
         <v/>
       </c>
-      <c r="Z176" s="1" t="n">
-        <v>208000</v>
-      </c>
+      <c r="Z176" s="1" t="n"/>
       <c r="AA176" s="1" t="n"/>
-      <c r="AB176" s="1">
-        <f>Z176+AA176</f>
-        <v/>
-      </c>
+      <c r="AB176" s="1" t="n"/>
       <c r="AC176" s="1" t="n"/>
       <c r="AD176" s="1" t="n">
-        <v>218000</v>
+        <v>15000</v>
       </c>
       <c r="AE176" s="1" t="n"/>
     </row>
@@ -17830,24 +16968,22 @@
       <c r="K177" s="1" t="n">
         <v>15138.31311031452</v>
       </c>
-      <c r="L177" s="1" t="n">
-        <v>205000</v>
-      </c>
+      <c r="L177" s="1" t="n"/>
       <c r="M177" s="1" t="n">
         <v>7684.626978460606</v>
       </c>
       <c r="N177" s="1" t="n"/>
       <c r="O177" s="1" t="n">
-        <v>227054.4773909291</v>
+        <v>22054.47739092907</v>
       </c>
       <c r="P177" s="1" t="n">
-        <v>58000</v>
+        <v>94000</v>
       </c>
       <c r="Q177" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="R177" s="1" t="n">
-        <v>58000</v>
+        <v>93600</v>
       </c>
       <c r="S177" s="8" t="n"/>
       <c r="T177" s="1">
@@ -17859,12 +16995,11 @@
         <v/>
       </c>
       <c r="V177" s="1" t="n">
-        <v>165600</v>
+        <v>0</v>
       </c>
       <c r="W177" s="8" t="n"/>
-      <c r="X177" s="1">
-        <f>V177+W177</f>
-        <v/>
+      <c r="X177" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y177" s="1">
         <f>U177-X177</f>
@@ -17875,7 +17010,7 @@
       <c r="AB177" s="1" t="n"/>
       <c r="AC177" s="1" t="n"/>
       <c r="AD177" s="1" t="n">
-        <v>223600</v>
+        <v>93600</v>
       </c>
       <c r="AE177" s="1" t="n"/>
     </row>
@@ -17925,24 +17060,22 @@
       <c r="K178" s="1" t="n">
         <v>21576.77518466664</v>
       </c>
-      <c r="L178" s="1" t="n">
-        <v>131000</v>
-      </c>
+      <c r="L178" s="1" t="n"/>
       <c r="M178" s="1" t="n">
         <v>5762.326282622074</v>
       </c>
       <c r="N178" s="1" t="n"/>
       <c r="O178" s="1" t="n">
-        <v>157762.8688390265</v>
+        <v>26762.86883902651</v>
       </c>
       <c r="P178" s="1" t="n">
-        <v>38000</v>
+        <v>9000</v>
       </c>
       <c r="Q178" s="1" t="n">
         <v>4300</v>
       </c>
       <c r="R178" s="1" t="n">
-        <v>38000</v>
+        <v>9000</v>
       </c>
       <c r="S178" s="8" t="n"/>
       <c r="T178" s="1">
@@ -17954,7 +17087,7 @@
         <v/>
       </c>
       <c r="V178" s="1" t="n">
-        <v>116100</v>
+        <v>17200</v>
       </c>
       <c r="W178" s="8" t="n"/>
       <c r="X178" s="1">
@@ -17970,7 +17103,7 @@
       <c r="AB178" s="1" t="n"/>
       <c r="AC178" s="1" t="n"/>
       <c r="AD178" s="1" t="n">
-        <v>154100</v>
+        <v>26200</v>
       </c>
       <c r="AE178" s="1" t="n"/>
     </row>
@@ -18020,18 +17153,16 @@
       <c r="K179" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L179" s="1" t="n">
-        <v>66000</v>
-      </c>
+      <c r="L179" s="1" t="n"/>
       <c r="M179" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N179" s="1" t="n"/>
       <c r="O179" s="1" t="n">
-        <v>66000</v>
+        <v>0</v>
       </c>
       <c r="P179" s="1" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Q179" s="1" t="n">
         <v>3900</v>
@@ -18059,18 +17190,11 @@
         <f>U179-X179</f>
         <v/>
       </c>
-      <c r="Z179" s="1" t="n">
-        <v>62400</v>
-      </c>
+      <c r="Z179" s="1" t="n"/>
       <c r="AA179" s="1" t="n"/>
-      <c r="AB179" s="1">
-        <f>Z179+AA179</f>
-        <v/>
-      </c>
+      <c r="AB179" s="1" t="n"/>
       <c r="AC179" s="1" t="n"/>
-      <c r="AD179" s="1" t="n">
-        <v>62400</v>
-      </c>
+      <c r="AD179" s="1" t="n"/>
       <c r="AE179" s="1" t="n"/>
     </row>
     <row r="180">
@@ -18119,24 +17243,22 @@
       <c r="K180" s="1" t="n">
         <v>18357.1574530717</v>
       </c>
-      <c r="L180" s="1" t="n">
-        <v>113000</v>
-      </c>
+      <c r="L180" s="1" t="n"/>
       <c r="M180" s="1" t="n">
         <v>3028.589079076377</v>
       </c>
       <c r="N180" s="1" t="n"/>
       <c r="O180" s="1" t="n">
-        <v>134082.8876242405</v>
+        <v>21082.88762424044</v>
       </c>
       <c r="P180" s="1" t="n">
-        <v>54000</v>
+        <v>47400</v>
       </c>
       <c r="Q180" s="1" t="n">
         <v>3300</v>
       </c>
       <c r="R180" s="1" t="n">
-        <v>54000</v>
+        <v>46200</v>
       </c>
       <c r="S180" s="8" t="n"/>
       <c r="T180" s="1">
@@ -18148,12 +17270,11 @@
         <v/>
       </c>
       <c r="V180" s="1" t="n">
-        <v>79200</v>
+        <v>0</v>
       </c>
       <c r="W180" s="8" t="n"/>
-      <c r="X180" s="1">
-        <f>V180+W180</f>
-        <v/>
+      <c r="X180" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y180" s="1">
         <f>U180-X180</f>
@@ -18164,7 +17285,7 @@
       <c r="AB180" s="1" t="n"/>
       <c r="AC180" s="1" t="n"/>
       <c r="AD180" s="1" t="n">
-        <v>133200</v>
+        <v>46200</v>
       </c>
       <c r="AE180" s="1" t="n"/>
     </row>
@@ -18214,15 +17335,13 @@
       <c r="K181" s="1" t="n">
         <v>3106.702961281978</v>
       </c>
-      <c r="L181" s="1" t="n">
-        <v>30000</v>
-      </c>
+      <c r="L181" s="1" t="n"/>
       <c r="M181" s="1" t="n">
         <v>856.0969585416043</v>
       </c>
       <c r="N181" s="1" t="n"/>
       <c r="O181" s="1" t="n">
-        <v>33877.19022396942</v>
+        <v>3877.190223969422</v>
       </c>
       <c r="P181" s="1" t="n">
         <v>6000</v>
@@ -18243,12 +17362,11 @@
         <v/>
       </c>
       <c r="V181" s="1" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="W181" s="8" t="n"/>
-      <c r="X181" s="1">
-        <f>V181+W181</f>
-        <v/>
+      <c r="X181" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y181" s="1">
         <f>U181-X181</f>
@@ -18259,7 +17377,7 @@
       <c r="AB181" s="1" t="n"/>
       <c r="AC181" s="1" t="n"/>
       <c r="AD181" s="1" t="n">
-        <v>33000</v>
+        <v>6000</v>
       </c>
       <c r="AE181" s="1" t="n"/>
     </row>
@@ -18309,9 +17427,7 @@
       <c r="K182" s="1" t="n">
         <v>12136.01764213015</v>
       </c>
-      <c r="L182" s="1" t="n">
-        <v>99000</v>
-      </c>
+      <c r="L182" s="1" t="n"/>
       <c r="M182" s="1" t="n">
         <v>0</v>
       </c>
@@ -18319,16 +17435,16 @@
         <v>2500</v>
       </c>
       <c r="O182" s="1" t="n">
-        <v>108636.0176421301</v>
+        <v>9636.017642130146</v>
       </c>
       <c r="P182" s="1" t="n">
-        <v>11000</v>
+        <v>10870</v>
       </c>
       <c r="Q182" s="1" t="n">
         <v>2500</v>
       </c>
       <c r="R182" s="1" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="S182" s="8" t="n"/>
       <c r="T182" s="1">
@@ -18340,12 +17456,11 @@
         <v/>
       </c>
       <c r="V182" s="1" t="n">
-        <v>97500</v>
+        <v>0</v>
       </c>
       <c r="W182" s="8" t="n"/>
-      <c r="X182" s="1">
-        <f>V182+W182</f>
-        <v/>
+      <c r="X182" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y182" s="1">
         <f>U182-X182</f>
@@ -18356,7 +17471,7 @@
       <c r="AB182" s="1" t="n"/>
       <c r="AC182" s="1" t="n"/>
       <c r="AD182" s="1" t="n">
-        <v>108500</v>
+        <v>10000</v>
       </c>
       <c r="AE182" s="1" t="n"/>
     </row>
@@ -18406,24 +17521,22 @@
       <c r="K183" s="1" t="n">
         <v>51131.82961966559</v>
       </c>
-      <c r="L183" s="1" t="n">
-        <v>225000</v>
-      </c>
+      <c r="L183" s="1" t="n"/>
       <c r="M183" s="1" t="n">
         <v>13008.82253865827</v>
       </c>
       <c r="N183" s="1" t="n"/>
       <c r="O183" s="1" t="n">
-        <v>287839.769904458</v>
+        <v>62839.76990445804</v>
       </c>
       <c r="P183" s="1" t="n">
-        <v>108000</v>
+        <v>114000</v>
       </c>
       <c r="Q183" s="1" t="n">
         <v>5200</v>
       </c>
       <c r="R183" s="1" t="n">
-        <v>108000</v>
+        <v>109200</v>
       </c>
       <c r="S183" s="8" t="n"/>
       <c r="T183" s="1">
@@ -18445,17 +17558,12 @@
         <f>U183-X183</f>
         <v/>
       </c>
-      <c r="Z183" s="1" t="n">
-        <v>176800</v>
-      </c>
+      <c r="Z183" s="1" t="n"/>
       <c r="AA183" s="1" t="n"/>
-      <c r="AB183" s="1">
-        <f>Z183+AA183</f>
-        <v/>
-      </c>
+      <c r="AB183" s="1" t="n"/>
       <c r="AC183" s="1" t="n"/>
       <c r="AD183" s="1" t="n">
-        <v>284800</v>
+        <v>109200</v>
       </c>
       <c r="AE183" s="1" t="n"/>
     </row>
@@ -18505,24 +17613,22 @@
       <c r="K184" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L184" s="1" t="n">
-        <v>168000</v>
-      </c>
+      <c r="L184" s="1" t="n"/>
       <c r="M184" s="1" t="n">
         <v>15924.02633349203</v>
       </c>
       <c r="N184" s="1" t="n"/>
       <c r="O184" s="1" t="n">
-        <v>182331.6237001428</v>
+        <v>14331.62370014283</v>
       </c>
       <c r="P184" s="1" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="Q184" s="1" t="n">
         <v>15300</v>
       </c>
       <c r="R184" s="1" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="S184" s="8" t="n"/>
       <c r="T184" s="1">
@@ -18544,17 +17650,12 @@
         <f>U184-X184</f>
         <v/>
       </c>
-      <c r="Z184" s="1" t="n">
-        <v>153000</v>
-      </c>
+      <c r="Z184" s="1" t="n"/>
       <c r="AA184" s="1" t="n"/>
-      <c r="AB184" s="1">
-        <f>Z184+AA184</f>
-        <v/>
-      </c>
+      <c r="AB184" s="1" t="n"/>
       <c r="AC184" s="1" t="n"/>
       <c r="AD184" s="1" t="n">
-        <v>176000</v>
+        <v>0</v>
       </c>
       <c r="AE184" s="1" t="n"/>
     </row>
@@ -18604,24 +17705,22 @@
       <c r="K185" s="1" t="n">
         <v>20545.07447509479</v>
       </c>
-      <c r="L185" s="1" t="n">
-        <v>100000</v>
-      </c>
+      <c r="L185" s="1" t="n"/>
       <c r="M185" s="1" t="n">
         <v>9223.684823650821</v>
       </c>
       <c r="N185" s="1" t="n"/>
       <c r="O185" s="1" t="n">
-        <v>128846.3908163805</v>
+        <v>28846.39081638052</v>
       </c>
       <c r="P185" s="1" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="Q185" s="1" t="n">
         <v>4550</v>
       </c>
       <c r="R185" s="1" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="S185" s="8" t="n"/>
       <c r="T185" s="1">
@@ -18633,7 +17732,7 @@
         <v/>
       </c>
       <c r="V185" s="1" t="n">
-        <v>100100</v>
+        <v>13650</v>
       </c>
       <c r="W185" s="8" t="n"/>
       <c r="X185" s="1">
@@ -18649,7 +17748,7 @@
       <c r="AB185" s="1" t="n"/>
       <c r="AC185" s="1" t="n"/>
       <c r="AD185" s="1" t="n">
-        <v>125100</v>
+        <v>28150</v>
       </c>
       <c r="AE185" s="1" t="n"/>
     </row>
@@ -18699,15 +17798,13 @@
       <c r="K186" s="1" t="n">
         <v>29846.62202683448</v>
       </c>
-      <c r="L186" s="1" t="n">
-        <v>192000</v>
-      </c>
+      <c r="L186" s="1" t="n"/>
       <c r="M186" s="1" t="n">
         <v>9948.525303747372</v>
       </c>
       <c r="N186" s="1" t="n"/>
       <c r="O186" s="1" t="n">
-        <v>230800.2948002071</v>
+        <v>38800.29480020711</v>
       </c>
       <c r="P186" s="1" t="n">
         <v>48000</v>
@@ -18716,7 +17813,7 @@
         <v>21600</v>
       </c>
       <c r="R186" s="1" t="n">
-        <v>48000</v>
+        <v>43200</v>
       </c>
       <c r="S186" s="8" t="n"/>
       <c r="T186" s="1">
@@ -18738,17 +17835,12 @@
         <f>U186-X186</f>
         <v/>
       </c>
-      <c r="Z186" s="1" t="n">
-        <v>172800</v>
-      </c>
+      <c r="Z186" s="1" t="n"/>
       <c r="AA186" s="1" t="n"/>
-      <c r="AB186" s="1">
-        <f>Z186+AA186</f>
-        <v/>
-      </c>
+      <c r="AB186" s="1" t="n"/>
       <c r="AC186" s="1" t="n"/>
       <c r="AD186" s="1" t="n">
-        <v>220800</v>
+        <v>43200</v>
       </c>
       <c r="AE186" s="1" t="n"/>
     </row>
@@ -18798,15 +17890,13 @@
       <c r="K187" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L187" s="1" t="n">
-        <v>75000</v>
-      </c>
+      <c r="L187" s="1" t="n"/>
       <c r="M187" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N187" s="1" t="n"/>
       <c r="O187" s="1" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="P187" s="1" t="n">
         <v>0</v>
@@ -18837,18 +17927,11 @@
         <f>U187-X187</f>
         <v/>
       </c>
-      <c r="Z187" s="1" t="n">
-        <v>73500</v>
-      </c>
+      <c r="Z187" s="1" t="n"/>
       <c r="AA187" s="1" t="n"/>
-      <c r="AB187" s="1">
-        <f>Z187+AA187</f>
-        <v/>
-      </c>
+      <c r="AB187" s="1" t="n"/>
       <c r="AC187" s="1" t="n"/>
-      <c r="AD187" s="1" t="n">
-        <v>73500</v>
-      </c>
+      <c r="AD187" s="1" t="n"/>
       <c r="AE187" s="1" t="n"/>
     </row>
     <row r="188">
@@ -18897,24 +17980,22 @@
       <c r="K188" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L188" s="1" t="n">
-        <v>5000</v>
-      </c>
+      <c r="L188" s="1" t="n"/>
       <c r="M188" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N188" s="1" t="n"/>
       <c r="O188" s="1" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="P188" s="1" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q188" s="1" t="n">
         <v>2200</v>
       </c>
       <c r="R188" s="1" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="S188" s="8" t="n"/>
       <c r="T188" s="1">
@@ -18936,18 +18017,11 @@
         <f>U188-X188</f>
         <v/>
       </c>
-      <c r="Z188" s="1" t="n">
-        <v>2200</v>
-      </c>
+      <c r="Z188" s="1" t="n"/>
       <c r="AA188" s="1" t="n"/>
-      <c r="AB188" s="1">
-        <f>Z188+AA188</f>
-        <v/>
-      </c>
+      <c r="AB188" s="1" t="n"/>
       <c r="AC188" s="1" t="n"/>
-      <c r="AD188" s="1" t="n">
-        <v>4200</v>
-      </c>
+      <c r="AD188" s="1" t="n"/>
       <c r="AE188" s="1" t="n"/>
     </row>
     <row r="189">
@@ -18996,24 +18070,22 @@
       <c r="K189" s="1" t="n">
         <v>8149.971572315032</v>
       </c>
-      <c r="L189" s="1" t="n">
-        <v>22000</v>
-      </c>
+      <c r="L189" s="1" t="n"/>
       <c r="M189" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N189" s="1" t="n"/>
       <c r="O189" s="1" t="n">
-        <v>30149.97157231503</v>
+        <v>8149.971572315032</v>
       </c>
       <c r="P189" s="1" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q189" s="1" t="n">
         <v>3150</v>
       </c>
       <c r="R189" s="1" t="n">
-        <v>15000</v>
+        <v>9450</v>
       </c>
       <c r="S189" s="8" t="n"/>
       <c r="T189" s="1">
@@ -19035,17 +18107,12 @@
         <f>U189-X189</f>
         <v/>
       </c>
-      <c r="Z189" s="1" t="n">
-        <v>12600</v>
-      </c>
+      <c r="Z189" s="1" t="n"/>
       <c r="AA189" s="1" t="n"/>
-      <c r="AB189" s="1">
-        <f>Z189+AA189</f>
-        <v/>
-      </c>
+      <c r="AB189" s="1" t="n"/>
       <c r="AC189" s="1" t="n"/>
       <c r="AD189" s="1" t="n">
-        <v>27600</v>
+        <v>9450</v>
       </c>
       <c r="AE189" s="1" t="n"/>
     </row>
@@ -19095,24 +18162,22 @@
       <c r="K190" s="1" t="n">
         <v>12247.38563476759</v>
       </c>
-      <c r="L190" s="1" t="n">
-        <v>120000</v>
-      </c>
+      <c r="L190" s="1" t="n"/>
       <c r="M190" s="1" t="n">
         <v>4803.649519251489</v>
       </c>
       <c r="N190" s="1" t="n"/>
       <c r="O190" s="1" t="n">
-        <v>136570.6702020939</v>
+        <v>16570.67020209393</v>
       </c>
       <c r="P190" s="1" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q190" s="1" t="n">
         <v>5000</v>
       </c>
       <c r="R190" s="1" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="S190" s="8" t="n"/>
       <c r="T190" s="1">
@@ -19124,12 +18189,11 @@
         <v/>
       </c>
       <c r="V190" s="1" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="W190" s="8" t="n"/>
-      <c r="X190" s="1">
-        <f>V190+W190</f>
-        <v/>
+      <c r="X190" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y190" s="1">
         <f>U190-X190</f>
@@ -19140,7 +18204,7 @@
       <c r="AB190" s="1" t="n"/>
       <c r="AC190" s="1" t="n"/>
       <c r="AD190" s="1" t="n">
-        <v>135000</v>
+        <v>60000</v>
       </c>
       <c r="AE190" s="1" t="n"/>
     </row>
@@ -19190,9 +18254,7 @@
       <c r="K191" s="1" t="n">
         <v>6911.002654223489</v>
       </c>
-      <c r="L191" s="1" t="n">
-        <v>46000</v>
-      </c>
+      <c r="L191" s="1" t="n"/>
       <c r="M191" s="1" t="n">
         <v>0</v>
       </c>
@@ -19200,16 +18262,16 @@
         <v>2500</v>
       </c>
       <c r="O191" s="1" t="n">
-        <v>50411.00265422349</v>
+        <v>4411.002654223489</v>
       </c>
       <c r="P191" s="1" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="Q191" s="1" t="n">
         <v>2200</v>
       </c>
       <c r="R191" s="1" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="S191" s="8" t="n"/>
       <c r="T191" s="1">
@@ -19221,12 +18283,11 @@
         <v/>
       </c>
       <c r="V191" s="1" t="n">
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="W191" s="8" t="n"/>
-      <c r="X191" s="1">
-        <f>V191+W191</f>
-        <v/>
+      <c r="X191" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y191" s="1">
         <f>U191-X191</f>
@@ -19237,7 +18298,7 @@
       <c r="AB191" s="1" t="n"/>
       <c r="AC191" s="1" t="n"/>
       <c r="AD191" s="1" t="n">
-        <v>48600</v>
+        <v>22000</v>
       </c>
       <c r="AE191" s="1" t="n"/>
     </row>
@@ -19287,24 +18348,22 @@
       <c r="K192" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L192" s="1" t="n">
-        <v>70000</v>
-      </c>
+      <c r="L192" s="1" t="n"/>
       <c r="M192" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N192" s="1" t="n"/>
       <c r="O192" s="1" t="n">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="P192" s="1" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q192" s="1" t="n">
         <v>3100</v>
       </c>
       <c r="R192" s="1" t="n">
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="S192" s="8" t="n"/>
       <c r="T192" s="1">
@@ -19326,18 +18385,11 @@
         <f>U192-X192</f>
         <v/>
       </c>
-      <c r="Z192" s="1" t="n">
-        <v>68200</v>
-      </c>
+      <c r="Z192" s="1" t="n"/>
       <c r="AA192" s="1" t="n"/>
-      <c r="AB192" s="1">
-        <f>Z192+AA192</f>
-        <v/>
-      </c>
+      <c r="AB192" s="1" t="n"/>
       <c r="AC192" s="1" t="n"/>
-      <c r="AD192" s="1" t="n">
-        <v>68200</v>
-      </c>
+      <c r="AD192" s="1" t="n"/>
       <c r="AE192" s="1" t="n"/>
     </row>
     <row r="193">
@@ -19478,15 +18530,13 @@
       <c r="K194" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L194" s="1" t="n">
-        <v>176000</v>
-      </c>
+      <c r="L194" s="1" t="n"/>
       <c r="M194" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N194" s="1" t="n"/>
       <c r="O194" s="1" t="n">
-        <v>176000</v>
+        <v>0</v>
       </c>
       <c r="P194" s="1" t="n">
         <v>0</v>
@@ -19517,18 +18567,11 @@
         <f>U194-X194</f>
         <v/>
       </c>
-      <c r="Z194" s="1" t="n">
-        <v>164500</v>
-      </c>
+      <c r="Z194" s="1" t="n"/>
       <c r="AA194" s="1" t="n"/>
-      <c r="AB194" s="1">
-        <f>Z194+AA194</f>
-        <v/>
-      </c>
+      <c r="AB194" s="1" t="n"/>
       <c r="AC194" s="1" t="n"/>
-      <c r="AD194" s="1" t="n">
-        <v>164500</v>
-      </c>
+      <c r="AD194" s="1" t="n"/>
       <c r="AE194" s="1" t="n"/>
     </row>
     <row r="195">
@@ -19577,24 +18620,22 @@
       <c r="K195" s="1" t="n">
         <v>3397.497164279744</v>
       </c>
-      <c r="L195" s="1" t="n">
-        <v>20000</v>
-      </c>
+      <c r="L195" s="1" t="n"/>
       <c r="M195" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N195" s="1" t="n"/>
       <c r="O195" s="1" t="n">
-        <v>23397.49716427974</v>
+        <v>3397.497164279744</v>
       </c>
       <c r="P195" s="1" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q195" s="1" t="n">
         <v>2500</v>
       </c>
       <c r="R195" s="1" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="S195" s="8" t="n"/>
       <c r="T195" s="1">
@@ -19606,12 +18647,11 @@
         <v/>
       </c>
       <c r="V195" s="1" t="n">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="W195" s="8" t="n"/>
-      <c r="X195" s="1">
-        <f>V195+W195</f>
-        <v/>
+      <c r="X195" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y195" s="1">
         <f>U195-X195</f>
@@ -19622,7 +18662,7 @@
       <c r="AB195" s="1" t="n"/>
       <c r="AC195" s="1" t="n"/>
       <c r="AD195" s="1" t="n">
-        <v>22500</v>
+        <v>2500</v>
       </c>
       <c r="AE195" s="1" t="n"/>
     </row>
@@ -19672,24 +18712,22 @@
       <c r="K196" s="1" t="n">
         <v>5350.45</v>
       </c>
-      <c r="L196" s="1" t="n">
-        <v>130000</v>
-      </c>
+      <c r="L196" s="1" t="n"/>
       <c r="M196" s="1" t="n">
         <v>1002.559094495431</v>
       </c>
       <c r="N196" s="1" t="n"/>
       <c r="O196" s="1" t="n">
-        <v>136353.0090944954</v>
+        <v>6353.009094495431</v>
       </c>
       <c r="P196" s="1" t="n">
-        <v>27500</v>
+        <v>31000</v>
       </c>
       <c r="Q196" s="1" t="n">
         <v>2950</v>
       </c>
       <c r="R196" s="1" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="S196" s="8" t="n"/>
       <c r="T196" s="1">
@@ -19701,12 +18739,11 @@
         <v/>
       </c>
       <c r="V196" s="1" t="n">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="W196" s="8" t="n"/>
-      <c r="X196" s="1">
-        <f>V196+W196</f>
-        <v/>
+      <c r="X196" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y196" s="1">
         <f>U196-X196</f>
@@ -19717,7 +18754,7 @@
       <c r="AB196" s="1" t="n"/>
       <c r="AC196" s="1" t="n"/>
       <c r="AD196" s="1" t="n">
-        <v>133700</v>
+        <v>29500</v>
       </c>
       <c r="AE196" s="1" t="n"/>
     </row>
@@ -19767,9 +18804,7 @@
       <c r="K197" s="1" t="n">
         <v>40051.48774107786</v>
       </c>
-      <c r="L197" s="1" t="n">
-        <v>310000</v>
-      </c>
+      <c r="L197" s="1" t="n"/>
       <c r="M197" s="1" t="n">
         <v>2147.007879400132</v>
       </c>
@@ -19777,16 +18812,16 @@
         <v>3000</v>
       </c>
       <c r="O197" s="1" t="n">
-        <v>348983.7948325379</v>
+        <v>38983.79483253798</v>
       </c>
       <c r="P197" s="1" t="n">
-        <v>38500</v>
+        <v>71000</v>
       </c>
       <c r="Q197" s="1" t="n">
         <v>3800</v>
       </c>
       <c r="R197" s="1" t="n">
-        <v>38500</v>
+        <v>68400</v>
       </c>
       <c r="S197" s="8" t="n"/>
       <c r="T197" s="1">
@@ -19798,12 +18833,11 @@
         <v/>
       </c>
       <c r="V197" s="1" t="n">
-        <v>307800</v>
+        <v>0</v>
       </c>
       <c r="W197" s="8" t="n"/>
-      <c r="X197" s="1">
-        <f>V197+W197</f>
-        <v/>
+      <c r="X197" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y197" s="1">
         <f>U197-X197</f>
@@ -19814,7 +18848,7 @@
       <c r="AB197" s="1" t="n"/>
       <c r="AC197" s="1" t="n"/>
       <c r="AD197" s="1" t="n">
-        <v>346300</v>
+        <v>68400</v>
       </c>
       <c r="AE197" s="1" t="n"/>
     </row>
@@ -19864,24 +18898,22 @@
       <c r="K198" s="1" t="n">
         <v>4757.888129899608</v>
       </c>
-      <c r="L198" s="1" t="n">
-        <v>20000</v>
-      </c>
+      <c r="L198" s="1" t="n"/>
       <c r="M198" s="1" t="n">
         <v>2162.288073214614</v>
       </c>
       <c r="N198" s="1" t="n"/>
       <c r="O198" s="1" t="n">
-        <v>26703.94739579276</v>
+        <v>6703.947395792761</v>
       </c>
       <c r="P198" s="1" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q198" s="1" t="n">
         <v>2500</v>
       </c>
       <c r="R198" s="1" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="S198" s="8" t="n"/>
       <c r="T198" s="1">
@@ -19893,12 +18925,11 @@
         <v/>
       </c>
       <c r="V198" s="1" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="W198" s="8" t="n"/>
-      <c r="X198" s="1">
-        <f>V198+W198</f>
-        <v/>
+      <c r="X198" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y198" s="1">
         <f>U198-X198</f>
@@ -19909,7 +18940,7 @@
       <c r="AB198" s="1" t="n"/>
       <c r="AC198" s="1" t="n"/>
       <c r="AD198" s="1" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="AE198" s="1" t="n"/>
     </row>
@@ -19970,13 +19001,13 @@
         <v>7331.726181964937</v>
       </c>
       <c r="P199" s="1" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="Q199" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="R199" s="1" t="n">
-        <v>5000</v>
+        <v>8400</v>
       </c>
       <c r="S199" s="8" t="n"/>
       <c r="T199" s="1">
@@ -19988,12 +19019,11 @@
         <v/>
       </c>
       <c r="V199" s="1" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="W199" s="8" t="n"/>
-      <c r="X199" s="1">
-        <f>V199+W199</f>
-        <v/>
+      <c r="X199" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y199" s="1">
         <f>U199-X199</f>
@@ -20004,7 +19034,7 @@
       <c r="AB199" s="1" t="n"/>
       <c r="AC199" s="1" t="n"/>
       <c r="AD199" s="1" t="n">
-        <v>6200</v>
+        <v>8400</v>
       </c>
       <c r="AE199" s="1" t="n"/>
     </row>
@@ -20159,13 +19189,13 @@
         <v>0</v>
       </c>
       <c r="P201" s="1" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="Q201" s="1" t="n">
         <v>7200</v>
       </c>
       <c r="R201" s="1" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="S201" s="8" t="n"/>
       <c r="T201" s="1">
